--- a/backend/IndiaTv.xlsx
+++ b/backend/IndiaTv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Heading</t>
   </si>
@@ -29,267 +29,262 @@
   </si>
   <si>
     <t xml:space="preserve">
-      'Get it investigated by NIA': Chhattisgarh CM Baghel responds to BJP's demand for probe into worker's killing    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhattisgarh Chief Minister Bhupesh Baghel addressed the recent killing of a BJP worker in the Naxal-affected district of Mohla-Manpur-Ambagarh Chowki. In response to the Bharatiya Janata Party's (BJP) request for a National Investigation Agency (NIA) probe, Baghel stated that the opposition could pursue an NIA investigation if they were dissatisfied with the state police's investigation. The incident involved the shooting of BJP worker Birju Taram by suspected Naxalites in his village of Sarkheda under the Aundhi police station area on the night of October 20. The BJP has labelled it a "targeted" killing.When questioned about the BJP's claims, Baghel reminded them that he had previously suggested involving the NIA in investigations in cases where they felt BJP workers were being targeted and killed. Baghel stated, "If they feel the incident of Mohla-Manpur is a targeted killing, then they should get it investigated by the NIA. Who is stopping them? The way ED and IT are roaming here, NIA can also come. Who will stop them (NIA)? Investigation should be done based on facts. Whether the probe is done by the government, state police, or NIA, the truth must come out."In the meantime, BJP State Unit Chief Arun Sao visited Taram's house in Sarkheda, alleging that the incident was not only a targeted killing but also a political murder with the intention of seizing power. Sao emphasised the importance of eliminating violence in a democracy and promised the BJP's commitment to securing justice for Taram's family.He further criticised the Congress government, claiming that they were fearful of public backlash due to anticipated defeat in the upcoming Assembly polls and that this fear was contributing to the killing of BJP workers.Advertisement
- </t>
-  </si>
-  <si>
-    <t>chhattisgarh-assembly-elections-bhupesh-baghel-responds-bjp-demand-nia-probe-worker-killing-congress-naxalites-mohla-manpur-ambagarh-chowki-mp-police-2023-10-24-899370</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/chhattisgarh/chhattisgarh-assembly-elections-bhupesh-baghel-responds-bjp-demand-nia-probe-worker-killing-congress-naxalites-mohla-manpur-ambagarh-chowki-mp-police-2023-10-24-899370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Israel-Hamas war: Owaisi urges PM Modi to make effort to establish humanitarian corridor in Gaza    </t>
-  </si>
-  <si>
-    <t>Asaduddin Owaisi, the president of AIMIM, has called upon Prime Minister Narendra Modi to take immediate action to facilitate the establishment of a humanitarian corridor in Gaza. This corridor would serve as a lifeline for the people in Gaza, providing much-needed relief and a ceasefire during the ongoing conflict. Owaisi's plea came after he addressed a public gathering at the AIMIM headquarters, denouncing the reported atrocities committed by Israel in Palestine.Appeal amidst ongoing Gaza conflictThe conflict between Israel and Palestine escalated when the Palestinian militant group Hamas initiated a barrage of rocket attacks on Southern Israel on October 7. In response, the Israel Defense Forces carried out retaliatory strikes.Urgent need for humanitarian assistanceExpressing concern over the dire situation in Gaza, Owaisi emphasised the critical need for a ceasefire and the establishment of a humanitarian corridor. He cited the shortage of essential supplies like electricity, oxygen, and medical equipment in Gaza, highlighting that approximately 50,000 pregnant women are among those in urgent need of assistance.Strong condemnation of Gaza situationOwaisi did not mince words when he characterised Israel's actions in Gaza as "genocide." He called upon Prime Minister Modi to leverage his role as the head of the G20 to broker a ceasefire and open a humanitarian corridor, ultimately saving lives and providing relief to the Palestinian people.Resolutions passed in support of PalestineAdvertisement
- During the protest meeting, several resolutions were passed in solidarity with the Palestinian people. These resolutions included condemning attempts by some Indian state governments to discourage or criminalise protests against Israeli actions in Gaza. Furthermore, they expressed support for the Palestinian struggle to end the occupation of their lands.Call for adherence to international law
+      Deepotsav: Ayodhya to create world record with 24 lakh diyas at 51 ghats, UP govt starts online diya booking    </t>
+  </si>
+  <si>
+    <t>Ayodhya Deepotsav 2023: The city of Ayodhya is all set to hold a grand 'Deepotsav' today (November 11) on the eve of Diwali, with over 24 lakh diyas at 51 ghats set to illuminate in large numbers. As part of the celebration, Shri Ram Janmabhoomi Path is also being decorated with different types of flowers for Deepotsav 2023.Decked heavily with around 24 lakh earthen lamps, the Uttar Pradesh government is also planning to create a Guinness World Record. People from different places, including tribal people from the Pakur district of Jharkhand, will witness the grand Deepotsav.At 2:00 pm, UP Chief Minister Yogi Adityanath will reach Ayodhya today. High commissioners and ambassadors of over 50 countries will participate in the event. Deputy CM Keshav Prasad Maurya and Brajesh Pathak will attend the event. The tableau of Lord Ram will reach Ram Katha Park at around 2.30 pm. At 6:30 pm, CM Yogi Adityanath will perform Saryu Aarti. He will inaugurate the festival of lights at Ram Ki Paidi at 7.30 pmAround 48 tribal people from the Pakur district of Jharkhand have arrived in Ayodhya to celebrate Deepotsav on Saturday. The people of this tribe reside in the mountainous region and have come to Ayodhya barefooted to attend the grand Deepotsav.Image Source : PTI (FILE)Earthen lamps being arranged in a pattern for the seventh Deepotsav celebration at the Ram Ki Pouri in AyodhyaThe Jharkhand Pradesh Shri Ram Janaki Charitable Service Trust has sent them to participate in the Deep Utsav at Ayodhya city.Tomorrow (November 12), they will light the lamp in the presence of Uttar Pradesh Chief Minister Yogi Adityanath in their traditional attire. The people from the Pakur district have come to Ayodhya for the first time. Earlier, the people from the Santhali community came to witness Diwali in Ayodhya. People can now be a part of Deepotsav in Ayodhya by paying a sum as low as Rs 51 for a diya to Rs 1,100 for 51 diyas. The only difference will be that their diya will be illuminated at a designated place picked by them, at the click of the mouse at the virtual space developed by Ayodhya Development Authority for the purpose.The dedicated portal- which will play e-Deepotsav- has been set up for people who want to take part in the mega event from far-off places. The portal also offers live feed of the events unfolding in Ayodhya (Uttar Pradesh) on the occasion of Deepotsav. A special online programme has been prepared to connect the worshippers of Lord Rama from India and abroad with the Deepotsav, said RP Yadav, deputy director, tourism department.Advertisement
+ “The idea is to let people buy e-lamps by booking packages in this e-Deepotsav and feel connected with the noble event,” he said.
 Advertisement
-One of the resolutions stressed the importance of Israel adhering to international law, UN resolutions, and the Oslo Accords of 1992-93. It urged Israel to end its occupation of the Gaza Strip, the West Bank, Jerusalem, and all territories occupied since 1967. The resolution emphasised the necessity of allowing the formation of a free and sovereign Palestinian state.India's legacy of support for Palestine</t>
-  </si>
-  <si>
-    <t>hyderabad-israel-hamas-war-aimim-chief-asaduddin-owaisi-urges-pm-modi-establish-humanitarian-corridor-gaza-ceasefire-palestine-defense-forces-rocket-attacks-2023-10-24-899351</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/telangana/hyderabad-israel-hamas-war-aimim-chief-asaduddin-owaisi-urges-pm-modi-establish-humanitarian-corridor-gaza-ceasefire-palestine-defense-forces-rocket-attacks-2023-10-24-899351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Sri Lanka approves visa-free entry for visitors from India, China, Russia and four other countries    </t>
-  </si>
-  <si>
-    <t>In a major development, Sri Lanka has approved issuing free visas to India, China, Russia, Malaysia, Japan, Indonesia and Thailand with immediate effect as a pilot project till 31 March. As per the Sri Lankan media reports, the latest decision has been taken in order to give a boost to the tourism industry. " We are expecting to increase tourist arrivals to five million over the coming years,” the ministry said as quoted by the Sri Lankan media. Last week, the Ministry of Tourism announced that a Cabinet Paper had been presented during the previous Cabinet meeting, proposing the issue of free tourist visas to foreigners from five countries who intend to visit Sri Lanka as tourists, Daily Mirror Online reported.Advertisement
- Notably, Sri Lanka, an island nation, is majorly dependent on the tourism sector. The industry is considered a significant contributor to the country's GDP.  However, it has been ruined by back-to-back tragedies that occurred due to the COVID-19 pandemic and then bad implementation of agricultural reforms. In fact, this led the country to plunge into crisis.</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/sri-lanka-approves-visa-free-entry-for-visitors-from-india-china-russia-malaysia-japan-indonesia-thailand-india-sri-lanka-ties-ali-sabry-pm-modi-mea-2023-10-24-899341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Dussehra 2023: Katrina Kaif to Anupam Kher, celebs extend special wishes to fans    </t>
-  </si>
-  <si>
-    <t>On the auspicious occasion of Vijayadashami aka Dussehra, Bollywood celebrities including Katrina Kaif, Alia Bhatt, and Siddharth Malhotra, among many others have extended special wishes on social media to their fans. Anupam Kher on his Instagram account shared a motion poster of Lord Rama and wrote, ''Best wishes to all of you on the auspicious Dussehra! #HappyDussehra to all!''
-Raazi star Alia Bhatt took to her Instagram Stories to wish her fans on the occasion and wrote, ''Wishing you all a very Happy Dussehra.''Image Source : INSTAGRAM Alia Bhatt's latest Instagram Stories Anil Kapoor, who recently deleted all his Instagram posts and came back in the Mr India avatar for a commercial, also sent heartfelt wishes to his fans on Instagram. ''HAPPY DUSSEHRA. On this joyous occasion of Dussehra, may good always triumph over evil in your life,'' he wrote in his Instagram Stories. Image Source : INSTAGRAM Anil Kapoor's latest Instagram StoriesSuniel Shetty too extended warm wishes and wrote, ''May the light of victory shine again, and bring you an abundance of joy, prosperity, and the strength to overcome life's challenges. Wishing everyone a very Happy Dussehra."Advertisement
- Image Source : INSTAGRAM Suniel Shetty's latest Instagram StoriesAlso Read: 'Liar' - Chandrachud Singh downplays Salman Khan's BIG claim on Koffee With Karan | Read details
+While one can buy a lamp for Rs 51, 11 lamps Rs 101, 21 for Rs 501 and 51 for Rs 1,100, those who are making the booking will be able to click and light the lamp from their homes at Ram Ki Paidi, Saryu Ghats, Mutts, Temples and other religious places. Along with this, prizes like lamps, cardamom seeds or 'laddu' prasad, model of Ram temple, souvenirs of Ramnami Gamcha, Ram Darwar, etc., will be sent to them by courier as per the package, he added.Devotees can be a part of e-Deepotsav by logging at ‘Holy Ayodhya Portal' (https://holyayodhya.com/).World record in Ayodhya: Yogi Adityanath government will be raising the bar by lighting 21 lakh earthen diyas on November 11. Last year a record was created by lighting up 15.76 lakh diyas at the same time. To ensure the new record could be achieved this time, earthen lamps are going to be spread out over 51 ghats at Ram Ki Paidi.A government spokesperson said that a total of 24 lakh diyas are going to be put up by volunteers out of which 21 lakh are expected to be lit up at the same time to create the record.About 25,000 volunteers are going to be deployed for the job with a majority being students from Dr Ram Manohar Lohia Avadh University. Identity cards and bus services have been provided to ferry the students from Lohia and other colleges to the site.A 4.5-foot-wide block will house 256 diyas in 16 by 16 formation. The volunteers will start work at the site from Thursday noon onwards. The local municipal corporation will assist in cleaning and sweeping of the ghats before diyas are lined up.The volunteers have been asked to pour 30 ml mustard oil in the diyas on November 11 before the event. A circulation space will be created within the grid to facilitate the movement of volunteers who would provide the cotton wick and oil on the final day.</t>
+  </si>
+  <si>
+    <t>ayodhya-deepotsav-2023-diwali-24-lakh-diyas-51-ghats-world-record-uttar-pradesh-govt-earthern-lamp-online-booking-cm-yogi-adityanath-latest-updates-2023-11-11-902266</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/uttar-pradesh/ayodhya-deepotsav-2023-diwali-24-lakh-diyas-51-ghats-world-record-uttar-pradesh-govt-earthern-lamp-online-booking-cm-yogi-adityanath-latest-updates-2023-11-11-902266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Rajasthan poll: Former Congress MLA Ashok Tanwar, others leaders join BJP in Jaipur    </t>
+  </si>
+  <si>
+    <t>Rajasthan Assembly Elections: Congress has suffered a major setback ahead of the assembly elections as several  leaders from the grand old pary, including party stalwart and former minister Ram Gopal Bairwa and former MLA Ashok Tanwar, on Saturday joined the Bharatiya Janata Party  (BJP) in Jaipur.The Congress leaders joined BJP in the presence of MP Rajyavardhan Singh Rathore and state party president CP Joshi. Welcoming the new leaders in the party fold, Joshi said, "It seems that we will make Jhotwara 'Congress-mukt'. I express gratitude to all of you for reposing faith in the BJP under the leadership of Prime Minister Narendra Modi".The former Haryana Congress chief Tanwar, after quitting the Congress in 2019, has been consistently switching parties. In February 2021, he even established his own party, 'Apna Bharat Morcha.' He later joined the Trinamool Congress (TMC) in November 2021.He was once known as a close associate of the former Congress chief Rahul Gandhi during Gandhi's tenure as the head of the Indian National Youth Congress (INYC). Tanwar held the position of chief in the INYC.However, Tanwar after a prolonged turf war with the former Haryana Chief Minister Bhupinder Singh Hooda quit Congress in October 2019 ahead of the state Assembly polls.Advertisement
+ In the 2019 Haryana Assembly elections, Tanwar had extended his support to Dushyant Chautala's Jannayak Janata Party (JJP) and campaigned against Congress. In 2009, he won the Lok Sabha elections from Sirsa in Haryana as a Congress candidate. However, he had lost the 2014 Lok Sabha elections.Earlier, a senior leader and Jodhpur mayor Rameshwar Dadhich, who had filed his nomination for the upcoming state polls from the Soorsagar constituency as an independent candidate, withdrew his papers and joined the BJP.
 Advertisement
-On the occasion of Dussehra, Siddharth Malhotra tweeted, ''Dussehra reminds us that evil can never extinguish the light of truth.
-Happy Dussehra.''Veteran actress Neetu Singh too extended heartfelt wishes and wrote, ''May Lord Rama bless you with strength and courage to follow the path of virtue and righteousness. Good wishes for a joyous Vijayadashmi.''Image Source : INSTAGRAM  Neetu Singh's latest Instagram Stories</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/news/dussehra-2023-katrina-kaif-to-anupam-kher-celebs-extend-special-wishes-to-fans-2023-10-24-899376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      SA vs BAN, World Cup 2023: Mumbai weather forecast, probable XIs, live telecast - all you need to know    </t>
-  </si>
-  <si>
-    <t>South Africa will be aiming to keep the winning momentum going ahead of three big games lined up as they take on Bangladesh on Tuesday, October 24 in Mumbai. South Africa overcame the heat and extreme conditions to pummel England after the defending champions opted to bowl. That seemed like a grave mistake on England's part given the margin of loss was the heaviest in Three Lions' ODI history. Both South Africa and Bangladesh would want to bat first after they win the toss and the latter especially, with their campaign on the line as one more loss and they will stand eliminated.Mumbai weather forecastIt is going to be yet another hot and sultry day at Wankhede Stadium in Mumbai with zero per cent chance of rain on Tuesday, October 24. The first match of the tournament at the venue saw players sweating, cramping up, and getting fatigued in extreme weather conditions and it might be similar yet again on Tuesday. Jos Buttler made a blunder by choosing to bowl first a few days ago and with the defeat margin being so big it is likely that either of the captains who wins the toss will opt to bat, not only to save their 11 players from getting tired by the heat together but also to put pressure on the opposition after posting a big total. The temperatures are set to hover around a high of 37 degrees and a low of 27 degrees.Probable playing XIsAdvertisement
- South Africa: Temba Bavuma (c), Quinton de Kock (wk), Rassie van der Dussen, Aiden Markram, Heinrich Klaasen, David Miller, Marco Jansen, Kagiso Rabada, Keshav Maharaj, Gerald Coetzee, Lungi Ngidi</t>
+Notably, Dadhich, who is a close associate of Rajasthan Chief Minister Ashok, has parted ways with the Congress after a 50-year-long association.Vinod Sharma, the former Dausa district president of the Congress also joined the Bharatiya Janata Party (BJP). Additionally, in Jaipur, former minister Rajpal Singh Shekhawat, who had submitted his nomination for the Jhotwara constituency against the BJP's Rajyavardhan Singh Rathore, decided to withdraw his candidacy after discussions with the party's high command.</t>
+  </si>
+  <si>
+    <t>rajasthan-assembly-elections-congress-ram-gopal-bairwa-ashok-tanwar-others-joins-bjp-jaipur-rajyavardhan-singh-rathore-cp-joshi-latest-updates-2023-11-11-902300</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/rajasthan/rajasthan-assembly-elections-congress-ram-gopal-bairwa-ashok-tanwar-others-joins-bjp-jaipur-rajyavardhan-singh-rathore-cp-joshi-latest-updates-2023-11-11-902300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Live nowENG vs PAK World Cup 2023 Live: England look to pile loads of runs on Pakistan    </t>
+  </si>
+  <si>
+    <t>ENG vs PAK World Cup 2023 Live: Pakistan and England go up against each other in match number 44 in World Cup 2023. The Babar Azam-led side is facing an improbable task of reaching into the semifinals of the tournament with England looking to push their case for the Champions Trophy. New Zealand have made things worse for Pakistan with the Men in Green requiring a mammoth win to pip the Kiwis from the 4th spot in the points table. Follow for all the latest updates on ENG vs PAK clash.Advertisement
+  Latest Cricket NewsThe first four overs of the first innings are done and Pakistan are wicketless in these overs. England are off to a fine start with 21 runs in their kitty alreadyThe proceedings are now underway. England openers are out in the middle. Shaheen has the new nut in hand.</t>
   </si>
   <si>
     <t>cricket</t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/sports/cricket/mumbai-weather-forecast-probable-xis-live-telecast-sa-vs-ban-south-africa-vs-bangladesh-world-cup-2023-2023-10-24-899342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Former BJP MP Nilesh Rane announces retirement from active politics    </t>
-  </si>
-  <si>
-    <t>Former Member of Parliament representing the Ratnagiri-Sindhudurg constituency and BJP leader, Nilesh Rane, declared his retirement from active politics on Tuesday. He shared this decision via his official social media account on X, expressing that he is permanently stepping away from active politics without citing any specific reason.In his social media post, Rane made it explicitly clear that he has lost interest in participating in political elections. He also extended an apology to anyone who may have been unintentionally offended by his actions or statements. Rane's post stated, "I am no longer interested in contesting elections, etc. Critics will criticize, but I prefer not to invest my time and that of others where my heart is not in it. I apologize for any unintended offense caused to some individuals."Nilesh Rane expresses gratitude to BJPAdvertisement
- Nilesh Rane, who recently announced his retirement from active politics, took a moment to express his deep appreciation to the BJP and his dedicated supporters who stood by him for nearly two decades. In a heartfelt message posted on his social media account, Rane thanked those who had showered him with love and support during his 19 to 20-year-long political journey. He expressed his immense gratitude for their unwavering commitment to his cause, even when circumstances were challenging.</t>
-  </si>
-  <si>
-    <t>maharashtra-former-bjp-mp-nilesh-rane-announces-retirement-from-active-politics-ratnagiri-sindhudurg-constituency-lok-sabha-congress-2023-10-24-899369</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/maharashtra/maharashtra-former-bjp-mp-nilesh-rane-announces-retirement-from-active-politics-ratnagiri-sindhudurg-constituency-lok-sabha-congress-2023-10-24-899369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      WhatsApp channels set to get voice messages and stickers: Here's what to know    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WhatsApp, the widely used instant messaging platform, has recently introduced a Channels feature in India, offering a one-way broadcast mechanism for private updates from individuals and organisations. Now, a report reveals that the Meta-owned app is actively developing additional functionalities for channel admins, including the ability to share voice messages and stickers within channels.According to the report by WABetaInfo, WhatsApp aims to enhance the interaction between channel admins and their followers. The latest WhatsApp beta for Android 2.23.23.2 update, available on the Google Play Store, has unveiled plans to incorporate voice messages and stickers into channels in the near future.ALSO READ | Amazon introduces face, fingerprint, and PIN sign-ins for enhanced securityAt present, channels in WhatsApp primarily support the sharing of text messages, photos, videos, and GIFs. The introduction of voice messages and stickers expands the range of communication options, making interactions more dynamic and expressive. These additions are expected to boost better engagement with channel followers.Advertisement
- Furthermore, the inclusion of voice messages and stickers improves communication efficiency in sharing updates, thereby enhancing the appeal of channels. This development can aid channel admins in reaching a wider audience by making their channels more engaging and less static.ALSO READ | Vivo V29 Review: Mid-range smartphone with premium features
+    <t>https://www.indiatvnews.com/sports/cricket/england-vs-pakistan-world-cup-2023-live-england-look-for-champions-trophy-push-pakistan-aim-for-improbable-semifinal-spot-eng-vs-pak-eden-gardens-2023-11-11-902299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      'Dhai kilo ka purse kyu...': Palak Tiwari gets brutally trolled for ignoring beggar | Watch video    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak Tiwari, daughter of popular TV actress Shweta Tiwari, often remains in the news, be it for her alleged relationship with Ibrahim Ali Khan or when she becomes a target of trolls. Now, a video of the Bijlee Bijlee girl is doing rounds on the internet, following which she has become a target of trolls again. In the video, she can be seen coming out of a shop in Mumbai, after which a lady beggar wearing a burqa comes close to her and asks for money. Palak's reply to her has become the main attraction of the viral video. Palak can be heard saying ''cash nahi hai mere pass (I don't have cash). I am sorry,'' and walked away. Watch the viral video: In the video, Palak can be seen wearing a white kurti and has a handbag on her shoulder.Advertisement
+ Soon after her video went viral on the internet, netizens began to troll her in the comment section and some of these reactions are way too hilarious. One user wrote, ''Will spare crores of rupees but will never help a poor.'' Another one wrote, ''Thank God aunty didn't reply saying 'Koi ni beta, UPI kar do.'' A third user commented, ''Dhai kilo ka purse kyu.'' A fourth netizen wrote, ''Purse me lipstick hoga.''
 Advertisement
 </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/technology/news/whatsapp-channels-set-to-get-voice-messages-and-stickers-here-what-to-know-2023-10-24-899363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Rajnath Singh visits Tawang in Arunachal Pradesh, observes Chinese PLA posts | WATCH    </t>
-  </si>
-  <si>
-    <t>Tawang: Defence Minister Rajnath Singh, who is on a visit to Arunachal Pradesh to celebrate the occasion of Dussehra with jawans, on Tuesday (October 24) reached the forward posts and observed the Chinese PLA posts on the other side of the border from Bum La in the state. The 'Incredible India' gate on the Indian side and Chinese Border Personnel Meet facility (blue-roofed huts) on the Chinese side is seen from Bum La in Arunachal Pradesh.Rajnath embarked on a two-day visit to Assam and Arunachal starting Monday. He is accompanied by Indian Army chief General Manoj Pande. During his visit, the Defence Minister was briefed by Army personnel on the defence establishments on the India-China border at Bum La. His celebration of Dussehra with the soldiers at the strategically important location close to the Line of Actual Control (LAC) comes at a time India and China have been engaged in a standoff in certain friction points in eastern Ladakh for over three years.The Minister laid a wreath at Tawang War Memorial in Arunachal and paid tributes to the Bravehearts. He was briefed about the Tawang War Memorial. He also paid tributes to 1962 war hero Subedar Joginder Singh at his memorial at Bum La.He also performed Shashtra Puja at Tawang on the occasion of Vijaya Dashami. Rajnath has been performing Shastra Puja during Dussehra for last several years, including during his tenure as the Home Minister in the previous NDA government.The Defence Minister extended greetings of Vijaya Dashmi to the jawans and said that he wanted to be among brave soldiers of the country on the pious occasion."I came here four years ago but I wanted to be among the brave jawans once again on VijayaDashami and extend them heartiest greetings on the occasion. So, I am here among you..." he said.He lauded the jawans for standing in tough situation for the security of the country and said that the countrymen are proud of them.“The tough situation in which you are shouldering the responsibility of guarding the country's borders - the more it is appreciated, the less it is. I would like to tell you that the countrymen are proud of you. All of you know the importance of your uniform..." he said.Advertisement
- The Defence Minister credited the jawans for keeping the country secure and playing their part in the raising the stature of India in the world.
+    <t>news</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/news/dhai-kilo-ka-purse-kyu-palak-tiwari-gets-brutally-trolled-for-ignoring-beggar-watch-video-2023-11-11-902297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      ENG vs PAK: Have Pakistan knocked out from World Cup 2023 at toss itself? Can they qualify while chasing too?    </t>
+  </si>
+  <si>
+    <t>ENG vs PAK: England and Pakistan are having a go at each other in the 44th match of World Cup 2023. Babar Azam's men are facing an improbable task of overtaking New Zealand's Net run rate and pipping them out of the top four places in the tournament. The Men in Green have now lost the toss too and have been asked to bowl first.Before this game, there was a criterion of qualification which suited Pakistan a little better if they had batted first. Pakistan needed a 287-run win to go past New Zealand's NRR and needed to score a minimum of 300 for that. But now they have been asked to do a near-impossible task. New Zealand are ranked fourth in the World Cup points table with an NRR of +0.743, while Pakistan are fifth with an NRR of +0.036.Pakistan are officially still in contention to qualify for the semifinals at the toss. But their already improbable seeming task is even more steep now. The 1992 champions can still qualify in the chase but that does not seem practical. If England bat first:England's total - 20, Pakistan to chase within 1.3 oversEngland's total - 50, Pakistan to chase within 2 oversEngland's total - 100, Pakistan to chase within 2.5 oversEngland's total - 150, Pakistan to chase within 3.4 oversEngland's total - 200, Pakistan to chase within 4.3 oversAdvertisement
+ England's total - 300, Pakistan to chase within 6.1 oversHowever, if Pakistan had batted first, they would have had slightly better chances to pip New Zealand. Here is a scenario if Pakistan would have batted first.
 Advertisement
-“You have kept the borders secure and that is why India's stature before the world is rising rapidly. All the developed countries accept the reality that in the past 8-9 years, India's stature has risen. I would like to clearly say that under the leadership of PM Modi, if India's stature has risen, India has made economic developments, it indeed is important but had you not kept the country's border secure - this stature would not have been possible..." Rajnath said.He hailed the manufacturing of weapons in the country under 'Make in India' and said that the exports have increased in the last nine years."Earlier we used to import weapons from other countries of the world. We used to import almost all the weapons, that is, our exports were worth about Rs 1,100 crores before 2014. You will be happy to know that today we are exporting equipments worth more than Rs 20,000 crore. Today all the weapons are being made on Indian soil and are being made by the hands of Indians under 'Make in India'," he said.The Defence Minister interacted with jawans during his visit to the post. He was seen personally approaching each jawan and talking to them.Earlier this year, the Union Minister visited the Tawang sector to review security preparedness in the sector.The Tawang sector is a disputed area given the Chinese Army has multiple times tried to intrude into the sector.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/rajnath-singh-visits-tawang-arunachal-pradesh-vijaya-dashmi-jawans-observes-chinese-pla-posts-india-china-border-dispute-defence-minister-updates-2023-10-24-899348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      'I don't see any attitude from team' - Babar Azam wants his teammates to be proactive after three WC defeats    </t>
-  </si>
-  <si>
-    <t>Pakistan captain Babar Azam highlighted the team's struggles after a shocking defeat against Afghanistan in a crucial World Cup 2023 game on Monday, October 23. Pakistan failed to defend 282 runs against their neighbours in Chennai, leading to their third consecutive defeat in the tournament.Afghanistan pulled off another major upset to stun the cricket world as they chased a tough total at Chepauk's slow wicket. Pakistan bowlers' poor outings continued as they managed to pick only two wickets and were further stretched down due to another below-average fielding.Pakistan seemed in control when they put 280-plus targets at Chepauk's bowling-friendly surface and had never suffered a World Cup defeat while defending such a total. But bowlers were clearly not up to the mark and never looked threatening the opponent's chase. Babar slammed his bowlers for not picking wickets in the middle overs after achieving a desirable total while batting.Advertisement
- "Yes, the defeat has hurt us a lot," Babar said after a loss against Afghanistan. "We wanted to put up a total of around 280-290. After we achieved that, we were not up to the mark with our bowling and fielding. The spinners didn't bowl the way we wanted them to in the middle overs."</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/babar-azam-wants-his-teammates-to-be-proactive-in-field-after-pakistan-s-three-consecutive-world-cup-defeats-2023-10-24-899352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Five of family die after their car fell off bridge at Sikatiya barrage in Jharkhand's Deoghar    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five people of a family died after their car fell off a bridge at Sikatiya barrage in Jharkhand's Deoghar, said officials on Tuesday. The accident took place when their vehicle was crossing the Siktia barrage, they added."The accident happened after a family member, an engineer by profession, started driving the vehicle to take selfies and lost control over the SUV," the police said.Advertisement
- </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/five-of-family-die-after-their-car-fell-off-bridge-at-sikatiya-barrage-in-jharkhand-deoghar-2023-10-24-899355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Deva first look: Shahid Kapoor looks fierce in first poster, film to release next Dussehra    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There was a discussion going on for a long time about the next film of Bollywood superstar Shahid Kapoor. And now on the occasion of Dussehra, the actor has made the announcement of his next film. The Kabir Singh actor will be sharing screen space with Pooja Hegde for the first time in Roshan Andrrew's next titled Deva. The film will be released next Dussehra. Shahid took to his social media accounts and shared a picture of himself. The actor can be seen wearing a white shirt and brown pants. Kapoor is also holding a gun in his hand and his short hair is hard not to notice. "DEVA in theatres on Dussehra 11th October 2024," Shahid wrote in the caption. Checkout Shahid's post here:Advertisement
- The leading lady of Deva also shared a picture on her Instagram where the makers of the film can be seen holding the muhurat short board. "Brace yourselves for the fearless #DEVA, releasing in cinemas 11.10.2024 - Dussehra 2024," Hegde wrote in her caption. </t>
-  </si>
-  <si>
-    <t>bollywood</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/bollywood/deva-shahid-kapoor-looks-fierce-in-first-poster-film-to-release-next-dussehra-2023-10-24-899378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      DU Placement and Internship 2023 Drive to be conducted on October 26, details here    </t>
-  </si>
-  <si>
-    <t>DU Placement and Internship 2023 drive: The University of Delhi will start the placement-cum-internship drive on October 26. This drive will be hosted by the Central Placement Cell (CPC) under the Dean Students’ Welfare, DU. The information regarding this drive has been shared on the university's social media platform, X, formerly known as Twitter. Delhi University has invited all bonafide regular students studying in any course of undergraduate and Postgraduate programs for the placement and internship program. All interested candidates can submit applications online at the official website of Central Placement Cell.</t>
-  </si>
-  <si>
-    <t>higher-studies</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/education/higher-studies/du-placement-and-internship-2023-drive-to-be-conducted-on-october-26-details-here-2023-10-24-899373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Gujarat: Madrasa teacher in Junagadh arrested for sodomising minor students    </t>
-  </si>
-  <si>
-    <t>Junagadh: A 25-year-old madrasa teacher (maulana) in the Junagadh district of Gujarat was arrested for allegedly sodomising at least 10 of his minor students, the police said. Besides the maulana, a 55-year-old trustee of the madrasa was also arrested for allegedly not taking any action on the students’ complaints against the teacher, a statement of the Junagadh Police said on Monday (October 23). While the teacher was nabbed from his hideout in Surat, the madrasa trustee, who had also managed to escape, was caught from a place in Junagadh on Sunday, said the statement.Based on a complaint given by a 17-year-old boy, the Mangrol police registered an FIR on Sunday against the two accused under Indian Penal Code sections 377 (unnatural intercourse), 323 (assault), 506-2 (criminal intimidation) and relevant provisions of the Protection of Children from Sexual Offences (POCSO) Act.The incident came to the fore when one of the students of the residential school, situated on Mangrol-Veraval bypass, dialled his mother using the mobile phone of another teacher and complained about the maulana’s sexual acts with the students, the police statement said.Following the information by the boy, the woman approached the police and registered a complaint that the madrasa teacher was allegedly involved in sodomising students residing and studying in the school, it added.The police reached the madrasa premises on October 21 and took students into confidence with the help of some Muslim leaders.Advertisement
- 10 boys studying in the madrasa alleged that they were “sodomised” by the maulana, who also had threatened to kill them if any student complaint to their parents regarding the incident.</t>
-  </si>
-  <si>
-    <t>gujarat-madrasa-teacher-maulana-arrested-for-sodomising-minor-students-junagadh-police-crime-news-latest-updates-2023-10-24-899371</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/crime/gujarat-madrasa-teacher-maulana-arrested-for-sodomising-minor-students-junagadh-police-crime-news-latest-updates-2023-10-24-899371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-       Kerala: CPO found hanging, second suicide incident in police department in month    </t>
-  </si>
-  <si>
-    <t>A senior Civil Police Officer (CPO) allegedly died by suicide in Kozhikode, said Kerala Police official said on Tuesday. Civil Police Officer is the lowest rank in the Kerala Police. The police departement ordered an investigation as this was the second alleged suicide incident reported within the state police department this month.Earlier, a driver in Kerala police died by suicide at his residence in Muvattupuzha in Ernakulam district On October 4.The deceased had left behind a note alleging that mental torture by some of his superior officers. The suicide note suggested that ill-treatment by his senior prompted him to take the extreme step.Advertisement
- In the Kozhikode incident, relatives of the CPO alleged that the officer took the extreme step on Monday following work-related pressure from his superiors.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/kerala-cpo-found-hanging-second-suicide-in-police-department-in-month-probe-ordered-2023-10-24-899366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      World Cup 2023: Australia optimistic about Travis Head's availability for Netherlands game    </t>
-  </si>
-  <si>
-    <t>Australia will be looking to continue their impressive comeback in the World Cup 2023 as they take on low-ranked Netherlands at Delhi's Arun Jaitley Stadium on Wednesday, October 25. Australia are further boosted by Travis Head's return to training and are optimistic about the player's availability for the upcoming game.The five-time champions were off to a disastrous start in the tournament with heavy defeats against South Africa and India. But Pat Cummins-side recorded impressive wins in their next two games with dominant results against Sri Lanka and Pakistan. Head, the 29-year-old opener, suffered a left-hand injury during Australia's tour of South Africa last month and missed the team's opening four games. Australia have clearly struggled in batting in the absence of Head and will definitely cherish his return. Head was spotted batting at full intensity during the team's training session in Delhi on Monday and seems in good shape for a potential World Cup debut during the Netherlands game.Advertisement
- The team's coach Andrew McDonald also confirmed the player's impressive recovery from a hand injury and said that the management is optimistic about his availability ahead of the crucial game against Australia.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/world-cup-2023-australia-optimistic-about-travis-head-s-availability-for-netherlands-game-2023-10-24-899364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Ajay Goel quits as Byju’s CFO, rejoins Vedanta    </t>
-  </si>
-  <si>
-    <t>New Delhi: Finance professional Ajay Goel quit BYJU’s and returned to Vedanta Ltd as the new chief financial officer as the Anil Agarwal-controlled mining conglomerate heads into an ambitious business restructuring. Goel had quit from Vedanta earlier this year to join education startup BYJU's. He replaced Sonal Shrivastava who resigned from the post months after joining. Vedanta said in a stock exchange filing that Goel has been appointed CFO of the company with effect from October 30, 2023. "As part of Vedanta's structured re-hiring programme called 'Gharwapsi', Mr. Ajay Goel joins back the company," it said.Vedanta said Shrivastava resigned as the CFO with effect from the close of business hours on October 24 "due to personal reasons”."Goel is a national rank holder both as a Chartered Accountant and Company Secretary and comes with rich experience in global multinational companies such as General Electric, Nestle, Coca Cola and Diageo – USL in various leadership roles," it said.Goel was earlier associated with Vedanta as acting CFO of the company between October 23, 2021 and April 9, 2023."During his earlier role at Vedanta, Ajay contributed significantly in terms of driving business performance, managing the financial affairs of the company and heading the finance function with his leadership acumen. He was also instrumental in successfully handling regulatory approvals, investments matters, capital allocation, investor relations and major M&amp;A-related affairs," Vedanta said.Advertisement
- Byju's said it has made new appointments in its finance function, with Pradip Kanakia as senior adviser and Nitin Golani, currently the President-Finance, who will take charge as India CFO.Vedanta last month announced a plan to split itself into six listed companies to improve valuations and attract investors.
+If Pakistan would have batted first:Pakistan total's - 300, restrict England to 13 runsPakistan total's - 350, restrict England to 63 runsPakistan total's - 400, restrict England to 112 runsPakistan total's - 450, restrict England to 162 runs</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/are-pakistan-knocked-out-from-world-cup-2023-at-eng-vs-pak-toss-itself-can-they-qualify-while-chasing-too-2023-11-11-902303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      OPINION | LALU, TEJASHWI MUST THINK, HOW LONG WILL THEY ALLOW NITISH TO CONTINUE AS CM    </t>
+  </si>
+  <si>
+    <t>Bihar chief minister Nitish Kumar has landed in a fresh controversy by using undignified language against his predecessor Jitan Ram Manjhi inside the assembly. Two days ago, Nitish had insulted women in Bihar assembly when he indulged in graphic description of sexual intercourse.  On Thursday, when the House was discussing the bills to raise the reservation cap to 65 per cent in jobs and education, 80-year-old Manjhi had questioned the caste survey data relating to Mahadalit communities. Manjhi belongs to the extremely backward Musahar caste in Bihar. An enraged Nitish Kumar stood up  and took exception to the Speaker allowing Manjhi to participate in the debate. Nitish said, “Isko koi sense hai?... Who made you the CM? This man has no sense, no idea. It was my stupidity that I made him the CM.”Pointing towards BJP benches, Nitish Kumar went on, “He is now with you, because he wants to become Governor. Make him the Governor. His family members also do not care for him. His community members are also upset with him. He was earlier in Congress. He is good for nothing.”  For nearly three minutes, the chief minister berated his predecessor in an undignified manner. Manjhi, while taking part in the debate, had remarked, “it seems the caste census was mere paperwork, those who really deserve reservation will not get justice from these statistics….there is a provision to review reservation quota after every ten years..the government should find out whether caste groups are really getting the benefit of reservation or not…merely raising the quota cap will not do”.Nitish Kumar then exploded in anger and started berating Manjhi. He described him as insane and senseless. It was Manjhi’s greatness that he did not respond rudely, and left the House. By then, there was uproar inside the House. BJP MLAs started protesting and alleged that the CM has insulted a Mahadalit leader. Manjhi later told reporters, “I can’t believe that this is the same Nitish Kumar, whom I knew ten years ago. I feel sad hearing him use such words. Nitish is not an ordinary man, he is the head of our state, and a chief minister has insulted a former CM using derogatory language. I think the chief minister has lost his mental balance and he needs treatment.”The manner in which Nitish Kumar lost his cool inside the assembly was shameful and undignified. He not only insulted Manjhi, but also the Speaker and the House, and brought a bad name to the chief minister’s post. Nitish Kumar was speaking as if he was a moneylender of yore berating a poor man from a lower caste for not repaying a loan. Both the ruling and opposition members were stunned by Nitish’s outburst. Even the Speaker and other ministers tried to cool him down, but Nitish Kumar continued with his tirade. When the controversy spiralled, deputy chief minister Tejashwi Yadav reacted. He said, the chief minister has not given any anti-Dalit statement. “I was present there. No Dalit leader was insulted”, he said.Tejashwi said, the state government has taken a historic step by getting the bills relating to increasing reservation limit in both jobs and education passed. Tejashwi alleged that BJP wants this achievement must not reach the common people, and that is why it is raking up an unnecessary issue. Even Tejashwi Yadav knows, the manner in which Nitish spoke was highly undignified. He is the deputy chief minister, and defending his CM is his political compulsion. But to defend what Nitish did is, in itself, a shameful thing. Nitish’s attitude goes againt the grain of our tradition, culture and democratic dignity. It violates the dignity of the chair of chief minister. Jitan Ram Manjhi is not only a Mahadalit, he is older than Nitish Kumar in age, and his political experience is more compared to that of Nitish.The chief minister should have respected Manjhi’s age. As far as Manjhi being made the CM is concerned, Nitish probably forgot that Manjhi has won more elections than Nitish. Manjhi was first elected MLA in 1980. He was then made a minister. Nitish Kumar was first elected MLA in 1985. When Nitish was a legislator, Manjhi was working as a minister. Manjhi was minister in three Congress governments. He was also a minister in the governments headed by Lalu Prasad and Rabri Devi. He was a minister in Nitish’s government. He never betrayed any of his leaders.Advertisement
+ On the contrary, Nitish’s entire political career has been a history of political betrayals. He first betrayed Lalu Prasad, then George Fernandes and Sharad Yadav, became CM with BJP support, then did a ‘palti’ (somersault), again became the CM with Lalu’s support, then made another somersault and joined BJP camp, and now he has again joined Lalu’s camp. It is not for nothing that Tejashwi once took a jibe at him by naming him ‘paltu chacha’ (an uncle who does somersaults). Therefore, Nitish has no right to berate another leader and say that he is hungry for power and position.As far as installing Manjhi as CM is concerned, it was Nitish’s political game, a drama, in which Manjhi became a pawn. Nitish wanted sympathy and votes from Dalits and therefore handed over the CM’s chair to Manjhi. Once his work was over, he sidelined and himself became the CM. This has been Nitish Kumar’s political character throughout his career. Lalu Prasad is on record of having said, in local lingo, that Nitish has “even teeth inside his belly and he can betray anybody”.
 Advertisement
-"By demerging our business units, we believe that will unlock value and potential for faster growth in each vertical. While they all come under the larger umbrella of natural resources, each has its own market, demand and supply trends, and potential to deploy technology to raise productivity," Agarwal, Chairman of Vedanta, had said at that time.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/business/news/ajay-goel-quits-as-byjus-cfo-rejoins-vedanta-business-news-latest-updates-2023-10-24-899365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Madhya Pradesh Assembly Elections | Ummeedwar wahi, par party nayi: Arch rivals switch sides in Badnawar    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The political battleground in Madhya Pradesh's Badnawar assembly constituency, nestled within the Dhar district, is set to witness a high-stakes duel as two formidable arch-rivals, who have swapped party allegiances, face off for the third consecutive time.Locals are abuzz with a catchy phrase, "Ummeedwar wahi, par party nayi," signifying the persistence of the same candidate in a new party.The crux of the contest revolves around BJP leader and State Industrial Policy and Investment Promotion Minister, Rajvardhan Singh Dattigaon (51), who is pitted against Congress candidate, Bhanwar Singh Shekhawat (72). Both candidates hail from the Rajput community and are locking horns in the upcoming state assembly polls scheduled for November 17.Apart from the Rajput community, tribal and Patidar voters also wield considerable influence in shaping the electoral outcome in this constituency, boasting nearly 2.21 lakh voters.Rajvardhan Singh Dattigaon, known for his proximity to Union Minister Jyotiraditya Scindia, was one of the 22 rebel MLAs who defected from the Congress, resigning from their assembly posts in 2020 to join the BJP following Scindia's switch to the saffron party. This defection led to the fall of the then Kamal Nath government, propelling the BJP back to power in the state under the leadership of Shivraj Singh Chouhan.On the flip side, Bhanwar Singh Shekhawat recently exited the BJP on September 2 and found a new home in the opposition Congress. He is now the Congress candidate challenging the BJP's Rajvardhan Singh Dattigaon in Badnawar.Advertisement
- Dattigaon shared his perspective, saying, "Shekhawat, originally from Indore, is campaigning in the Badnawar area, but he was conspicuously absent during the massive COVID-19 outbreak and didn't extend his regards to the local people. After my departure from the Congress, they couldn't even find a suitable local candidate to contest from Badnawar. This sheds light on the state of affairs in the grand old party."In the 2013 assembly elections, Shekhawat secured the Badnawar seat as a BJP candidate, defeating the then Congress candidate Dattigaon by 9,812 votes. However, in the 2018 assembly polls, Dattigaon turned the tables, triumphing over Shekhawat by a substantial margin of 41,506 votes.
+Such things happen in politics, and every time Nitish got a fresh lease of life. But, in the last two days, Nitish Kumar has broken all limits of dignity. The public humiliation of Jitan Ram Manjhi inside the assembly, clearly indicates that Nitish has lost his mental balance. How can he insult a Mahadalit, a former CM, an old man and a leader senior to him? If Nitish cannot protect the dignity of his chair, Lalu Prasad Yadav, who was instrumental in making Nitish CM, must think about Nitish’s actions. Maybe Nitish may say tomorrow that he made a mistake and may seek forgiveness, but if he does that, it will only be a façade. He insulted womanhood on Tuesday, and then went around town apologizing with folded hands on Wednesday.On Thursday, he insulted a senior Dalit leader. Nitish Kumar has been chief minister of Bihar for nearly 18 years. In the last three days, he has crossed all limits of dignity. His acts have damaged his public image. Such action is neither good in the interest of Bihar, nor for Lalu Prasad’s RJD. If Nitish has lost his mental balance and he is not in his senses, handing over the reins in the hands of such a deranged man is dangerous. If Nitish Kumar is in his senses, and is using such crude language, then it is all the more dangerous. Such a person does not deserve to remain as chief minister of Bihar. Lalu Yadav and Tejashwi Yadav must think, how long can they carry Nitish’s burden and keep him in the CM’s chair. How long will they allow Nitish’s government to continue for their political interests?</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/opinion-lalu-tejashwi-must-think-how-long-will-they-allow-nitish-to-continue-as-cm-aaj-ki-baat-rajat-sharma-blog-post-2023-11-10-902192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      'If there is a hell on earth today...,' says UN as Israeli airstrikes leave 20 of 36 hospitals dysfunctional    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel-Hamas war: Thousands of Palestinians are fleeing northern Gaza as Israel's military pushed deeper into dense urban neighbourhoods in its battle with Hamas militants. Officials in the besieged enclave said the Palestinian death toll has surpassed 11,000 people. The search for safety in Gaza is growing more desperate as combat intensifies. Residents who escaped to the south and Palestinian health officials reported strikes in and around Gaza City's main hospital overnight. Israel said at least one was the result of a misfired Palestinian rocket.The World Health Organization on Friday said that 20 of Gaza's 36 hospitals are no longer functioning, including a pediatric hospital that stopped operations after a reported Israeli strike in the area. “If there is a hell on earth today, its name is northern Gaza,” the UN humanitarian agency spokesperson, Jens Laerke, told reporters in Geneva.More than two-thirds of Gaza's population of 2.3 million have fled their homes since the war began. In the south, they're crowded into shelters with dwindling supplies of food and water as the war enters its second month._x000D_
+Gaza City, the largest urban area in the territory, is the focus of Israel's campaign to crush Hamas following the militant group's deadly Oct. 7 incursion into southern Israel that set off the war.More than 1,200 people in Israel died, most of them in the Hamas attack, and about 240 hostages were taken from Israel into Gaza by Palestinian militants.Advertisement
+ Meanwhile,  the World Health Organization has verified more than 250 attacks on hospitals, clinics, patients and ambulances in Gaza since Hamas' incursion into Israel on October 7 — as well as 25 attacks on health care in Israel.In Gaza, the “health system is on its knees” and the situation on the ground “is impossible to describe,” WHO Director-General Dr. Tedros Adhanom Ghebreyesus told an emergency meeting of the U.N. Security Council._x000D_
+“As we speak, there are reports of firing outside the al-Shifa and Rantisi hospitals,” he said, adding that Palestinian health workers were still saving lives despite being “directly in the firing line.”
 Advertisement
 </t>
   </si>
   <si>
-    <t>madhya-pradesh-assembly-elections-ummeedwar-wahi-par-party-nayi-arch-rivals-switch-sides-badnawar-mp-rajvardhan-singh-dattigaon-congress-2023-10-24-899362</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/madhya-pradesh/madhya-pradesh-assembly-elections-ummeedwar-wahi-par-party-nayi-arch-rivals-switch-sides-badnawar-mp-rajvardhan-singh-dattigaon-congress-2023-10-24-899362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Chinese Foreign Minister Wang Yi to visit US in a bid to cool down tensions between world's largest economies     </t>
-  </si>
-  <si>
-    <t>In yet another attempt to cool down tensions between China and the United States, Chinese Foreign Minister Wang Yi is set to visit America on Thursday. This would be his first visit to Washington after he assumed the ministry following the mysterious disappearance of his predecessor Li Shangfu. According to Chinese officials, he will stay there for three days where will meet his American counterpart Antony Blinken and will make an attempt to minimise the poisoning relations between the two heads of state-- President Xi Jinping and his US counterpart Joe Biden.  Blinken will host his Chinese counterpart in Washington from October 26-28, the State Department said in a press release on Monday.The two will discuss a range of bilateral, regional, and global issues as part of ongoing efforts to manage the US-China relationship responsibly and maintain open channels of communication, the State Department said.Advertisement
- It is worth mentioning the relations between Washington and Beijing have become increasingly fraught lately. The two nations have been locked in an escalating trade spat since early 2018, raising import tariffs on each other's goods.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/chinese-foreign-minister-wang-yi-to-visit-us-in-a-bid-to-cool-down-tensions-between-world-s-largest-economies-antony-blinken-joe-biden-xi-jinping-2023-10-24-899361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Avoid these 5 food combinations at any cost    </t>
-  </si>
-  <si>
-    <t>Some nutrient mixtures prove to be extremely beneficial for the body, such as Vitamin D and some other nutrients including calcium, iron, and Vitamin C. But there are some food combinations that not only cause discomfort to the body but can also increase health problems. Nutritionists suggest that mixing foods can be a healthy option but it is not necessary that it is always healthy. Including a variety of food items in your diet can help prevent nutritional deficiencies. At the same time, there are some foods in which mixing can cause harm instead of benefit. For example, we have always heard that curd should not be eaten with milk. Similarly, there are some other food combinations that you should avoid. Learn about such food combinations here:What kind of food combinations should be avoided?We often eat fruits to add a sweet taste to our food. Whereas nutritionists suggest that fruits should not be consumed with food. Eating these together may cause digestive problems. Fruits should be eaten separately as breakfast. Apart from this, also keep in mind that there should be a sufficient time gap between food and fruits.Consuming cheese with fatty meats and saturated meats can significantly increase saturated fat and sodium levels. This can increase the risk of heart disease and also affect your overall health. To balance your diet, choose lean meat and eat low-fat cheese.Advertisement
- Citrus fruits like oranges contain acid. If it is mixed with milk, this acid can curdle the milk and cause digestive problems. Therefore, avoid consuming them together and keep a sufficient time gap between them.</t>
-  </si>
-  <si>
-    <t>avoid-these-5-food-combinations-at-any-cost-2023-10-24-899359</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/health/avoid-these-5-food-combinations-at-any-cost-2023-10-24-899359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Raj Kundra's old letter to NHRC surfaces, says 'humans are treated worse than pigs' in Arthur Road Jail    </t>
-  </si>
-  <si>
-    <t>Raj Kundram, British-India businessman and husband of Bollywood diva Shilpa Shetty has been in the news for the last couple of years for several reasons. He recently made headlines for his upcoming biopic, also marking his acting debut. Now, an old letter from Raj has come to light, addressed to the National Human Rights Commission (NHRC). The letter is dated November 21, where Raj has penned his experience and made serious allegations against the Mumbai's Arthur Road Jail.The letter was also CC-ed Prime Minister of India Narendra Modi and then Maharashtra's CM Uddhav Thackeray. Mentioning the 'displeasure' of staying in Arthur Road Jail's Barrack 6.4 during the judicial custody, he termed the environment inside the jail as 'slow poison', where humans are treated 'worse than pigs'. ''Everyone is permitted to smoke in the barrack causing non-smokers to smoke passively. ultiple burn injuries happen from un-stubbed bidis and cigarettes on the barrack floor. The barrack capacity as mentioned on the building is 49, yet over 250 people are made to occupy the same. If you are fortunate to get a small area on the sides to sleep (after much negotiation) you can get some rest otherwise newcomers are made to sleep on their sides squashed down the middle of the barrack with not even space for a person to move an inch,'' he wrote in his letter. 
+    <t>https://www.indiatvnews.com/news/world/israel-hamas-war-israeli-massive-airstrikes-leave-20-of-gaza-36-hospitals-dysfunctional-over-11000-killed-in-36-days-who-palestine-idf-netanyahu-us-2023-11-11-902283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Gauhati University allows menstrual leaves, relaxes attendance for exams    </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/education/news/gauhati-university-allows-menstrual-leaves-relaxes-attendance-exams-females-latest-education-updates-women-overall-health-2023-11-11-902302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Chandra Mohan, veteran Telugu actor, dies at the age of 82 due to cardiac arrest; Jr NTR mourns demise    </t>
+  </si>
+  <si>
+    <t>Veteran Telugu actor Chandra Mohan passed away on Saturday, November 11. He was 82. He breathed his last at 9:45 am at Hyderabad's Apollo Hospital. He was under treatment for heart-related problems. He is survived by his wife named Jalandhara and two daughters. Soon after the sad news of his demise started circulating online, several popular South Indian celebrities took to their social media handles to pay their last tribute. Taking to X (formerly Twitter), RRR fame Jr NTR mourned the death of Chandra Mohan and wrote, ''It is very sad to see the untimely death of Chandramohan Garu, who has earned a special recognition for himself by playing different roles in films for many decades. My deepest condolences to his family and may his soul rest in peace.'' His final rites will be performed on Monday, November 13. Advertisement
+ Veteran Telugu actor Mallampalli Chandra Mohan, popularly known as Chandra Mohan is the cousin of veteran filmmaker K Viswanath. His original name was Chandrasekhara Rao Mallampalli. He was born on May 23, 1943, in Andhra Pradesh's Pamidimukkula village in Krishna district.</t>
+  </si>
+  <si>
+    <t>regional-cinema</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/regional-cinema/chandra-mohan-veteran-telugu-actor-dies-at-the-age-of-82-due-to-cardiac-arrest-jr-ntr-among-others-mourns-demise-2023-11-11-902291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      World Cup: South Africa face Temba Bavuma's injury concern ahead of SA vs AUS semifinal    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Cup: South Africa are facing fresh issues over captain Temba Bavuma as the opening batter picked up a hamstring in his side's last group stage match against Afghanistan on Friday. Bavuma, who had earlier missed two games in the league stage due to illness, could be in doubt for the semifinal against Australia, which will be played in Kolkata on November 16 in all likelihood. Bavuma was seen limping in the field when the Proteas were asked to bowl first by the Afghans. He went off the field after the first nine deliveries before making a return four overs later. However, he was seen limping on the field. After the five-wicket win over the high-flying Asian side, Bavuma opened up on his injury, highlighting that he should be fine for the semifinals."Obviously, my leg is sore - don't know to what extent - but it's going to have to be fine (for the semi-final)," Bavuma said after Proteas' 7th win of the tournament. The right-handed batter stated that he had the option of coming off the ground but did not do so as he wanted to stay with the team. "Obviously I had that option of coming off, but I think as much as it was our last group-stage game, probably it didn't have a big bearing in terms of the play-off.Advertisement
+ </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/south-africa-face-temba-bavumas-injury-concern-ahead-of-sa-vs-aus-world-cup-2023-semifinal-sa-vs-afg-south-africa-vs-australia-2023-11-11-902280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Jaishankar embarks on five-day visit to UK ahead of PM Rishi Sunak's visit to India     </t>
+  </si>
+  <si>
+    <t>External Affairs Minister S Jaishankar, on Saturday, embarked on a five-day visit to the United Kingdom with an aim to review various aspects of bilateral ties. It is expected that preparations for British Prime Minister Rishi Sunak's possible visit to India in the next few months will figure in his talks in London."External Affairs Minister S Jaishankar will be on an official visit to the United Kingdom from November 11-15," the Ministry of External Affairs (MEA) said. "India and the UK have a growing bilateral partnership.During his visit, the external affairs minister will be holding discussions with his counterpart, Foreign Secretary Sir James Cleverly and will meet several other dignitaries," it said in a statement. The MEA also referred to the "warm and thriving" relationship between the two sides.The India-UK Comprehensive Strategic Partnership was launched in 2021 along with the India-UK Roadmap 2030 which seeks to expand ties in a range of areas.Advertisement
+ "The roadmap is a commitment to a partnership that delivers for both the countries. The external affairs minister's visit will give a new impetus to the friendly ties between the two countries," the MEA said.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/indian-foreign-minister-s-jaishankar-embarks-on-five-day-visit-to-uk-ahead-of-pm-rishi-sunak-visit-to-india-free-trade-agrrement-pm-modi-2023-11-11-902308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Bangalore Metro Rail to introduce mobile QR tickets    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangalore Metro update: The Bangalore Metro Rail Corporation Limited (BMRCL) today (November 11) said it will be introducing mobile QR tickets for the benefit of families and groups travelling together with effect from November 16.Presently, Mobile QR tickets are being issued through mobile applications (Namma Metro, Paytm, WhatsApp and Yatra) to a single passenger for a journey. However, based on demand, BMRCL is introducing mobile QR tickets to facilitate family and groups travelling together for a maximum of six passengers with effect from November 16 (Thursday), officials said.According to officials, mobile QR tickets carry a discount of 5 per cent on the token fare. The passenger using this facility will receive one single QR ticket encrypted with the number of passengers.Advertisement
+ </t>
+  </si>
+  <si>
+    <t>bangalore-metro-rail-mobile-qr-tickets-bengaluru-karnataka-commuters-namma-metro-paytm-whatsapp-yatra-latest-updates-2023-11-11-902306</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/karnataka/bangalore-metro-rail-mobile-qr-tickets-bengaluru-karnataka-commuters-namma-metro-paytm-whatsapp-yatra-latest-updates-2023-11-11-902306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      BSE Q2 net profit jumps to Rs 118 crore, revenue at record Rs 367 crore    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Delhi: Leading stock exchange BSE has reported a four-fold jump in net profit at Rs 118.4 crore for the quarter ended in September 2023. In comparison, the exchange had posted a net profit of Rs 29.4 crore in the year-ago period, BSE said in a statement.The bourse's revenue rose 53 per cent to a record Rs 367 crore in the July-September quarter of the current financial year (FY24), from Rs 240 crore in the year-ago period. "We shall continue to invest in development of human resources, new products, technology infrastructure, etc, and thus pursue long-term growth shareholders and deliver on our mission of Vibrant BSE 2025," the exchange's MD &amp; CEO, Sundararaman Ramamurthy, said.The exchange's average daily turnover in the equity segment increased to Rs 5,922 crore in the quarter under review, from Rs 4,740 crore in three months ended September 2022.Advertisement
+ </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/business/news/bse-q2-net-profit-jumps-to-rs-118-crore-revenue-at-record-rs-367-crore-2023-11-11-902307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      MS Dhoni signs fan’s BMW, talks in native accent in hometown Ranchi, video goes viral    </t>
+  </si>
+  <si>
+    <t>Viral video: Legendary cricketer MS Dhoni delighted a fan in his hometown Ranchi by giving his autograph in his BMW car, the video of which has gone viral on social media. In the video, what are significant points are Dhoni’s language tone, which sounds as native as it gets in Jharkhand, and the time that he took to decide a perfect spot in the car to sign his name. The video was shared by Instagram user Sumeet Kumar Bajaj who captioned the post as “MS Dhoni Sir Delights Abhishek Brother By Giving Autograph On BMW 740i Series”.In the video, the CSK Skipper is seen entering the car and sitting and asking the fan for the place where to sign in the car. The fan presents a number of marker pens to select from, to which Dhoni said, “Nahi pehle jagah batao” (first show me the place). The fan shows Dhoni the place and asks about the marker again, to which the former India Cricket Captain said, “Mota wala. Black hi hai na?” (the black one. It is black, isn’t it?)After the selection of the pen, Dhoni got up from the seat and said in his native tone, “Ab sabse bada problem hai humko set hona. Sign kaise kare?”The legendary Cricketer then explained to the fan how he would sign so that it fits well, due to the restraint of space.Showing humility for the uncountable time towards his fans, Dhoni signed the BMW.Before exiting the car, he congratulated his fan and quipped that before he gets late, he should leave.“Congratulations. Ab mai bhaga iske pehle late ho jaye,” Dhoni said.The post garnered over 28,000 likes on Instagram and numerous comments. It has collected over 2 lakh views so far.Advertisement
+ A user commented, “Car price raised by 1000000%”Another commented, “Bro Golden Memories”.
 Advertisement
- Also Read: 'Liar' - Chandrachud Singh downplays Salman Khan's BIG claim on Koffee With Karan | Read details</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/news/raj-kundras-old-letter-to-nhrc-surfaces-says-humans-are-treated-worse-than-pigs-in-arthur-road-jail-2023-10-24-899358</t>
+"This just became world's most valuable car," another wrote.The post was also shared on Dhoni’s fan page on X, formerly Twitter, by a handle named “DHONIsm”.A user commented, “Kaha mil rahe hai Bhai log. Kab hogi ye mulaqat”.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/trending/news/ms-dhoni-signs-fans-bmw-car-viral-video-trending-posts-ranchi-instagram-twitter-csk-skipper-latest-updates-2023-11-11-902305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Flipkart's 'Big Diwali Sale' ends today: Check exclusive discounts on premium gaming smartphones    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flipkart Diwali Sale: As Diwali lights up the celebrations, Flipkart is offering big discounts on smartphones, smartwatches, headsets, and more during its Big Diwali Sale. Banks are offering great deals and exchange offers that make it a good time to buy a new device without spending too much money.For gamers seeking a premium experience, today marks the final day of the Flipkart Big Diwali Sale 2023. Don't miss out on the chance, take advantage of these offers to save money and get a new device for yourself. Priced at ₹58,700, the OnePlus 11 5G features a 50MP primary camera, 120Hz AMOLED QHD display, and Snapdragon 8 Gen 2 processor. It comes with a robust 5000mAh battery and 100W SUPERVOOC charging support for uninterrupted gaming sessions.Priced at ₹99,999 the Galaxy S23 Ultra 5G boasts a Pro-grade Camera system with a 200MP Wide-angle Camera. Powered by the Snapdragon 8 Gen 2, it ensures smooth gaming performance. Advertisement
+ Priced at ₹1,06,999, the Google Pixel 8 Pro combines a Tensor G3 SoC, a vibrant 6.7-inch FHD+ AMOLED display, and a 50MP+48MP+48MP camera setup for high-quality photos. The robust 5050mAh battery ensures long-lasting performance.With a 48MP main camera and all-day battery life, the iPhone 14 Pro Max at ₹127,999 offers great video capabilities and extended usage. The Action mode ensures smooth handheld videos which makes it a comprehensive device for users.
+Advertisement
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/technology/news/flipkart-s-big-diwali-sale-ends-today-check-exclusive-discounts-on-premium-gaming-smartphones-2023-11-11-902304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Karnataka rains: Parts of state to receive heavy showers today     </t>
+  </si>
+  <si>
+    <t>Karnataka rains: The India Meteorological Department (IMD) has predicted heavy rains today (November 11) across Karnataka. The state capital, Bengaluru, will also receive heavy rains.The coastal districts of Dakshina Kannada, Uttara Kannada and Udupi are going to witness rains with thunder and lightning.</t>
+  </si>
+  <si>
+    <t>karnataka-rains-imd-alert-bengaluru-heavy-showers-waterlogging-massive-traffic-jam-schools-closed-latest-weather-updates-2023-11-11-902296</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/karnataka/karnataka-rains-imd-alert-bengaluru-heavy-showers-waterlogging-massive-traffic-jam-schools-closed-latest-weather-updates-2023-11-11-902296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      'No justification for bombing babies, ladies and old people in Gaza in the war against Hamas': Macron     </t>
+  </si>
+  <si>
+    <t>Amid the unprecedented attacks on Gaza by the Israeli Defence Forces, French President Emmanuel Macron, who had visited Tel Aviv last month, said there was “no justification” for bombing “these babies, these ladies, these old people” in the war against Hamas. Speaking to BBC on Friday, Macron, who condemned the terror attack on Israel, reiterated his call for a ceasefire in Gaza."So there is no reason for that and no legitimacy. So we do urge Israel to stop," Macron told the BBC, and expressed hope that other Western leaders will join his urgent call for a pause.Further, denouncing the surprise militant attack on Tel Aviv, he asserted that Israel has full right to protect its land after the massacre that killed over 1,200 people and took hostage at least 240 people. Despite this, Macron urged Israeli Prime Minister Benjamin Netanyahu with whom he had held meetings in the early days of the war and pledged his support, to refrain from attacking civilian areas of Gaza."We do share [Israel’s] pain. And we do share their willingness to get rid of terrorism,” Macron said on the sidelines of an international peace forum in Paris. The French leader said that all governments and aid agencies at a humanitarian aid conference in Paris had agreed that a “humanitarian pause” followed by a “ceasefire” was the only way to protect Gaza’s civilians, Times of Israel reported.Advertisement
+ Meanwhile, responding to Macron's remarks, Netanyahu said Hamas was to blame for civilian casualties as a result of its devastating onslaught in southern Israel last month. “While Israel is doing everything to refrain from harming civilians and calling on them to leave areas of fighting, Hamas-ISIS is doing everything to prevent them from leaving for safe areas and is using them as human shields,” Netanyahu said in a statement from his office.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/israel-hamas-french-president-emmanuel-macron-says-no-justification-for-bombing-babies-ladies-old-people-in-gaza-in-war-against-hamas-ceasefire-netany-2023-11-11-902294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Delhi High Court orders no vending, hawking zones in Connaught Place    </t>
+  </si>
+  <si>
+    <t>The Delhi High Court has directed the police and New Delhi Municipal Council (NDMC) to ensure that there are no illegal hawkers or vendors in Connaught Place. In the Friday hearing, the court ordered the authorities to strictly implement its 2021 order which asserted that there has to be “zero tolerance” towards all unauthorised hawkers. The bench, comprising Justice Mini Pushkarna, cited the Nehru Market situation that arose in 2021 in which fire tenders could not access a building where a fire broke out and said that it cannot happen again.“We can't have vendors in every nook and corner,” the court said as it asked the authorities to come up with a protocol to deal with the re-entry of vendors even after their removal.“NDMC and Delhi Police shall ensure that the order of this court (of October 2021) is implemented in letter and spirit,” it ordered.The court was hearing a petition by the association of traders of shop owners in the Connaught Place area -- Rajiv Chowk and Indira Chowk.Advertisement
+ The petitioner sought directions to the authorities to ensure illegal hawking and squatting/vending activities in the 'No Hawking' and 'No Vending' areas of Connaught Place and Connaught Circus stop permanently and the areas are kept free from encroachments by illegal hawkers and vendors/squatters.</t>
+  </si>
+  <si>
+    <t>delhi-high-court-orders-no-vending-hawking-zones-in-connaught-place-nehru-place-delhi-police-ndmc-latest-updates-2023-11-11-902293</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/delhi-high-court-orders-no-vending-hawking-zones-in-connaught-place-nehru-place-delhi-police-ndmc-latest-updates-2023-11-11-902293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Check Garena Free Fire Max redeem codes for Nov 11: Weapons, diamonds, and more    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garena Free Fire Max redeem codes which comprise 12 alphanumeric characters, open doors to in-game treasures such as weapons, diamonds, and skins. These daily-refreshed codes are an important part of the upgraded Garena Free Fire Max, which gained popularity after the ban of its predecessor by the Indian government.Launched in 2021, Garena Free Fire Max quickly gained popularity as a revamped and improved version of the original game. It captured the gaming community's attention, especially after the ban on the previous version in India. The developers consistently update the game which keeps it vibrant and engaging for players.Once the codes are redeemed, players can access gold and diamonds in the game vault which allows them to purchase new in-game items like the rebel academy weapon loot crate, revolt weapon loot crate, diamond vouchers, and the fire head hunting parachute. Don't miss out on these limited-time opportunities to enhance your gaming experience!Advertisement
+ </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/technology/news/check-nov-11-garena-free-fire-max-redeem-codes-weapons-diamonds-and-more-2023-11-11-902292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      ENG vs PAK: How can England qualify for Champions Trophy even if they lose to Pakistan in World Cup 2023    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG vs PAK: England and Pakistan face each other in the 44th match of World Cup 2023 at the Eden Gardens Stadium in Kolkata as November 11 sees the final double-header of the tournament. The two sides are playing for different motives with England eyeing a spot in the Champions Trophy, while the Men in Green are gunning to do the improbable task of reaching the semifinals of the tournament. Pakistan have to beat the Three Lions by a massive margin of 287 runs to pip New Zealand's Net run rate and book their place in the semifinals. Whereas, England also need a win to confirm their place in the Champions Trophy in all likelihood.England are currently in 7th place in the World Cup points table with 4 points in 8 games. They face competition from Bangladesh, Sri Lanka and the Netherlands for a top-eight finish, which is the criteria for the Champions Trophy qualification (with Pakistan in the top 7). If the 2019 World Champions lose to the Men in Green they can get knocked out for a spot but that is not guaranteed. England have 4 points in 8 games and are placed seventh, while their competitors are - Sri Lanka (4 points in 9 games), Bangladesh (4 in 8 before AUS vs BAN clash) and Netherlands (4 in 8 games). Here is England's qualification scenario.Scenario #1: England not to lose bigAdvertisement
+ England would be hoping to win the match to stay in healthy contention for the Champions Trophy qualification. However, if they lose, they would not want to go down by a big margin. A big loss will push their Net run rate below to what the other teams have. Bangladesh, Sri Lanka would be then gunning to push the Three Lions out of the top eight.Scenario #2: Bangladesh lose to Australia
+Advertisement
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/how-can-england-qualify-for-champions-trophy-even-if-they-lose-to-pakistan-in-eng-vs-pak-world-cup-2023-clash-england-vs-pakistan-aus-vs-ban-2023-11-11-902290</t>
   </si>
 </sst>
 </file>
@@ -704,21 +699,21 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -732,206 +727,203 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/backend/IndiaTv.xlsx
+++ b/backend/IndiaTv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Heading</t>
   </si>
@@ -29,262 +29,262 @@
   </si>
   <si>
     <t xml:space="preserve">
-      Deepotsav: Ayodhya to create world record with 24 lakh diyas at 51 ghats, UP govt starts online diya booking    </t>
-  </si>
-  <si>
-    <t>Ayodhya Deepotsav 2023: The city of Ayodhya is all set to hold a grand 'Deepotsav' today (November 11) on the eve of Diwali, with over 24 lakh diyas at 51 ghats set to illuminate in large numbers. As part of the celebration, Shri Ram Janmabhoomi Path is also being decorated with different types of flowers for Deepotsav 2023.Decked heavily with around 24 lakh earthen lamps, the Uttar Pradesh government is also planning to create a Guinness World Record. People from different places, including tribal people from the Pakur district of Jharkhand, will witness the grand Deepotsav.At 2:00 pm, UP Chief Minister Yogi Adityanath will reach Ayodhya today. High commissioners and ambassadors of over 50 countries will participate in the event. Deputy CM Keshav Prasad Maurya and Brajesh Pathak will attend the event. The tableau of Lord Ram will reach Ram Katha Park at around 2.30 pm. At 6:30 pm, CM Yogi Adityanath will perform Saryu Aarti. He will inaugurate the festival of lights at Ram Ki Paidi at 7.30 pmAround 48 tribal people from the Pakur district of Jharkhand have arrived in Ayodhya to celebrate Deepotsav on Saturday. The people of this tribe reside in the mountainous region and have come to Ayodhya barefooted to attend the grand Deepotsav.Image Source : PTI (FILE)Earthen lamps being arranged in a pattern for the seventh Deepotsav celebration at the Ram Ki Pouri in AyodhyaThe Jharkhand Pradesh Shri Ram Janaki Charitable Service Trust has sent them to participate in the Deep Utsav at Ayodhya city.Tomorrow (November 12), they will light the lamp in the presence of Uttar Pradesh Chief Minister Yogi Adityanath in their traditional attire. The people from the Pakur district have come to Ayodhya for the first time. Earlier, the people from the Santhali community came to witness Diwali in Ayodhya. People can now be a part of Deepotsav in Ayodhya by paying a sum as low as Rs 51 for a diya to Rs 1,100 for 51 diyas. The only difference will be that their diya will be illuminated at a designated place picked by them, at the click of the mouse at the virtual space developed by Ayodhya Development Authority for the purpose.The dedicated portal- which will play e-Deepotsav- has been set up for people who want to take part in the mega event from far-off places. The portal also offers live feed of the events unfolding in Ayodhya (Uttar Pradesh) on the occasion of Deepotsav. A special online programme has been prepared to connect the worshippers of Lord Rama from India and abroad with the Deepotsav, said RP Yadav, deputy director, tourism department.Advertisement
- “The idea is to let people buy e-lamps by booking packages in this e-Deepotsav and feel connected with the noble event,” he said.
+      Chhattisgarh Assembly polls: 'How much money did CM get from Mahadev betting scam', PM Modi asks Baghel    </t>
+  </si>
+  <si>
+    <t>Prime Minister Narendra Modi on Monday (November 13) addressed an election rally in Mungeli in poll-bound Chhattisgarh ahead of the second phase of voting scheduled on November 17. The Prime Minister attacked the Congress and said time has come for the Congress government to end in the state, which is "confirmed" after the first phase of elections. "The time has come when Congress' bad governance will come to an end... After the first phase of the election, it is confirmed that Congress will lose in Chhattisgarh. I thank the people of Chhattisgarh for voting in favour of BJP in phase 1 of Assembly polls," he said.He assured action against the corrupt people if the BJP government returns to power in the state."Media people tell me that Chhattisgarh chief minister is losing his assembly seat. Action will be taken against corrupt in Chhattisgarh after BJP comes to power in the state," PM Modi said.The Prime Minister said that Chhattisgarh will witness a rapid push in development if the BJP comes back to power in the state. "If BJP comes into power, Chhattisgarh will develop rapidly.  The dreams of the youth will be fulfilled. The life of the Mahtari sisters here will become easier. Control of corruption, strict action against corruption will be taken," he said.He accused the Congress of "looting" the state and said that the party will not be seen in power on Dev Deepawali. "Yesterday you celebrated Diwali. But the coming Dev Deepawali will bring new joy and enthusiasm for Chhattisgarh. The Congress which has looted Chhattisgarh will not be seen anywhere on Dev Deepawali," he said.Advertisement
+ PM Modi said that the countdown of the Bhupesh Baghel government has started in Chhattisgarh and the Congress leaders who looted the state for five years will be ousted from power."Both the track record and guarantee of BJP is that it has been created by BJP and only BJP will improve it. The countdown for the exit of the Congress government in Chhattisgarh has started. The time has come for the farewell of those Congress leaders who have looted you for 5 years," he said.
 Advertisement
-While one can buy a lamp for Rs 51, 11 lamps Rs 101, 21 for Rs 501 and 51 for Rs 1,100, those who are making the booking will be able to click and light the lamp from their homes at Ram Ki Paidi, Saryu Ghats, Mutts, Temples and other religious places. Along with this, prizes like lamps, cardamom seeds or 'laddu' prasad, model of Ram temple, souvenirs of Ramnami Gamcha, Ram Darwar, etc., will be sent to them by courier as per the package, he added.Devotees can be a part of e-Deepotsav by logging at ‘Holy Ayodhya Portal' (https://holyayodhya.com/).World record in Ayodhya: Yogi Adityanath government will be raising the bar by lighting 21 lakh earthen diyas on November 11. Last year a record was created by lighting up 15.76 lakh diyas at the same time. To ensure the new record could be achieved this time, earthen lamps are going to be spread out over 51 ghats at Ram Ki Paidi.A government spokesperson said that a total of 24 lakh diyas are going to be put up by volunteers out of which 21 lakh are expected to be lit up at the same time to create the record.About 25,000 volunteers are going to be deployed for the job with a majority being students from Dr Ram Manohar Lohia Avadh University. Identity cards and bus services have been provided to ferry the students from Lohia and other colleges to the site.A 4.5-foot-wide block will house 256 diyas in 16 by 16 formation. The volunteers will start work at the site from Thursday noon onwards. The local municipal corporation will assist in cleaning and sweeping of the ghats before diyas are lined up.The volunteers have been asked to pour 30 ml mustard oil in the diyas on November 11 before the event. A circulation space will be created within the grid to facilitate the movement of volunteers who would provide the cotton wick and oil on the final day.</t>
-  </si>
-  <si>
-    <t>ayodhya-deepotsav-2023-diwali-24-lakh-diyas-51-ghats-world-record-uttar-pradesh-govt-earthern-lamp-online-booking-cm-yogi-adityanath-latest-updates-2023-11-11-902266</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/uttar-pradesh/ayodhya-deepotsav-2023-diwali-24-lakh-diyas-51-ghats-world-record-uttar-pradesh-govt-earthern-lamp-online-booking-cm-yogi-adityanath-latest-updates-2023-11-11-902266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Rajasthan poll: Former Congress MLA Ashok Tanwar, others leaders join BJP in Jaipur    </t>
-  </si>
-  <si>
-    <t>Rajasthan Assembly Elections: Congress has suffered a major setback ahead of the assembly elections as several  leaders from the grand old pary, including party stalwart and former minister Ram Gopal Bairwa and former MLA Ashok Tanwar, on Saturday joined the Bharatiya Janata Party  (BJP) in Jaipur.The Congress leaders joined BJP in the presence of MP Rajyavardhan Singh Rathore and state party president CP Joshi. Welcoming the new leaders in the party fold, Joshi said, "It seems that we will make Jhotwara 'Congress-mukt'. I express gratitude to all of you for reposing faith in the BJP under the leadership of Prime Minister Narendra Modi".The former Haryana Congress chief Tanwar, after quitting the Congress in 2019, has been consistently switching parties. In February 2021, he even established his own party, 'Apna Bharat Morcha.' He later joined the Trinamool Congress (TMC) in November 2021.He was once known as a close associate of the former Congress chief Rahul Gandhi during Gandhi's tenure as the head of the Indian National Youth Congress (INYC). Tanwar held the position of chief in the INYC.However, Tanwar after a prolonged turf war with the former Haryana Chief Minister Bhupinder Singh Hooda quit Congress in October 2019 ahead of the state Assembly polls.Advertisement
- In the 2019 Haryana Assembly elections, Tanwar had extended his support to Dushyant Chautala's Jannayak Janata Party (JJP) and campaigned against Congress. In 2009, he won the Lok Sabha elections from Sirsa in Haryana as a Congress candidate. However, he had lost the 2014 Lok Sabha elections.Earlier, a senior leader and Jodhpur mayor Rameshwar Dadhich, who had filed his nomination for the upcoming state polls from the Soorsagar constituency as an independent candidate, withdrew his papers and joined the BJP.
+The Prime Minister raked up the issue of the Mahadev app 'scam' in which it was alleged that Chief Minister Baghel received over Rs 500 crore, and asked how much money did CM get and how much of it was transferred to the party's high command.</t>
+  </si>
+  <si>
+    <t>pm-narendra-modi-chhattisgarh-assembly-election-rally-bjp-congress-raman-singh-bhupesh-baghel-latest-updates-2023-11-13-902500</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/chhattisgarh/pm-narendra-modi-chhattisgarh-assembly-election-rally-bjp-congress-raman-singh-bhupesh-baghel-latest-updates-2023-11-13-902500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Telangana: Six killed, three others injured as massive fire erupts at chemical godown in Hyderabad | VIDEO    </t>
+  </si>
+  <si>
+    <t>Hyderabad fire: In a tragic incident, at least six people were killed and three others sustained injury after a massive fire erupted at a chemical godown in Telangana. According to the police, the incident occurred at Bazar Ghat under the limits of the Nampally police station in Hyderabad.</t>
+  </si>
+  <si>
+    <t>hyderabad-telangana-massive-fire-erupts-at-godown-in-hyderabad-death-count-injury-four-storey-building-at-nampally-images-villages-latest-updates-2023-11-13-902501</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/telangana/hyderabad-telangana-massive-fire-erupts-at-godown-in-hyderabad-death-count-injury-four-storey-building-at-nampally-images-villages-latest-updates-2023-11-13-902501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Uttarakhand tunnel collapse: CM Dhami conducts on-site inspection, says 'PM assured all possible help'    </t>
+  </si>
+  <si>
+    <t>Tunnel collapse: Rescue operation has been underway on war footing for 24 hours now to bring out the people trapped inside the debris after a part of an under-construction tunnel from Silkyara to Dandalgaon located on Uttarkashi-Yamnotri road in Uttarakhand collapsed yesterday morning at around 5 am. Multiple agencies are involved in the relief and rescue operation which include the NDRF, SDRF and Prantiya Rakshak Dal. According to the officials, around 40 people are trapped inside the debris. In a significant development, communication has been established with the trapped people who are now being provided oxygen and water."40 people are trapped inside the tunnel. All are safe, we have provided oxygen and water to them," Prashant Kumar, Circle Officer of Uttarkashi said."The present situation is, that yesterday we established communication with the people trapped inside the tunnel. We have moved around 15 mtrs inside the tunnel, and around 35 mtrs are still to be covered. Everyone is safe, we have provided oxygen and water to them. We are making our way sideways to go inside the tunnel. After establishing communication, around 40 people are trapped inside," he added.An official said that communication has been established with those trapped and everyone is safe.Image Source : INDIA TVNames of workers trapped inside the debris“Work is underway at a great speed. Everyone is working very hard...We were saddened yesterday because we weren't able to communicate with those trapped. But then we were able to communicate with them,” Ranveer Singh Chauhan, Prantiya Rakshak Dal (PRD) jawan said.Chief Minister Pushkar Singh Dhami visited the spot of the incident and conducted an inspection of the ongoing rescue operation. He was briefed about the incident.Advertisement
+ "The PM has assured of all possible help. NDRF, SDRF, other agencies &amp; experts are working to rescue the 40 stranded persons. We want to assure the families of those stranded that the state govt and administration are making every effort to rescue them," he said while talking to the reporters.
 Advertisement
-Notably, Dadhich, who is a close associate of Rajasthan Chief Minister Ashok, has parted ways with the Congress after a 50-year-long association.Vinod Sharma, the former Dausa district president of the Congress also joined the Bharatiya Janata Party (BJP). Additionally, in Jaipur, former minister Rajpal Singh Shekhawat, who had submitted his nomination for the Jhotwara constituency against the BJP's Rajyavardhan Singh Rathore, decided to withdraw his candidacy after discussions with the party's high command.</t>
-  </si>
-  <si>
-    <t>rajasthan-assembly-elections-congress-ram-gopal-bairwa-ashok-tanwar-others-joins-bjp-jaipur-rajyavardhan-singh-rathore-cp-joshi-latest-updates-2023-11-11-902300</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/rajasthan/rajasthan-assembly-elections-congress-ram-gopal-bairwa-ashok-tanwar-others-joins-bjp-jaipur-rajyavardhan-singh-rathore-cp-joshi-latest-updates-2023-11-11-902300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Live nowENG vs PAK World Cup 2023 Live: England look to pile loads of runs on Pakistan    </t>
-  </si>
-  <si>
-    <t>ENG vs PAK World Cup 2023 Live: Pakistan and England go up against each other in match number 44 in World Cup 2023. The Babar Azam-led side is facing an improbable task of reaching into the semifinals of the tournament with England looking to push their case for the Champions Trophy. New Zealand have made things worse for Pakistan with the Men in Green requiring a mammoth win to pip the Kiwis from the 4th spot in the points table. Follow for all the latest updates on ENG vs PAK clash.Advertisement
-  Latest Cricket NewsThe first four overs of the first innings are done and Pakistan are wicketless in these overs. England are off to a fine start with 21 runs in their kitty alreadyThe proceedings are now underway. England openers are out in the middle. Shaheen has the new nut in hand.</t>
+Another official said that mucking is being done with the help of excavator.“The work of mucking is underway. Mucking is being done with the loader &amp; excavator...Approximately 30-35 meters part of the tunnel has been broken. The incident happened around 5:30 am. We have information of around 40-45 people being trapped. Everyone is safe,” Mritunjay Kumar, Loader operator said.Earlier on Sunday, Chief Minister Pushkar Singh Dhami said that he is in touch with the officials on the spot. "I have been in contact with the officials from the time I got to know about the incident...NDRF and SDRF are at the spot. We pray to god for the safe return of everybody," he said.The tunnel, once completed, will connect Silkyara to Dandalgaon in Uttarkashi. It is being built under the Char Dham Road Project which aims to slash the journey from Uttarkashi to Yamunotri Dham by nearly 26 kilometres.</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/uttarakhand-tunnel-collapse-uttarkashi-rescue-operation-war-footing-ndrf-sdrf-workers-trapped-rescued-injured-casualties-cm-pushkar-singh-dhami-update-2023-11-13-902480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Delhi: Dense smog engulfs national capital post Diwali celebrations, AQI in 'Poor' category     </t>
+  </si>
+  <si>
+    <t>Delhi air pollution: A dense layer of smog engulfed Delhi on Monday morning after people burst crackers on Diwali night, leading to heavy pollution across the national capital. This comes as the city is already battling with its deteriorating air quality. Visuals from several parts of Delhi depicted dense fog engulfing the streets, severely limiting sight and making it difficult to see beyond a few hundred meters. It should be noted here that pollution has been a problem for the national capital for the past few weeks. After Diwali, it is now quite likely that the city will once again see an increase in pollution levels, making it difficult for the residents of the city to breathe. The Air quality across Delhi continues to be in the 'Poor' category as per the Central Pollution Control Board (CPCB). The Air Quality Index (AQI) in several regions across the city was alarming. Meanwhile, the air quality in Noida was also recorded in the 'Poor' category as AQI stands at 290. Advertisement
+ Previous data related to pollution shows that since the last week of October, the national capital's air quality has been at its worst. The concentration of PM 2.5 in the city has been recorded at 20 times the limit prescribed by the World Health Organisation, prompting the city government to order the closure of all primary classes and restrict the entry of trucks.</t>
+  </si>
+  <si>
+    <t>delhi-dense-smog-engulfs-national-capital-post-diwali-celebration-air-quality-index-visuals-firecrackers-latest-updates-2023-11-13-902470</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/delhi-dense-smog-engulfs-national-capital-post-diwali-celebration-air-quality-index-visuals-firecrackers-latest-updates-2023-11-13-902470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Rumoured couple Rashmika Mandanna, Vijay Deverakonda celebrate their Diwali together? Fans curious    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rashmika Mandanna and Vijay Deverakonda are the talk of the town of late. Just like Ananya Panday and Aditya Roy Kapur, the duo has been spotted together on multiple occasions, however, never admitted to dating each other. Seemingly, the Telugu stars celebrated their Diwali together but did not share any pictures together. But, fans turned sleuth and shared some mind-boggling proof on social media. For Diwali, the Animal actor draped a stunning saree and extended Diwali wishes to her fans through a post. She captioned it, "Happy Diwali my loves." Take a look at Rashmika Mandanna's post here:
+On the other hand,  Vijay Deverakonda shared a series of photos from his Diwali celebrations with the same caption. The actor sported a yellow kurta-pyjama as he enjoyed the festival with his family. But, he did not drop any photos with his rumoured girlfriend. Check out Vijay Deverakonda's post here: 
+Advertisement
+ Though the stars did not reveal that they celebrated Diwali together, fans flooded the comment section with assumptions and proof. One fan wrote, "in vijay deverakonda home same wall vijay also posted." Yet another fan commented, "Upar Rashmika ka post niche apka dono ka caption same."Here's how fans reacted:
+Advertisement
+Earlier, it was reported that Rashmika Mandanna and Vijay Deverakonda took an exotic vacation to the Maldives. The duo dropped pictures from the tropical island on social media, however, months apart. </t>
+  </si>
+  <si>
+    <t>celebrities</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/celebrities/rashmika-madanna-vijay-deverakonda-diwali-photos-2023-11-13-902496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      IND vs NED: Chinnaswamy Groundsmen show-off placards to reveal India's best fielder vs Netherlands | WATCH    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND vs NED: India's best fielder medal continues to catch headlines. The award which has been an out-of-the-box thing, not only highlights players' contributions on the field but is also one of the most awaited things after an India game. There have been several creative ways that India's fielding coach T Dilip has implemented to reveal the winners. In the latest medal ceremony after the clash against the Netherlands, the Chinnaswamy groundsmen revealed India's best fielder for the clash.T Dilip implemented another new way of naming the medal winner. Unlike in the previous times when contenders for the medal are announced inside the dressing room and then the players go out to know the winner, this time the contenders and winners - all were named on the ground. Dilip used the umpire's walkie-talkie to announce the contenders before the groundsmen revealed the medal winner.Advertisement
+ </t>
   </si>
   <si>
     <t>cricket</t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/sports/cricket/england-vs-pakistan-world-cup-2023-live-england-look-for-champions-trophy-push-pakistan-aim-for-improbable-semifinal-spot-eng-vs-pak-eden-gardens-2023-11-11-902299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      'Dhai kilo ka purse kyu...': Palak Tiwari gets brutally trolled for ignoring beggar | Watch video    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palak Tiwari, daughter of popular TV actress Shweta Tiwari, often remains in the news, be it for her alleged relationship with Ibrahim Ali Khan or when she becomes a target of trolls. Now, a video of the Bijlee Bijlee girl is doing rounds on the internet, following which she has become a target of trolls again. In the video, she can be seen coming out of a shop in Mumbai, after which a lady beggar wearing a burqa comes close to her and asks for money. Palak's reply to her has become the main attraction of the viral video. Palak can be heard saying ''cash nahi hai mere pass (I don't have cash). I am sorry,'' and walked away. Watch the viral video: In the video, Palak can be seen wearing a white kurti and has a handbag on her shoulder.Advertisement
- Soon after her video went viral on the internet, netizens began to troll her in the comment section and some of these reactions are way too hilarious. One user wrote, ''Will spare crores of rupees but will never help a poor.'' Another one wrote, ''Thank God aunty didn't reply saying 'Koi ni beta, UPI kar do.'' A third user commented, ''Dhai kilo ka purse kyu.'' A fourth netizen wrote, ''Purse me lipstick hoga.''
+    <t>https://www.indiatvnews.com/sports/cricket/chinnaswamy-groundsmen-show-off-placard-to-reveal-indias-best-fielder-suryakumar-yadav-in-ind-vs-ned-world-cup-clash-2023-11-13-902504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Israel-Hamas war, Day 38: 21, including civilians, wounded after Hezbollah attacks Israeli troops    </t>
+  </si>
+  <si>
+    <t>At least 21 people, including 14 civilians, were wounded in an anti-tank missile attack by the Lebanon-based Hezbollah group targeting Israeli troops near the Lebanon-Israel border on Sunday, according to officials. Seven Israel Defence Forces (IDF) soldiers were wounded by a mortar near the Menara community, according to the Times of Israel.The clashes came as skirmishes between the Iran-backed group and the Israeli military continued to intensify along the Lebanon-Israel border, threatening to escalate into another front in the Middle East's ongoing war. A civilian was seriously wounded in the missile attack.Additionally, the missile struck a number of vehicles near the northern community of Dovev which remains close to the border. Some of the people injured in the attack were employees of the Israel Electric Corporation who had arrived to repair power lines damaged by previous attacks from Lebanon.The wounded were transported by the Israel Defense Forces from the scene of the attack to a safer area where they could be treated by paramedics and taken to hospitals. The IDF said some 15 rockets were fired from Lebanon at northern Israel, with four projectiles being intercepted by the Iron Dome air defense system. The rest landed in open areas, causing no injuries or damage.Meanwhile, the IDF said it struck the Hezbollah cell behind the attack against the civilians and hit several Hezbollah sites in southern Lebanon, including a weapons depot. Two more cells that launched mortars from Lebanon at areas near the communities of Menara and Yir’on were also struck, according to the military. Israel also struck several southern Lebanese towns, including Yaroun, Mays el-Jabal, and Alma al-Shaab.The Israeli army's chief spokesman, Rear Admiral Daniel Hagari, said the Hezbollah attack on Israeli civilians was “very serious". He said Israel is focused on its war in Gaza but it also remains at a “very high level of preparedness in the north” and ready to take further action.The Israeli military said in a statement that "seven IDF soldiers were lightly injured as a result of the mortar shell launches in the area of Manara in northern Israel earlier today". Israeli rescue services did not identify the location or provide information about the 10 others wounded by rocket blasts and shrapnel but said two of them were in critical condition.The Lebanon-based militant group also announced attacks on Israeli military gatherings and barracks in border areas Birket Riche and Zareit. Israeli troops and Hezbollah militants and their allies have been clashing along the border since the Israel-Hamas war started five weeks ago with a bloody incursion into southern Israel by Hezbollah ally Hamas. While largely contained, clashes have increased in intensity as Israel conducts a ground offensive in Gaza against Hamas.Advertisement
+ The Hamas terror group had claimed that its Lebanon branch launched a barrage of rockets at Haifa, Nahariya, and nearby towns on the Lebanon border. This comes as more than 80 people have been killed on the Lebanese side. The toll includes at least 71 Hezbollah members, eight Palestinian terrorists, a number of civilians, and a journalist.At least 1,400 people have been killed on the Israeli side, mostly civilians killed in the initial Hamas attack on October 7. At least 46 Israeli soldiers have been killed in Gaza since the ground offensive began. 
+Advertisement
+Retaliatory attacks by Israel have killed more than 11,000 Palestinians, two-thirds of them women and minors, according to the Health Ministry in Gaza, while roughly 2,700 people are reportedly missing.Many countries have called for a ceasefire in the wake of the growing humanitarian crisis. Health officials and people trapped inside Gaza’s largest hospital rejected Israel’s claims that it was helping babies and others evacuate on Sunday, saying that fighting continued just outside the facility where incubators lay idle with no electricity and critical supplies were running out.However, Israeli Prime Minister Benjamin Netanyahu has dismissed urgent calls for a cease-fire unless it includes the release of all the nearly 240 hostages captured by Hamas in the Oct. 7 rampage that triggered the war. Israel appears to be set on finishing Hamas' rule in Gaza with "full force".</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/israel-hamas-war-day-38-soldiers-and-civilians-wounded-after-hezbollah-attacks-israeli-troops-lebanon-border-skirmishes-latest-updates-2023-11-13-902498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      I-T dept raids residences linked to Minister Sabitha Indra Reddy's relatives in poll-bound Telangana    </t>
+  </si>
+  <si>
+    <t>IT raids: Ahead of the assembly elections, the Income Tax officials on Monday conducted searches on the residence of Telangana Minister Sabitha Indra Reddy's relatives in Hyderabad. The Income Tax sleuths searched the residence of Pradeep, who lives in an apartment in Gachibowli. Pradeep is a close relative of the minsiter. The IT also searched the residences of other relatives of Reddy.</t>
+  </si>
+  <si>
+    <t>hyderabad-it-dept-raids-residences-linked-to-minister-sabitha-indra-reddy-s-relativestelangana-assembly-elections-brs-kcr-latest-updates-2023-11-13-902490</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/telangana/hyderabad-it-dept-raids-residences-linked-to-minister-sabitha-indra-reddy-s-relativestelangana-assembly-elections-brs-kcr-latest-updates-2023-11-13-902490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Delhi: Gopal Rai calls review meeting, accuses BJP of 'inciting' people to burst crackers    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi Environment Minister Gopal Rai on Monday (November 13) called a meeting with the officers of the Department at the Secretariat to review the pollution, a day after the Diwali celebrations in the city. Delhi woke up to hazy sky, once again, after a brief pause affected due to rain, as the city recorded ‘Very Poor’ air quality, a deterioration from the ‘Poor’ AQI on Sunday.Firecrackers were seen being burst in several parts of the city despite a ban by the Supreme Court. The residents flaunted the top court’s order and burst crackers till late night.Gopal Rai claimed that firecrackers in the city were burst in a "targeted manner" which was because the BJP leaders "incited" the people to do so.Advertisement
+ </t>
+  </si>
+  <si>
+    <t>delhi-air-pollution-environment-minister-gopal-rai-review-meeting-aqi-diwali-celebrations-crackers-ban-supreme-court-order-aap-bjp-latest-updates-2023-11-13-902493</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/delhi-air-pollution-environment-minister-gopal-rai-review-meeting-aqi-diwali-celebrations-crackers-ban-supreme-court-order-aap-bjp-latest-updates-2023-11-13-902493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      World Cup: India break England's 2019 world record during historic outing with bat in Netherlands clash    </t>
+  </si>
+  <si>
+    <t>Rohit Sharma's India were in their element during the final league stage game of World Cup 2023 against the Netherlands. With the Diwali festival being celebrated across the nation, the Men in Blue produced fireworks at the M. Chinnaswamy Stadium in Bengaluru in another brilliant outing for the hosts. India mauled the Dutch and broke numerous records down in their 160-run win.The batters created a few historical records but one such powered them to bigger heights that even the most successful year of an England side went behind the Indians. The hosts of World Cup 2023 scored 410 on a batting-friendly Bengaluru surface and created the record for the most 350+ totals scored by any team in the history of ODI cricket. The record earlier belonged to England. This was India's 8th score of 350+ in ODIs in 2023, which saw them leapfrog the iconic 2019 year for England, who scored 7 such totals four years before. Most 350+ totals in a calendar year:India - 8 in 2023Advertisement
+ England - 7 in 2019South Africa - 6 in 2023
+Advertisement
+South Africa - 5 in 2015</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/india-break-englands-2019-world-record-during-historic-outing-with-bat-in-ind-vs-ned-world-cup-2023-clash-at-m-chinnaswamy-stadium-bengaluru-2023-11-13-902468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Beware of online date scams: Delhi journalist loses Rs 15,000. His full story here     </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/technology/news/beware-of-online-date-scams-delhi-journalist-loses-rs-15-000-his-full-story-here-2023-11-13-902505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      East Central Railway Recruitment 2023-24: Apply online for 1832 Apprentice Posts at rrecr.gov.in, details here    </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/jobs/news/east-central-railway-recruitment-2023-24-apply-online-for-1832-apprentice-posts-at-rrecr-gov-in-check-details-2023-11-13-902503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Telangana election: Congress' G Vivekananda richest candidate with over Rs 600 crore assets | DETAILS    </t>
+  </si>
+  <si>
+    <t>Telangana Assembly Elections: Chennur Congress candidate G Vivekananda is the richest politician contesting in the November 30 assembly elections in Telangana,  with declared assets worth over Rs 600 crore. It is pertinent to mention that earlier this month, the Chennur candidate, who is also known as Vivek Venkataswamy, had joined the Congress after quitting the BJP.Vivekananda and his wife possess movable assets valued at Rs 377 crore, predominantly in the form of shares in various companies, including Visaka Industries, a company founded by him in 1981. The family’s immovable assets stood at over Rs 225 crore.As per the affidavit submitted by him, Vivek and his wife have liabilities or loans amounting to Rs 41.5 crore. In the last fiscal year, Vivek's annual income increased to Rs 6.26 crore from Rs 4.66 crore in FY19, while his wife's income rose to Rs 9.61 crore from Rs 6.09 crore during the same period.Congress leader P Srinivas Reddy, who is second on the list after Vivekananda, has assets worth over Rs 460 crore. Srinivas Reddy, contesting from the Palair assembly constituency, declared total assets, including both movable and immovable, amounting to Rs 460 crore, along with liabilities of Rs 44 crore.Notably, on the day of filing nomination papers, November 9, the Income Tax Department conducted searches at Srinivas Reddy’s residences and offices in Hyderabad and in Khammam. Reddy called the searches 'politically motivated.'Congress candidate Raj Gopal Reddy's income for the year 2022-23 surged significantly to Rs 71.17 crore from Rs 36.6 lakh in FY19, according to his affidavit. The total assets of his family are reported to be Rs 459 crore.Advertisement
+ The Congress candidate from Munugode holds 1.24 crore shares in his company Sushee Infra and Mining Ltd whose book value was Rs 239 crore. Reddy’s family has immovable assets worth Rs 157 crore with liabilities at Rs 4.14 crore, the affidavit said.Bharat Rashtra Samithi (BRS) candidate Pailla Shekar Reddy declared Rs 227 crore worth of assets belonging to his family with over Rs 83 crore liabilities.
+Advertisement
+Telangana Chief Minister K Chandrasekhar Rao has declared family assets worth nearly Rs 59 crore and liabilities of Rs 25 crore in the election affidavit submitted on November 9 while filing his nomination for the Assembly elections. According to the affidavit, KCR does not own a car. There are nine cases registered against him, all booked during the Telangana statehood agitation, out of which he was not convicted of any criminal offence.</t>
+  </si>
+  <si>
+    <t>hyderabad-telangana-assembly-elections-congress-g-vivekananda-richest-candidates-rs-600-crore-assets-kcr-net-worth-p-srinivas-reddy-latest-updates-2023-11-13-902499</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/telangana/hyderabad-telangana-assembly-elections-congress-g-vivekananda-richest-candidates-rs-600-crore-assets-kcr-net-worth-p-srinivas-reddy-latest-updates-2023-11-13-902499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Govardhan Puja 2023: Know date, timings and significance of the auspicious festival    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the five-day-long festival of Diwali, Govardhan Puja falls on the fourth day of Diwali, also known as Annakut or Annakoot. It is a significant Hindu festival that is celebrated with great devotion and enthusiasm across India. The festival of Govardhan Puja is dedicated to Lord Krishna and is celebrated to commemorate the lifting of the Govardhan Hill by Lord Krishna to protect the people of Gokul from the wrath of Lord Indra. This incident holds great significance in Hindu mythology and is believed to teach us a valuable lesson about the power of faith and devotion.According to ancient scriptures, Lord Indra, the god of rain, was worshipped by the people of Gokul for bountiful rains and good harvests. However, Lord Krishna, being the avatar of Lord Vishnu, convinced the people to worship Govardhan Hill instead, stating that it was the provider of all their resources and sustenance.Enraged by this, Lord Indra caused heavy rainfall and thunderstorms in Gokul to teach them a lesson. To protect the people from the wrath of Lord Indra, Lord Krishna lifted the Govardhan Hill on his little finger and protected them for seven days and seven nights until Lord Indra realised his mistake and asked for forgiveness.Advertisement
+ Govardhan Puja is celebrated on the fourth day of Diwali, which falls on the first lunar day of the Shukla Paksha (bright fortnight) in the month of Kartik according to the Hindu calendar. This year, it will be celebrated on November 13.The timings for performing Govardhan Puja will be from 2:56 PM on November 13th to 2:36 PM on November 14th.
 Advertisement
 </t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/news/dhai-kilo-ka-purse-kyu-palak-tiwari-gets-brutally-trolled-for-ignoring-beggar-watch-video-2023-11-11-902297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      ENG vs PAK: Have Pakistan knocked out from World Cup 2023 at toss itself? Can they qualify while chasing too?    </t>
-  </si>
-  <si>
-    <t>ENG vs PAK: England and Pakistan are having a go at each other in the 44th match of World Cup 2023. Babar Azam's men are facing an improbable task of overtaking New Zealand's Net run rate and pipping them out of the top four places in the tournament. The Men in Green have now lost the toss too and have been asked to bowl first.Before this game, there was a criterion of qualification which suited Pakistan a little better if they had batted first. Pakistan needed a 287-run win to go past New Zealand's NRR and needed to score a minimum of 300 for that. But now they have been asked to do a near-impossible task. New Zealand are ranked fourth in the World Cup points table with an NRR of +0.743, while Pakistan are fifth with an NRR of +0.036.Pakistan are officially still in contention to qualify for the semifinals at the toss. But their already improbable seeming task is even more steep now. The 1992 champions can still qualify in the chase but that does not seem practical. If England bat first:England's total - 20, Pakistan to chase within 1.3 oversEngland's total - 50, Pakistan to chase within 2 oversEngland's total - 100, Pakistan to chase within 2.5 oversEngland's total - 150, Pakistan to chase within 3.4 oversEngland's total - 200, Pakistan to chase within 4.3 oversAdvertisement
- England's total - 300, Pakistan to chase within 6.1 oversHowever, if Pakistan had batted first, they would have had slightly better chances to pip New Zealand. Here is a scenario if Pakistan would have batted first.
+    <t>https://www.indiatvnews.com/lifestyle/news/govardhan-puja-2023-know-date-timings-and-significance-of-the-auspicious-festival-2023-11-13-902502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Last day today to raise objections against Haryana Group D 2023 provisional answer key, check easy steps     </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/jobs/news/last-day-today-to-raise-objections-against-haryana-group-d-2023-provisional-answer-key-check-easy-steps-2023-11-13-902497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      World Cup: Kuldeep Yadav shares mantra to 'get on top' of New Zealand in semifinal at Wankhede    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Cup: India's march into the World Cup semifinals has been nothing of spectacular. The Men in Blue have an unbeaten run in the tournament with a perfect nine in the group stage. Rohit's men were too hot to handle for most of the teams and the Dutch were no exception. However, the real challenge will begin now with the Indians have a crack at New Zealand in the first semifinal of the tournament and they are well aware of it. Indian spinner Kuldeep Yadav shared a mantra that can help the hosts get on top of the Kiwis in the semifinal at Wankhede on November 15. The left-arm chinaman believes that the venue is a difficult one to bowl and the Indians would need early wickets to 'get on top' of the 2019 runners-up. Advertisement
+ </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/world-cup-2023-kuldeep-yadav-shares-mantra-to-get-on-top-of-new-zealand-in-semifinal-at-wankhede-stadium-mumbai-2023-11-13-902495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Karnataka: Massive fire sweeps through four-storey building in Bengaluru | Watch video    </t>
+  </si>
+  <si>
+    <t>A massive fire erupted in a four-storey building at Banasawadi in Karnataka's Bengaluru on Monday morning. According to the information, the incident occurred in Ramamurthy Nagar and high flames were seen around the building.</t>
+  </si>
+  <si>
+    <t>karnataka-massive-erupts-in-four-storey-building-in-banasawadi-bengaluru-ramamurthy-nagar-damages-casualty-images-video-2023-11-13-902494</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/karnataka/karnataka-massive-erupts-in-four-storey-building-in-banasawadi-bengaluru-ramamurthy-nagar-damages-casualty-images-video-2023-11-13-902494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Uttar Pradesh: Woman gang-raped, assaulted in Agra hotel, was forced to consume alcohol, 5 arrested    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agra: As many as five people, including a woman, have been arrested in connection with an alleged gang rape of a woman at a hotel in Agra district of Uttar Pradesh, police said on Sunday. The victim, who is around 25 years of age, said that an objectionable video of hers was made earlier and she was blackmailed over it. The victim police that she was forced to drink alcohol and a glass bottle was broken on her head. "On Saturday night, Tajganj police received a call that in a rich homestay, a woman here had been raped and was assaulted. According to the complaint filed by the victim, a case has been filed under relevant sections," Archana Singh, Assistant Commissioner of Police, Agra Sadar, said on Sunday. Agra Police said that five people including one woman have been arrested after the incident was reported.Advertisement
+ </t>
+  </si>
+  <si>
+    <t>woman-gang-raped-assaulted-agra-hotel-forced-to-consume-alcohol-5-arrested-uttar-pradesh-police-latest-updates-2023-11-13-902491</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/uttar-pradesh/woman-gang-raped-assaulted-agra-hotel-forced-to-consume-alcohol-5-arrested-uttar-pradesh-police-latest-updates-2023-11-13-902491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      US: Republican candidate Tim Scott drops out of 2024 presidential race amid poor show in polls    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a surprise development, US Senator and the only Black Republican presidential candidate Tim Scott on late Sunday (local time) announced that he is withdrawing from the presidential race for the 2024 elections, as he struggles to gain traction days after the third primary debate.He made the announcement on "Sunday Night in America" with Trey Gowdy. The Republican Senator entered the race in May with more cash than any other Republican candidate but couldn't find a lane in a field dominated by former President Donald Trump. The 58-year-old Senator continued to struggle in the polls just days after the third Republican primary debate."I love America more today than I did on May 22. But when I go back to Iowa, it will not be as a presidential candidate. I am suspending my campaign. I think the voters who are the most remarkable people on the planet have been really clear that they're telling me, Not now, Tim," he said on the show on Sunday night.Scott further said that he wouldn't be making an endorsement of his remaining Republican rivals, adding that the voters are "really smart". He also appeared to rule out serving as vice president, saying that becoming the running mate has never been on his "to-do list for the campaign".Scott is a deeply religious former insurance broker, who made his grandfather's work in the cotton fields of the Deep South a bedrock of his political identity and of his presidential campaign.But he also refused to frame his own life story around the country's racial inequities, insisting that those who disagree with his views on the issue are trying to “weaponise race to divide us”, and that “the truth of my life disproves their lies”. He has served as a US Senator in South Carolina since 2013.Meanwhile, Florida Governor Ron DeSantis, Scott's Republican rival, said that he is a "strong conservative with bold ideas about how to get our country back on track". "I respect his courage to run this campaign and thank him for his service to America and the US Senate,” he wrote on social media.Advertisement
+ Earlier, another candidate, former US Vice President Mike Pence, also decided to put the brakes on his presidential campaign for the upcoming elections in 2024 after struggling to gain traction. "We always knew this would be an uphill battle, but I have no regrets. To the American people, I say this is not my time, but it's still your time. I urge you to hold fast to what matters most, faith, family, and the constitution of the United States of America," he said at an event.Pence reportedly lagged behind other Republican contenders in fundraising and poll numbers and is the most high-profile candidate to pull out of the presidential race. He was ex-President Donald Trump's running mate, but broke ranks after the latter's loss in the 2020 elections and the Capitol riots on January 6, 2021.
 Advertisement
-If Pakistan would have batted first:Pakistan total's - 300, restrict England to 13 runsPakistan total's - 350, restrict England to 63 runsPakistan total's - 400, restrict England to 112 runsPakistan total's - 450, restrict England to 162 runs</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/are-pakistan-knocked-out-from-world-cup-2023-at-eng-vs-pak-toss-itself-can-they-qualify-while-chasing-too-2023-11-11-902303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      OPINION | LALU, TEJASHWI MUST THINK, HOW LONG WILL THEY ALLOW NITISH TO CONTINUE AS CM    </t>
-  </si>
-  <si>
-    <t>Bihar chief minister Nitish Kumar has landed in a fresh controversy by using undignified language against his predecessor Jitan Ram Manjhi inside the assembly. Two days ago, Nitish had insulted women in Bihar assembly when he indulged in graphic description of sexual intercourse.  On Thursday, when the House was discussing the bills to raise the reservation cap to 65 per cent in jobs and education, 80-year-old Manjhi had questioned the caste survey data relating to Mahadalit communities. Manjhi belongs to the extremely backward Musahar caste in Bihar. An enraged Nitish Kumar stood up  and took exception to the Speaker allowing Manjhi to participate in the debate. Nitish said, “Isko koi sense hai?... Who made you the CM? This man has no sense, no idea. It was my stupidity that I made him the CM.”Pointing towards BJP benches, Nitish Kumar went on, “He is now with you, because he wants to become Governor. Make him the Governor. His family members also do not care for him. His community members are also upset with him. He was earlier in Congress. He is good for nothing.”  For nearly three minutes, the chief minister berated his predecessor in an undignified manner. Manjhi, while taking part in the debate, had remarked, “it seems the caste census was mere paperwork, those who really deserve reservation will not get justice from these statistics….there is a provision to review reservation quota after every ten years..the government should find out whether caste groups are really getting the benefit of reservation or not…merely raising the quota cap will not do”.Nitish Kumar then exploded in anger and started berating Manjhi. He described him as insane and senseless. It was Manjhi’s greatness that he did not respond rudely, and left the House. By then, there was uproar inside the House. BJP MLAs started protesting and alleged that the CM has insulted a Mahadalit leader. Manjhi later told reporters, “I can’t believe that this is the same Nitish Kumar, whom I knew ten years ago. I feel sad hearing him use such words. Nitish is not an ordinary man, he is the head of our state, and a chief minister has insulted a former CM using derogatory language. I think the chief minister has lost his mental balance and he needs treatment.”The manner in which Nitish Kumar lost his cool inside the assembly was shameful and undignified. He not only insulted Manjhi, but also the Speaker and the House, and brought a bad name to the chief minister’s post. Nitish Kumar was speaking as if he was a moneylender of yore berating a poor man from a lower caste for not repaying a loan. Both the ruling and opposition members were stunned by Nitish’s outburst. Even the Speaker and other ministers tried to cool him down, but Nitish Kumar continued with his tirade. When the controversy spiralled, deputy chief minister Tejashwi Yadav reacted. He said, the chief minister has not given any anti-Dalit statement. “I was present there. No Dalit leader was insulted”, he said.Tejashwi said, the state government has taken a historic step by getting the bills relating to increasing reservation limit in both jobs and education passed. Tejashwi alleged that BJP wants this achievement must not reach the common people, and that is why it is raking up an unnecessary issue. Even Tejashwi Yadav knows, the manner in which Nitish spoke was highly undignified. He is the deputy chief minister, and defending his CM is his political compulsion. But to defend what Nitish did is, in itself, a shameful thing. Nitish’s attitude goes againt the grain of our tradition, culture and democratic dignity. It violates the dignity of the chair of chief minister. Jitan Ram Manjhi is not only a Mahadalit, he is older than Nitish Kumar in age, and his political experience is more compared to that of Nitish.The chief minister should have respected Manjhi’s age. As far as Manjhi being made the CM is concerned, Nitish probably forgot that Manjhi has won more elections than Nitish. Manjhi was first elected MLA in 1980. He was then made a minister. Nitish Kumar was first elected MLA in 1985. When Nitish was a legislator, Manjhi was working as a minister. Manjhi was minister in three Congress governments. He was also a minister in the governments headed by Lalu Prasad and Rabri Devi. He was a minister in Nitish’s government. He never betrayed any of his leaders.Advertisement
- On the contrary, Nitish’s entire political career has been a history of political betrayals. He first betrayed Lalu Prasad, then George Fernandes and Sharad Yadav, became CM with BJP support, then did a ‘palti’ (somersault), again became the CM with Lalu’s support, then made another somersault and joined BJP camp, and now he has again joined Lalu’s camp. It is not for nothing that Tejashwi once took a jibe at him by naming him ‘paltu chacha’ (an uncle who does somersaults). Therefore, Nitish has no right to berate another leader and say that he is hungry for power and position.As far as installing Manjhi as CM is concerned, it was Nitish’s political game, a drama, in which Manjhi became a pawn. Nitish wanted sympathy and votes from Dalits and therefore handed over the CM’s chair to Manjhi. Once his work was over, he sidelined and himself became the CM. This has been Nitish Kumar’s political character throughout his career. Lalu Prasad is on record of having said, in local lingo, that Nitish has “even teeth inside his belly and he can betray anybody”.
-Advertisement
-Such things happen in politics, and every time Nitish got a fresh lease of life. But, in the last two days, Nitish Kumar has broken all limits of dignity. The public humiliation of Jitan Ram Manjhi inside the assembly, clearly indicates that Nitish has lost his mental balance. How can he insult a Mahadalit, a former CM, an old man and a leader senior to him? If Nitish cannot protect the dignity of his chair, Lalu Prasad Yadav, who was instrumental in making Nitish CM, must think about Nitish’s actions. Maybe Nitish may say tomorrow that he made a mistake and may seek forgiveness, but if he does that, it will only be a façade. He insulted womanhood on Tuesday, and then went around town apologizing with folded hands on Wednesday.On Thursday, he insulted a senior Dalit leader. Nitish Kumar has been chief minister of Bihar for nearly 18 years. In the last three days, he has crossed all limits of dignity. His acts have damaged his public image. Such action is neither good in the interest of Bihar, nor for Lalu Prasad’s RJD. If Nitish has lost his mental balance and he is not in his senses, handing over the reins in the hands of such a deranged man is dangerous. If Nitish Kumar is in his senses, and is using such crude language, then it is all the more dangerous. Such a person does not deserve to remain as chief minister of Bihar. Lalu Yadav and Tejashwi Yadav must think, how long can they carry Nitish’s burden and keep him in the CM’s chair. How long will they allow Nitish’s government to continue for their political interests?</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/opinion-lalu-tejashwi-must-think-how-long-will-they-allow-nitish-to-continue-as-cm-aaj-ki-baat-rajat-sharma-blog-post-2023-11-10-902192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      'If there is a hell on earth today...,' says UN as Israeli airstrikes leave 20 of 36 hospitals dysfunctional    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel-Hamas war: Thousands of Palestinians are fleeing northern Gaza as Israel's military pushed deeper into dense urban neighbourhoods in its battle with Hamas militants. Officials in the besieged enclave said the Palestinian death toll has surpassed 11,000 people. The search for safety in Gaza is growing more desperate as combat intensifies. Residents who escaped to the south and Palestinian health officials reported strikes in and around Gaza City's main hospital overnight. Israel said at least one was the result of a misfired Palestinian rocket.The World Health Organization on Friday said that 20 of Gaza's 36 hospitals are no longer functioning, including a pediatric hospital that stopped operations after a reported Israeli strike in the area. “If there is a hell on earth today, its name is northern Gaza,” the UN humanitarian agency spokesperson, Jens Laerke, told reporters in Geneva.More than two-thirds of Gaza's population of 2.3 million have fled their homes since the war began. In the south, they're crowded into shelters with dwindling supplies of food and water as the war enters its second month._x000D_
-Gaza City, the largest urban area in the territory, is the focus of Israel's campaign to crush Hamas following the militant group's deadly Oct. 7 incursion into southern Israel that set off the war.More than 1,200 people in Israel died, most of them in the Hamas attack, and about 240 hostages were taken from Israel into Gaza by Palestinian militants.Advertisement
- Meanwhile,  the World Health Organization has verified more than 250 attacks on hospitals, clinics, patients and ambulances in Gaza since Hamas' incursion into Israel on October 7 — as well as 25 attacks on health care in Israel.In Gaza, the “health system is on its knees” and the situation on the ground “is impossible to describe,” WHO Director-General Dr. Tedros Adhanom Ghebreyesus told an emergency meeting of the U.N. Security Council._x000D_
-“As we speak, there are reports of firing outside the al-Shifa and Rantisi hospitals,” he said, adding that Palestinian health workers were still saving lives despite being “directly in the firing line.”
-Advertisement
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/israel-hamas-war-israeli-massive-airstrikes-leave-20-of-gaza-36-hospitals-dysfunctional-over-11000-killed-in-36-days-who-palestine-idf-netanyahu-us-2023-11-11-902283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Gauhati University allows menstrual leaves, relaxes attendance for exams    </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/education/news/gauhati-university-allows-menstrual-leaves-relaxes-attendance-exams-females-latest-education-updates-women-overall-health-2023-11-11-902302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Chandra Mohan, veteran Telugu actor, dies at the age of 82 due to cardiac arrest; Jr NTR mourns demise    </t>
-  </si>
-  <si>
-    <t>Veteran Telugu actor Chandra Mohan passed away on Saturday, November 11. He was 82. He breathed his last at 9:45 am at Hyderabad's Apollo Hospital. He was under treatment for heart-related problems. He is survived by his wife named Jalandhara and two daughters. Soon after the sad news of his demise started circulating online, several popular South Indian celebrities took to their social media handles to pay their last tribute. Taking to X (formerly Twitter), RRR fame Jr NTR mourned the death of Chandra Mohan and wrote, ''It is very sad to see the untimely death of Chandramohan Garu, who has earned a special recognition for himself by playing different roles in films for many decades. My deepest condolences to his family and may his soul rest in peace.'' His final rites will be performed on Monday, November 13. Advertisement
- Veteran Telugu actor Mallampalli Chandra Mohan, popularly known as Chandra Mohan is the cousin of veteran filmmaker K Viswanath. His original name was Chandrasekhara Rao Mallampalli. He was born on May 23, 1943, in Andhra Pradesh's Pamidimukkula village in Krishna district.</t>
-  </si>
-  <si>
-    <t>regional-cinema</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/regional-cinema/chandra-mohan-veteran-telugu-actor-dies-at-the-age-of-82-due-to-cardiac-arrest-jr-ntr-among-others-mourns-demise-2023-11-11-902291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      World Cup: South Africa face Temba Bavuma's injury concern ahead of SA vs AUS semifinal    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Cup: South Africa are facing fresh issues over captain Temba Bavuma as the opening batter picked up a hamstring in his side's last group stage match against Afghanistan on Friday. Bavuma, who had earlier missed two games in the league stage due to illness, could be in doubt for the semifinal against Australia, which will be played in Kolkata on November 16 in all likelihood. Bavuma was seen limping in the field when the Proteas were asked to bowl first by the Afghans. He went off the field after the first nine deliveries before making a return four overs later. However, he was seen limping on the field. After the five-wicket win over the high-flying Asian side, Bavuma opened up on his injury, highlighting that he should be fine for the semifinals."Obviously, my leg is sore - don't know to what extent - but it's going to have to be fine (for the semi-final)," Bavuma said after Proteas' 7th win of the tournament. The right-handed batter stated that he had the option of coming off the ground but did not do so as he wanted to stay with the team. "Obviously I had that option of coming off, but I think as much as it was our last group-stage game, probably it didn't have a big bearing in terms of the play-off.Advertisement
- </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/south-africa-face-temba-bavumas-injury-concern-ahead-of-sa-vs-aus-world-cup-2023-semifinal-sa-vs-afg-south-africa-vs-australia-2023-11-11-902280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Jaishankar embarks on five-day visit to UK ahead of PM Rishi Sunak's visit to India     </t>
-  </si>
-  <si>
-    <t>External Affairs Minister S Jaishankar, on Saturday, embarked on a five-day visit to the United Kingdom with an aim to review various aspects of bilateral ties. It is expected that preparations for British Prime Minister Rishi Sunak's possible visit to India in the next few months will figure in his talks in London."External Affairs Minister S Jaishankar will be on an official visit to the United Kingdom from November 11-15," the Ministry of External Affairs (MEA) said. "India and the UK have a growing bilateral partnership.During his visit, the external affairs minister will be holding discussions with his counterpart, Foreign Secretary Sir James Cleverly and will meet several other dignitaries," it said in a statement. The MEA also referred to the "warm and thriving" relationship between the two sides.The India-UK Comprehensive Strategic Partnership was launched in 2021 along with the India-UK Roadmap 2030 which seeks to expand ties in a range of areas.Advertisement
- "The roadmap is a commitment to a partnership that delivers for both the countries. The external affairs minister's visit will give a new impetus to the friendly ties between the two countries," the MEA said.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/indian-foreign-minister-s-jaishankar-embarks-on-five-day-visit-to-uk-ahead-of-pm-rishi-sunak-visit-to-india-free-trade-agrrement-pm-modi-2023-11-11-902308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Bangalore Metro Rail to introduce mobile QR tickets    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore Metro update: The Bangalore Metro Rail Corporation Limited (BMRCL) today (November 11) said it will be introducing mobile QR tickets for the benefit of families and groups travelling together with effect from November 16.Presently, Mobile QR tickets are being issued through mobile applications (Namma Metro, Paytm, WhatsApp and Yatra) to a single passenger for a journey. However, based on demand, BMRCL is introducing mobile QR tickets to facilitate family and groups travelling together for a maximum of six passengers with effect from November 16 (Thursday), officials said.According to officials, mobile QR tickets carry a discount of 5 per cent on the token fare. The passenger using this facility will receive one single QR ticket encrypted with the number of passengers.Advertisement
- </t>
-  </si>
-  <si>
-    <t>bangalore-metro-rail-mobile-qr-tickets-bengaluru-karnataka-commuters-namma-metro-paytm-whatsapp-yatra-latest-updates-2023-11-11-902306</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/karnataka/bangalore-metro-rail-mobile-qr-tickets-bengaluru-karnataka-commuters-namma-metro-paytm-whatsapp-yatra-latest-updates-2023-11-11-902306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      BSE Q2 net profit jumps to Rs 118 crore, revenue at record Rs 367 crore    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Delhi: Leading stock exchange BSE has reported a four-fold jump in net profit at Rs 118.4 crore for the quarter ended in September 2023. In comparison, the exchange had posted a net profit of Rs 29.4 crore in the year-ago period, BSE said in a statement.The bourse's revenue rose 53 per cent to a record Rs 367 crore in the July-September quarter of the current financial year (FY24), from Rs 240 crore in the year-ago period. "We shall continue to invest in development of human resources, new products, technology infrastructure, etc, and thus pursue long-term growth shareholders and deliver on our mission of Vibrant BSE 2025," the exchange's MD &amp; CEO, Sundararaman Ramamurthy, said.The exchange's average daily turnover in the equity segment increased to Rs 5,922 crore in the quarter under review, from Rs 4,740 crore in three months ended September 2022.Advertisement
- </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/business/news/bse-q2-net-profit-jumps-to-rs-118-crore-revenue-at-record-rs-367-crore-2023-11-11-902307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      MS Dhoni signs fan’s BMW, talks in native accent in hometown Ranchi, video goes viral    </t>
-  </si>
-  <si>
-    <t>Viral video: Legendary cricketer MS Dhoni delighted a fan in his hometown Ranchi by giving his autograph in his BMW car, the video of which has gone viral on social media. In the video, what are significant points are Dhoni’s language tone, which sounds as native as it gets in Jharkhand, and the time that he took to decide a perfect spot in the car to sign his name. The video was shared by Instagram user Sumeet Kumar Bajaj who captioned the post as “MS Dhoni Sir Delights Abhishek Brother By Giving Autograph On BMW 740i Series”.In the video, the CSK Skipper is seen entering the car and sitting and asking the fan for the place where to sign in the car. The fan presents a number of marker pens to select from, to which Dhoni said, “Nahi pehle jagah batao” (first show me the place). The fan shows Dhoni the place and asks about the marker again, to which the former India Cricket Captain said, “Mota wala. Black hi hai na?” (the black one. It is black, isn’t it?)After the selection of the pen, Dhoni got up from the seat and said in his native tone, “Ab sabse bada problem hai humko set hona. Sign kaise kare?”The legendary Cricketer then explained to the fan how he would sign so that it fits well, due to the restraint of space.Showing humility for the uncountable time towards his fans, Dhoni signed the BMW.Before exiting the car, he congratulated his fan and quipped that before he gets late, he should leave.“Congratulations. Ab mai bhaga iske pehle late ho jaye,” Dhoni said.The post garnered over 28,000 likes on Instagram and numerous comments. It has collected over 2 lakh views so far.Advertisement
- A user commented, “Car price raised by 1000000%”Another commented, “Bro Golden Memories”.
-Advertisement
-"This just became world's most valuable car," another wrote.The post was also shared on Dhoni’s fan page on X, formerly Twitter, by a handle named “DHONIsm”.A user commented, “Kaha mil rahe hai Bhai log. Kab hogi ye mulaqat”.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/trending/news/ms-dhoni-signs-fans-bmw-car-viral-video-trending-posts-ranchi-instagram-twitter-csk-skipper-latest-updates-2023-11-11-902305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Flipkart's 'Big Diwali Sale' ends today: Check exclusive discounts on premium gaming smartphones    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flipkart Diwali Sale: As Diwali lights up the celebrations, Flipkart is offering big discounts on smartphones, smartwatches, headsets, and more during its Big Diwali Sale. Banks are offering great deals and exchange offers that make it a good time to buy a new device without spending too much money.For gamers seeking a premium experience, today marks the final day of the Flipkart Big Diwali Sale 2023. Don't miss out on the chance, take advantage of these offers to save money and get a new device for yourself. Priced at ₹58,700, the OnePlus 11 5G features a 50MP primary camera, 120Hz AMOLED QHD display, and Snapdragon 8 Gen 2 processor. It comes with a robust 5000mAh battery and 100W SUPERVOOC charging support for uninterrupted gaming sessions.Priced at ₹99,999 the Galaxy S23 Ultra 5G boasts a Pro-grade Camera system with a 200MP Wide-angle Camera. Powered by the Snapdragon 8 Gen 2, it ensures smooth gaming performance. Advertisement
- Priced at ₹1,06,999, the Google Pixel 8 Pro combines a Tensor G3 SoC, a vibrant 6.7-inch FHD+ AMOLED display, and a 50MP+48MP+48MP camera setup for high-quality photos. The robust 5050mAh battery ensures long-lasting performance.With a 48MP main camera and all-day battery life, the iPhone 14 Pro Max at ₹127,999 offers great video capabilities and extended usage. The Action mode ensures smooth handheld videos which makes it a comprehensive device for users.
-Advertisement
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/technology/news/flipkart-s-big-diwali-sale-ends-today-check-exclusive-discounts-on-premium-gaming-smartphones-2023-11-11-902304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Karnataka rains: Parts of state to receive heavy showers today     </t>
-  </si>
-  <si>
-    <t>Karnataka rains: The India Meteorological Department (IMD) has predicted heavy rains today (November 11) across Karnataka. The state capital, Bengaluru, will also receive heavy rains.The coastal districts of Dakshina Kannada, Uttara Kannada and Udupi are going to witness rains with thunder and lightning.</t>
-  </si>
-  <si>
-    <t>karnataka-rains-imd-alert-bengaluru-heavy-showers-waterlogging-massive-traffic-jam-schools-closed-latest-weather-updates-2023-11-11-902296</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/karnataka/karnataka-rains-imd-alert-bengaluru-heavy-showers-waterlogging-massive-traffic-jam-schools-closed-latest-weather-updates-2023-11-11-902296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      'No justification for bombing babies, ladies and old people in Gaza in the war against Hamas': Macron     </t>
-  </si>
-  <si>
-    <t>Amid the unprecedented attacks on Gaza by the Israeli Defence Forces, French President Emmanuel Macron, who had visited Tel Aviv last month, said there was “no justification” for bombing “these babies, these ladies, these old people” in the war against Hamas. Speaking to BBC on Friday, Macron, who condemned the terror attack on Israel, reiterated his call for a ceasefire in Gaza."So there is no reason for that and no legitimacy. So we do urge Israel to stop," Macron told the BBC, and expressed hope that other Western leaders will join his urgent call for a pause.Further, denouncing the surprise militant attack on Tel Aviv, he asserted that Israel has full right to protect its land after the massacre that killed over 1,200 people and took hostage at least 240 people. Despite this, Macron urged Israeli Prime Minister Benjamin Netanyahu with whom he had held meetings in the early days of the war and pledged his support, to refrain from attacking civilian areas of Gaza."We do share [Israel’s] pain. And we do share their willingness to get rid of terrorism,” Macron said on the sidelines of an international peace forum in Paris. The French leader said that all governments and aid agencies at a humanitarian aid conference in Paris had agreed that a “humanitarian pause” followed by a “ceasefire” was the only way to protect Gaza’s civilians, Times of Israel reported.Advertisement
- Meanwhile, responding to Macron's remarks, Netanyahu said Hamas was to blame for civilian casualties as a result of its devastating onslaught in southern Israel last month. “While Israel is doing everything to refrain from harming civilians and calling on them to leave areas of fighting, Hamas-ISIS is doing everything to prevent them from leaving for safe areas and is using them as human shields,” Netanyahu said in a statement from his office.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/israel-hamas-french-president-emmanuel-macron-says-no-justification-for-bombing-babies-ladies-old-people-in-gaza-in-war-against-hamas-ceasefire-netany-2023-11-11-902294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Delhi High Court orders no vending, hawking zones in Connaught Place    </t>
-  </si>
-  <si>
-    <t>The Delhi High Court has directed the police and New Delhi Municipal Council (NDMC) to ensure that there are no illegal hawkers or vendors in Connaught Place. In the Friday hearing, the court ordered the authorities to strictly implement its 2021 order which asserted that there has to be “zero tolerance” towards all unauthorised hawkers. The bench, comprising Justice Mini Pushkarna, cited the Nehru Market situation that arose in 2021 in which fire tenders could not access a building where a fire broke out and said that it cannot happen again.“We can't have vendors in every nook and corner,” the court said as it asked the authorities to come up with a protocol to deal with the re-entry of vendors even after their removal.“NDMC and Delhi Police shall ensure that the order of this court (of October 2021) is implemented in letter and spirit,” it ordered.The court was hearing a petition by the association of traders of shop owners in the Connaught Place area -- Rajiv Chowk and Indira Chowk.Advertisement
- The petitioner sought directions to the authorities to ensure illegal hawking and squatting/vending activities in the 'No Hawking' and 'No Vending' areas of Connaught Place and Connaught Circus stop permanently and the areas are kept free from encroachments by illegal hawkers and vendors/squatters.</t>
-  </si>
-  <si>
-    <t>delhi-high-court-orders-no-vending-hawking-zones-in-connaught-place-nehru-place-delhi-police-ndmc-latest-updates-2023-11-11-902293</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/delhi/delhi-high-court-orders-no-vending-hawking-zones-in-connaught-place-nehru-place-delhi-police-ndmc-latest-updates-2023-11-11-902293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Check Garena Free Fire Max redeem codes for Nov 11: Weapons, diamonds, and more    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garena Free Fire Max redeem codes which comprise 12 alphanumeric characters, open doors to in-game treasures such as weapons, diamonds, and skins. These daily-refreshed codes are an important part of the upgraded Garena Free Fire Max, which gained popularity after the ban of its predecessor by the Indian government.Launched in 2021, Garena Free Fire Max quickly gained popularity as a revamped and improved version of the original game. It captured the gaming community's attention, especially after the ban on the previous version in India. The developers consistently update the game which keeps it vibrant and engaging for players.Once the codes are redeemed, players can access gold and diamonds in the game vault which allows them to purchase new in-game items like the rebel academy weapon loot crate, revolt weapon loot crate, diamond vouchers, and the fire head hunting parachute. Don't miss out on these limited-time opportunities to enhance your gaming experience!Advertisement
- </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/technology/news/check-nov-11-garena-free-fire-max-redeem-codes-weapons-diamonds-and-more-2023-11-11-902292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      ENG vs PAK: How can England qualify for Champions Trophy even if they lose to Pakistan in World Cup 2023    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG vs PAK: England and Pakistan face each other in the 44th match of World Cup 2023 at the Eden Gardens Stadium in Kolkata as November 11 sees the final double-header of the tournament. The two sides are playing for different motives with England eyeing a spot in the Champions Trophy, while the Men in Green are gunning to do the improbable task of reaching the semifinals of the tournament. Pakistan have to beat the Three Lions by a massive margin of 287 runs to pip New Zealand's Net run rate and book their place in the semifinals. Whereas, England also need a win to confirm their place in the Champions Trophy in all likelihood.England are currently in 7th place in the World Cup points table with 4 points in 8 games. They face competition from Bangladesh, Sri Lanka and the Netherlands for a top-eight finish, which is the criteria for the Champions Trophy qualification (with Pakistan in the top 7). If the 2019 World Champions lose to the Men in Green they can get knocked out for a spot but that is not guaranteed. England have 4 points in 8 games and are placed seventh, while their competitors are - Sri Lanka (4 points in 9 games), Bangladesh (4 in 8 before AUS vs BAN clash) and Netherlands (4 in 8 games). Here is England's qualification scenario.Scenario #1: England not to lose bigAdvertisement
- England would be hoping to win the match to stay in healthy contention for the Champions Trophy qualification. However, if they lose, they would not want to go down by a big margin. A big loss will push their Net run rate below to what the other teams have. Bangladesh, Sri Lanka would be then gunning to push the Three Lions out of the top eight.Scenario #2: Bangladesh lose to Australia
-Advertisement
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/how-can-england-qualify-for-champions-trophy-even-if-they-lose-to-pakistan-in-eng-vs-pak-world-cup-2023-clash-england-vs-pakistan-aus-vs-ban-2023-11-11-902290</t>
+On the campaign trail, Pence had to frequently defend his decision to oppose Trump and his alleged attempts to overturn the 2020 election. Pence repeatedly said that he fulfilled his constitutional responsibilities during the joint session of Congress on January 6, 2021, amid the attack on the US Capitol, a claim that many Republican voters disagreed with.Trump long blamed Pence for refusing to back his plans to overturn the election results, causing Pence to have to publicly rebuke Trump — and by extension, many of his followers. </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/us-republican-candidate-tim-scott-drops-out-of-2024-presidential-race-amid-poor-show-in-polls-donald-trump-latest-updates-2023-11-13-902492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Delhi Fire Service receives over 200 fire-related calls on Diwali     </t>
+  </si>
+  <si>
+    <t>Diwali 2023: The Delhi Fire Service received a total of 208 calls of fire-related incidents, of which 22 of them caused were by firecrackers, on Diwali, an official said on Monday. Fortunately, there were no reported casualties in any of the fire incidents during this Diwali.Atul Garg, Director, Delhi Fire Services said that there were major fire incidents in Sadar Bazar, East of Kailash and Tilak Nagar on Sunday. "No casualty was reported in any fire incident on this Diwali. A total of 208 fire-related calls including 22 firecrackers-related calls were received yesterday," he said.According to the Delhi Fire Service official, a major fire broke out at a godown in Deputy Ganj of Sadar Bazar in Central Delhi. Twenty-two fire tenders pressed into service took two hours to control over the blaze, he added.Advertisement
+ Meawnhile, in West Delhi's Tilak Nagar, there was a fire at a market that gutted half a dozen shops. A fire incident was reported in outer Delhi's Sultanpuri as well.</t>
+  </si>
+  <si>
+    <t>delhi-fire-service-receives-over-200-fire-related-calls-sadar-bazaar-diwali-firecrackers-aqi-air-pollution-latest-updates-2023-11-13-902485</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/delhi-fire-service-receives-over-200-fire-related-calls-sadar-bazaar-diwali-firecrackers-aqi-air-pollution-latest-updates-2023-11-13-902485</t>
   </si>
 </sst>
 </file>
@@ -713,158 +713,152 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>57</v>
@@ -878,52 +872,52 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/IndiaTv.xlsx
+++ b/backend/IndiaTv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Heading</t>
   </si>
@@ -29,262 +29,263 @@
   </si>
   <si>
     <t xml:space="preserve">
-      Chhattisgarh Assembly polls: 'How much money did CM get from Mahadev betting scam', PM Modi asks Baghel    </t>
-  </si>
-  <si>
-    <t>Prime Minister Narendra Modi on Monday (November 13) addressed an election rally in Mungeli in poll-bound Chhattisgarh ahead of the second phase of voting scheduled on November 17. The Prime Minister attacked the Congress and said time has come for the Congress government to end in the state, which is "confirmed" after the first phase of elections. "The time has come when Congress' bad governance will come to an end... After the first phase of the election, it is confirmed that Congress will lose in Chhattisgarh. I thank the people of Chhattisgarh for voting in favour of BJP in phase 1 of Assembly polls," he said.He assured action against the corrupt people if the BJP government returns to power in the state."Media people tell me that Chhattisgarh chief minister is losing his assembly seat. Action will be taken against corrupt in Chhattisgarh after BJP comes to power in the state," PM Modi said.The Prime Minister said that Chhattisgarh will witness a rapid push in development if the BJP comes back to power in the state. "If BJP comes into power, Chhattisgarh will develop rapidly.  The dreams of the youth will be fulfilled. The life of the Mahtari sisters here will become easier. Control of corruption, strict action against corruption will be taken," he said.He accused the Congress of "looting" the state and said that the party will not be seen in power on Dev Deepawali. "Yesterday you celebrated Diwali. But the coming Dev Deepawali will bring new joy and enthusiasm for Chhattisgarh. The Congress which has looted Chhattisgarh will not be seen anywhere on Dev Deepawali," he said.Advertisement
- PM Modi said that the countdown of the Bhupesh Baghel government has started in Chhattisgarh and the Congress leaders who looted the state for five years will be ousted from power."Both the track record and guarantee of BJP is that it has been created by BJP and only BJP will improve it. The countdown for the exit of the Congress government in Chhattisgarh has started. The time has come for the farewell of those Congress leaders who have looted you for 5 years," he said.
-Advertisement
-The Prime Minister raked up the issue of the Mahadev app 'scam' in which it was alleged that Chief Minister Baghel received over Rs 500 crore, and asked how much money did CM get and how much of it was transferred to the party's high command.</t>
-  </si>
-  <si>
-    <t>pm-narendra-modi-chhattisgarh-assembly-election-rally-bjp-congress-raman-singh-bhupesh-baghel-latest-updates-2023-11-13-902500</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/chhattisgarh/pm-narendra-modi-chhattisgarh-assembly-election-rally-bjp-congress-raman-singh-bhupesh-baghel-latest-updates-2023-11-13-902500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Telangana: Six killed, three others injured as massive fire erupts at chemical godown in Hyderabad | VIDEO    </t>
-  </si>
-  <si>
-    <t>Hyderabad fire: In a tragic incident, at least six people were killed and three others sustained injury after a massive fire erupted at a chemical godown in Telangana. According to the police, the incident occurred at Bazar Ghat under the limits of the Nampally police station in Hyderabad.</t>
-  </si>
-  <si>
-    <t>hyderabad-telangana-massive-fire-erupts-at-godown-in-hyderabad-death-count-injury-four-storey-building-at-nampally-images-villages-latest-updates-2023-11-13-902501</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/telangana/hyderabad-telangana-massive-fire-erupts-at-godown-in-hyderabad-death-count-injury-four-storey-building-at-nampally-images-villages-latest-updates-2023-11-13-902501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Uttarakhand tunnel collapse: CM Dhami conducts on-site inspection, says 'PM assured all possible help'    </t>
-  </si>
-  <si>
-    <t>Tunnel collapse: Rescue operation has been underway on war footing for 24 hours now to bring out the people trapped inside the debris after a part of an under-construction tunnel from Silkyara to Dandalgaon located on Uttarkashi-Yamnotri road in Uttarakhand collapsed yesterday morning at around 5 am. Multiple agencies are involved in the relief and rescue operation which include the NDRF, SDRF and Prantiya Rakshak Dal. According to the officials, around 40 people are trapped inside the debris. In a significant development, communication has been established with the trapped people who are now being provided oxygen and water."40 people are trapped inside the tunnel. All are safe, we have provided oxygen and water to them," Prashant Kumar, Circle Officer of Uttarkashi said."The present situation is, that yesterday we established communication with the people trapped inside the tunnel. We have moved around 15 mtrs inside the tunnel, and around 35 mtrs are still to be covered. Everyone is safe, we have provided oxygen and water to them. We are making our way sideways to go inside the tunnel. After establishing communication, around 40 people are trapped inside," he added.An official said that communication has been established with those trapped and everyone is safe.Image Source : INDIA TVNames of workers trapped inside the debris“Work is underway at a great speed. Everyone is working very hard...We were saddened yesterday because we weren't able to communicate with those trapped. But then we were able to communicate with them,” Ranveer Singh Chauhan, Prantiya Rakshak Dal (PRD) jawan said.Chief Minister Pushkar Singh Dhami visited the spot of the incident and conducted an inspection of the ongoing rescue operation. He was briefed about the incident.Advertisement
- "The PM has assured of all possible help. NDRF, SDRF, other agencies &amp; experts are working to rescue the 40 stranded persons. We want to assure the families of those stranded that the state govt and administration are making every effort to rescue them," he said while talking to the reporters.
-Advertisement
-Another official said that mucking is being done with the help of excavator.“The work of mucking is underway. Mucking is being done with the loader &amp; excavator...Approximately 30-35 meters part of the tunnel has been broken. The incident happened around 5:30 am. We have information of around 40-45 people being trapped. Everyone is safe,” Mritunjay Kumar, Loader operator said.Earlier on Sunday, Chief Minister Pushkar Singh Dhami said that he is in touch with the officials on the spot. "I have been in contact with the officials from the time I got to know about the incident...NDRF and SDRF are at the spot. We pray to god for the safe return of everybody," he said.The tunnel, once completed, will connect Silkyara to Dandalgaon in Uttarkashi. It is being built under the Char Dham Road Project which aims to slash the journey from Uttarkashi to Yamunotri Dham by nearly 26 kilometres.</t>
+Live nowAssembly Elections 2023 LIVE: Polling underway in MP, Chhattisgarh in direct fight between BJP and Congress    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhya Pradesh, Chhattisgarh Assembly Elections 2023 LIVE Updates: The voting is underway for Madhya Pradesh's all 230 assembly seats and Chhattisgarh's 70 seats--in the second phase of the election. In both states, the main electoral fight is between the Bharatiya Janata Party (BJP) and the Congress. While in Madhya Pradesh, the incumbent is the BJP, in Chhattisgarh, it is the Congress that is seeking to retain power. In both states, the BJP has not projected anyone as a chief ministerial candidate and has banked heavily on the popularity of Prime Minister Narendra Modi during the election campaign. In Madhya Pradesh, the BJP has ruled for almost 18 of the past 20 years. In Chhattisgarh, the saffron party, which ruled the state continuously between 2003 and 2018, is seeking to replace the Congress government led by Chief Minister Bhupesh Bahgel. In the run-up to the election, political parties in both states left no stone unturned to woo voters during the campaigning. It should be noted here that security has also been heightened in both states in order to tackle any untoward incident. The counting of votes is scheduled to take place on December 3. Advertisement
+ Women have been entrusted with the responsibility of shouldering the entire voting process in all the 201 polling stations in an assembly constituency in Chhattisgarh capital Raipur. The move has been termed by officials as the first of its kind in the country. “For the first time in the country’s democratic history, women will shoulder the entire responsibility of an electoral process in an Assembly segment. There are 201 polling stations in Raipur City North seat and all are 'Sangwari booths' where everyone from the presiding officer to the polling officer are women," the district administration said in a release. Chhattisgarh BJP president and party's candidate from Lormi, Arun Sao cast his vote at a polling booth in Bilaspur. The main battle in the state is between the Congress and the BJP. Prior to the voting, the state witnessed the top leaders of both parties, including Prime Minister Narendra Modi and Chief Minister Bhupesh Bahgel, holding extensive campaigns.A differently-abled voter was seen being helped to reach the polling booth, at a polling station in Chhatisgarh's Raipur. People were also seen queuing up at the polling station to cast their votes. The second and final phase of Assembly polls involving 70 seats in the state began this morning, while results will be declared on December 3.Madhya Pradesh Congress president and party's candidate from Chhindwara, Kamal Nath cast his vote at a polling booth and siad that he has full faith in public and voters of the state. "I have faith in the entire state that they will side with the truth. I trust the public, the voters. I am not Shivraj Singh that I will say that we will win these many or that many seats. The public will decide the number of seats...," he said."BJP has Police, money and administration. They will have it for a few more hours now. Yesterday, I received several phone calls, someone sent me a video that shows that liquor and money were being distributed," Kamal Nath added.  BJP candidate from Indore-1, Kailash Vijayvargiya offered prayers at his residence as polling is underway in the state. He had made a formal comeback to electoral politics after a gap of ten years. Later, while speaking to the media, he claimed a double-engine government would be formed in the state. "I would like to tell the voters to definitely cast a vote...BJP will form the government in Madhya Pradesh, a double-engine government will be formed here. We will do development work like we did earlier. We will win more than 150 seats," he added.   After casting her vote, an elderly voter showed her inked finger at a polling booth in Gwalior. Union Minister and BJP candidate from Narshinghpur, Prahlad Patel urged the people of Madhya Pradesh to touch the goal of 100% voting. "I request them to vote together for development...We will come to power for the fifth time with absolute majority...," he told ANI.  People in Madhya Pradesh were seen queuing up outside polling stations as they await their turn to cast a vote. Visuals surfaced from polling stations in Bhopal and Narsinghpur. As many as 183 polling stations have been set up for persons with disabilities in the state. For the first time, 371 youth-managed booths have been set up, while the number of "model" polling stations stands at 2,536.Speaking to the news agency ANI, Chhattisgarh Chief Minister Bhupesh Baghel urged people of the state to vote for the betterment of the state. "Today polling will happen for the remaining 70 seats...Your one vote will decide the future of youth, farmers, women...Please move out of your homes to vote...Vote for the betterment of Chhattisgarh," he added. Prime Minister Narendra Modi urged the voters to exercise their franchise as voting is underway in Madhya Pradesh and Chhattisgarh. "Today voting will be held for all the assembly seats of Madhya Pradesh. I am confident that voters from every region of the state will vote enthusiastically and will enhance the beauty of this great festival of democracy. My special greetings to all the youth of the state who will be voting for the first time in this election," he wrote on 'X'."Today is the second and last round of voting for Chhattisgarh Assembly elections. I request all the voters to exercise their franchise. Your every vote is valuable for democracy," the Prime Minister wrote in another post. Voting is underway in 64,626 polling stations set up in the state. They include 64,523 main booths and 103 associate (sahayak) stations, where the number of voters is more than 1,500. As many as 5,60,58,521 voters, including 2,87,82,261 males, 2,71,99,586 females and 1,292 third-gender persons, are eligible to exercise their franchise. The voters also include service and overseas electors. In Madhya Pradesh, there are 2,533 candidates in the fray, including Chief Minister Shivraj Singh Chouhan and his predecessor Kamal Nath. The single-phase voting covering all the 230 assembly seats -- 47 of them reserved for Scheduled Tribes and 35 for Scheduled Castes -- has more than 5.6 crore registered electors.  The voting has begun for 230 assembly seats in Madhya Pradesh as well as 70 seats in Chhattisgarh amid high security. In Madhya Pradesh, polling is being held from 7 am to 6 pm in all the assembly segments except in Baihar, Lanjhi and Paraswada seats in Balaghat district, 55 booths in Mandla district's Bichhiya and Mandla seats and 40 polling stations of Dindori district, all Naxalite affected, where voting time is 7 am to 3 pm.Total Seats: 90 (Majority: 46)Vote Share:Total Seats: 90 (Majority: 46)Seat Share:Madhya Pradesh Medical Education Minister Vishwas Sarang has urged voters to vote for the BJP. "I request all the voters to vote for BJP for the development of the state," he stated. Ahead of polls, Madhya Pradesh CM Shivraj Singh Chouhan's younger brother Narendra Chouhan exuded confidence in BJP's victory in the state.  "All preparations have been done. We all are ready to cast our votes...BJP will form the government with a big majority," he told news agency ANI. </t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/news/india/uttarakhand-tunnel-collapse-uttarkashi-rescue-operation-war-footing-ndrf-sdrf-workers-trapped-rescued-injured-casualties-cm-pushkar-singh-dhami-update-2023-11-13-902480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Delhi: Dense smog engulfs national capital post Diwali celebrations, AQI in 'Poor' category     </t>
-  </si>
-  <si>
-    <t>Delhi air pollution: A dense layer of smog engulfed Delhi on Monday morning after people burst crackers on Diwali night, leading to heavy pollution across the national capital. This comes as the city is already battling with its deteriorating air quality. Visuals from several parts of Delhi depicted dense fog engulfing the streets, severely limiting sight and making it difficult to see beyond a few hundred meters. It should be noted here that pollution has been a problem for the national capital for the past few weeks. After Diwali, it is now quite likely that the city will once again see an increase in pollution levels, making it difficult for the residents of the city to breathe. The Air quality across Delhi continues to be in the 'Poor' category as per the Central Pollution Control Board (CPCB). The Air Quality Index (AQI) in several regions across the city was alarming. Meanwhile, the air quality in Noida was also recorded in the 'Poor' category as AQI stands at 290. Advertisement
- Previous data related to pollution shows that since the last week of October, the national capital's air quality has been at its worst. The concentration of PM 2.5 in the city has been recorded at 20 times the limit prescribed by the World Health Organisation, prompting the city government to order the closure of all primary classes and restrict the entry of trucks.</t>
-  </si>
-  <si>
-    <t>delhi-dense-smog-engulfs-national-capital-post-diwali-celebration-air-quality-index-visuals-firecrackers-latest-updates-2023-11-13-902470</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/delhi/delhi-dense-smog-engulfs-national-capital-post-diwali-celebration-air-quality-index-visuals-firecrackers-latest-updates-2023-11-13-902470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Rumoured couple Rashmika Mandanna, Vijay Deverakonda celebrate their Diwali together? Fans curious    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rashmika Mandanna and Vijay Deverakonda are the talk of the town of late. Just like Ananya Panday and Aditya Roy Kapur, the duo has been spotted together on multiple occasions, however, never admitted to dating each other. Seemingly, the Telugu stars celebrated their Diwali together but did not share any pictures together. But, fans turned sleuth and shared some mind-boggling proof on social media. For Diwali, the Animal actor draped a stunning saree and extended Diwali wishes to her fans through a post. She captioned it, "Happy Diwali my loves." Take a look at Rashmika Mandanna's post here:
-On the other hand,  Vijay Deverakonda shared a series of photos from his Diwali celebrations with the same caption. The actor sported a yellow kurta-pyjama as he enjoyed the festival with his family. But, he did not drop any photos with his rumoured girlfriend. Check out Vijay Deverakonda's post here: 
-Advertisement
- Though the stars did not reveal that they celebrated Diwali together, fans flooded the comment section with assumptions and proof. One fan wrote, "in vijay deverakonda home same wall vijay also posted." Yet another fan commented, "Upar Rashmika ka post niche apka dono ka caption same."Here's how fans reacted:
-Advertisement
-Earlier, it was reported that Rashmika Mandanna and Vijay Deverakonda took an exotic vacation to the Maldives. The duo dropped pictures from the tropical island on social media, however, months apart. </t>
-  </si>
-  <si>
-    <t>celebrities</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/celebrities/rashmika-madanna-vijay-deverakonda-diwali-photos-2023-11-13-902496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      IND vs NED: Chinnaswamy Groundsmen show-off placards to reveal India's best fielder vs Netherlands | WATCH    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND vs NED: India's best fielder medal continues to catch headlines. The award which has been an out-of-the-box thing, not only highlights players' contributions on the field but is also one of the most awaited things after an India game. There have been several creative ways that India's fielding coach T Dilip has implemented to reveal the winners. In the latest medal ceremony after the clash against the Netherlands, the Chinnaswamy groundsmen revealed India's best fielder for the clash.T Dilip implemented another new way of naming the medal winner. Unlike in the previous times when contenders for the medal are announced inside the dressing room and then the players go out to know the winner, this time the contenders and winners - all were named on the ground. Dilip used the umpire's walkie-talkie to announce the contenders before the groundsmen revealed the medal winner.Advertisement
- </t>
-  </si>
-  <si>
-    <t>cricket</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/chinnaswamy-groundsmen-show-off-placard-to-reveal-indias-best-fielder-suryakumar-yadav-in-ind-vs-ned-world-cup-clash-2023-11-13-902504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Israel-Hamas war, Day 38: 21, including civilians, wounded after Hezbollah attacks Israeli troops    </t>
-  </si>
-  <si>
-    <t>At least 21 people, including 14 civilians, were wounded in an anti-tank missile attack by the Lebanon-based Hezbollah group targeting Israeli troops near the Lebanon-Israel border on Sunday, according to officials. Seven Israel Defence Forces (IDF) soldiers were wounded by a mortar near the Menara community, according to the Times of Israel.The clashes came as skirmishes between the Iran-backed group and the Israeli military continued to intensify along the Lebanon-Israel border, threatening to escalate into another front in the Middle East's ongoing war. A civilian was seriously wounded in the missile attack.Additionally, the missile struck a number of vehicles near the northern community of Dovev which remains close to the border. Some of the people injured in the attack were employees of the Israel Electric Corporation who had arrived to repair power lines damaged by previous attacks from Lebanon.The wounded were transported by the Israel Defense Forces from the scene of the attack to a safer area where they could be treated by paramedics and taken to hospitals. The IDF said some 15 rockets were fired from Lebanon at northern Israel, with four projectiles being intercepted by the Iron Dome air defense system. The rest landed in open areas, causing no injuries or damage.Meanwhile, the IDF said it struck the Hezbollah cell behind the attack against the civilians and hit several Hezbollah sites in southern Lebanon, including a weapons depot. Two more cells that launched mortars from Lebanon at areas near the communities of Menara and Yir’on were also struck, according to the military. Israel also struck several southern Lebanese towns, including Yaroun, Mays el-Jabal, and Alma al-Shaab.The Israeli army's chief spokesman, Rear Admiral Daniel Hagari, said the Hezbollah attack on Israeli civilians was “very serious". He said Israel is focused on its war in Gaza but it also remains at a “very high level of preparedness in the north” and ready to take further action.The Israeli military said in a statement that "seven IDF soldiers were lightly injured as a result of the mortar shell launches in the area of Manara in northern Israel earlier today". Israeli rescue services did not identify the location or provide information about the 10 others wounded by rocket blasts and shrapnel but said two of them were in critical condition.The Lebanon-based militant group also announced attacks on Israeli military gatherings and barracks in border areas Birket Riche and Zareit. Israeli troops and Hezbollah militants and their allies have been clashing along the border since the Israel-Hamas war started five weeks ago with a bloody incursion into southern Israel by Hezbollah ally Hamas. While largely contained, clashes have increased in intensity as Israel conducts a ground offensive in Gaza against Hamas.Advertisement
- The Hamas terror group had claimed that its Lebanon branch launched a barrage of rockets at Haifa, Nahariya, and nearby towns on the Lebanon border. This comes as more than 80 people have been killed on the Lebanese side. The toll includes at least 71 Hezbollah members, eight Palestinian terrorists, a number of civilians, and a journalist.At least 1,400 people have been killed on the Israeli side, mostly civilians killed in the initial Hamas attack on October 7. At least 46 Israeli soldiers have been killed in Gaza since the ground offensive began. 
-Advertisement
-Retaliatory attacks by Israel have killed more than 11,000 Palestinians, two-thirds of them women and minors, according to the Health Ministry in Gaza, while roughly 2,700 people are reportedly missing.Many countries have called for a ceasefire in the wake of the growing humanitarian crisis. Health officials and people trapped inside Gaza’s largest hospital rejected Israel’s claims that it was helping babies and others evacuate on Sunday, saying that fighting continued just outside the facility where incubators lay idle with no electricity and critical supplies were running out.However, Israeli Prime Minister Benjamin Netanyahu has dismissed urgent calls for a cease-fire unless it includes the release of all the nearly 240 hostages captured by Hamas in the Oct. 7 rampage that triggered the war. Israel appears to be set on finishing Hamas' rule in Gaza with "full force".</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/israel-hamas-war-day-38-soldiers-and-civilians-wounded-after-hezbollah-attacks-israeli-troops-lebanon-border-skirmishes-latest-updates-2023-11-13-902498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      I-T dept raids residences linked to Minister Sabitha Indra Reddy's relatives in poll-bound Telangana    </t>
-  </si>
-  <si>
-    <t>IT raids: Ahead of the assembly elections, the Income Tax officials on Monday conducted searches on the residence of Telangana Minister Sabitha Indra Reddy's relatives in Hyderabad. The Income Tax sleuths searched the residence of Pradeep, who lives in an apartment in Gachibowli. Pradeep is a close relative of the minsiter. The IT also searched the residences of other relatives of Reddy.</t>
-  </si>
-  <si>
-    <t>hyderabad-it-dept-raids-residences-linked-to-minister-sabitha-indra-reddy-s-relativestelangana-assembly-elections-brs-kcr-latest-updates-2023-11-13-902490</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/telangana/hyderabad-it-dept-raids-residences-linked-to-minister-sabitha-indra-reddy-s-relativestelangana-assembly-elections-brs-kcr-latest-updates-2023-11-13-902490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Delhi: Gopal Rai calls review meeting, accuses BJP of 'inciting' people to burst crackers    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delhi Environment Minister Gopal Rai on Monday (November 13) called a meeting with the officers of the Department at the Secretariat to review the pollution, a day after the Diwali celebrations in the city. Delhi woke up to hazy sky, once again, after a brief pause affected due to rain, as the city recorded ‘Very Poor’ air quality, a deterioration from the ‘Poor’ AQI on Sunday.Firecrackers were seen being burst in several parts of the city despite a ban by the Supreme Court. The residents flaunted the top court’s order and burst crackers till late night.Gopal Rai claimed that firecrackers in the city were burst in a "targeted manner" which was because the BJP leaders "incited" the people to do so.Advertisement
- </t>
-  </si>
-  <si>
-    <t>delhi-air-pollution-environment-minister-gopal-rai-review-meeting-aqi-diwali-celebrations-crackers-ban-supreme-court-order-aap-bjp-latest-updates-2023-11-13-902493</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/delhi/delhi-air-pollution-environment-minister-gopal-rai-review-meeting-aqi-diwali-celebrations-crackers-ban-supreme-court-order-aap-bjp-latest-updates-2023-11-13-902493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      World Cup: India break England's 2019 world record during historic outing with bat in Netherlands clash    </t>
-  </si>
-  <si>
-    <t>Rohit Sharma's India were in their element during the final league stage game of World Cup 2023 against the Netherlands. With the Diwali festival being celebrated across the nation, the Men in Blue produced fireworks at the M. Chinnaswamy Stadium in Bengaluru in another brilliant outing for the hosts. India mauled the Dutch and broke numerous records down in their 160-run win.The batters created a few historical records but one such powered them to bigger heights that even the most successful year of an England side went behind the Indians. The hosts of World Cup 2023 scored 410 on a batting-friendly Bengaluru surface and created the record for the most 350+ totals scored by any team in the history of ODI cricket. The record earlier belonged to England. This was India's 8th score of 350+ in ODIs in 2023, which saw them leapfrog the iconic 2019 year for England, who scored 7 such totals four years before. Most 350+ totals in a calendar year:India - 8 in 2023Advertisement
- England - 7 in 2019South Africa - 6 in 2023
-Advertisement
-South Africa - 5 in 2015</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/india-break-englands-2019-world-record-during-historic-outing-with-bat-in-ind-vs-ned-world-cup-2023-clash-at-m-chinnaswamy-stadium-bengaluru-2023-11-13-902468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Beware of online date scams: Delhi journalist loses Rs 15,000. His full story here     </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/technology/news/beware-of-online-date-scams-delhi-journalist-loses-rs-15-000-his-full-story-here-2023-11-13-902505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      East Central Railway Recruitment 2023-24: Apply online for 1832 Apprentice Posts at rrecr.gov.in, details here    </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/jobs/news/east-central-railway-recruitment-2023-24-apply-online-for-1832-apprentice-posts-at-rrecr-gov-in-check-details-2023-11-13-902503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Telangana election: Congress' G Vivekananda richest candidate with over Rs 600 crore assets | DETAILS    </t>
-  </si>
-  <si>
-    <t>Telangana Assembly Elections: Chennur Congress candidate G Vivekananda is the richest politician contesting in the November 30 assembly elections in Telangana,  with declared assets worth over Rs 600 crore. It is pertinent to mention that earlier this month, the Chennur candidate, who is also known as Vivek Venkataswamy, had joined the Congress after quitting the BJP.Vivekananda and his wife possess movable assets valued at Rs 377 crore, predominantly in the form of shares in various companies, including Visaka Industries, a company founded by him in 1981. The family’s immovable assets stood at over Rs 225 crore.As per the affidavit submitted by him, Vivek and his wife have liabilities or loans amounting to Rs 41.5 crore. In the last fiscal year, Vivek's annual income increased to Rs 6.26 crore from Rs 4.66 crore in FY19, while his wife's income rose to Rs 9.61 crore from Rs 6.09 crore during the same period.Congress leader P Srinivas Reddy, who is second on the list after Vivekananda, has assets worth over Rs 460 crore. Srinivas Reddy, contesting from the Palair assembly constituency, declared total assets, including both movable and immovable, amounting to Rs 460 crore, along with liabilities of Rs 44 crore.Notably, on the day of filing nomination papers, November 9, the Income Tax Department conducted searches at Srinivas Reddy’s residences and offices in Hyderabad and in Khammam. Reddy called the searches 'politically motivated.'Congress candidate Raj Gopal Reddy's income for the year 2022-23 surged significantly to Rs 71.17 crore from Rs 36.6 lakh in FY19, according to his affidavit. The total assets of his family are reported to be Rs 459 crore.Advertisement
- The Congress candidate from Munugode holds 1.24 crore shares in his company Sushee Infra and Mining Ltd whose book value was Rs 239 crore. Reddy’s family has immovable assets worth Rs 157 crore with liabilities at Rs 4.14 crore, the affidavit said.Bharat Rashtra Samithi (BRS) candidate Pailla Shekar Reddy declared Rs 227 crore worth of assets belonging to his family with over Rs 83 crore liabilities.
-Advertisement
-Telangana Chief Minister K Chandrasekhar Rao has declared family assets worth nearly Rs 59 crore and liabilities of Rs 25 crore in the election affidavit submitted on November 9 while filing his nomination for the Assembly elections. According to the affidavit, KCR does not own a car. There are nine cases registered against him, all booked during the Telangana statehood agitation, out of which he was not convicted of any criminal offence.</t>
-  </si>
-  <si>
-    <t>hyderabad-telangana-assembly-elections-congress-g-vivekananda-richest-candidates-rs-600-crore-assets-kcr-net-worth-p-srinivas-reddy-latest-updates-2023-11-13-902499</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/telangana/hyderabad-telangana-assembly-elections-congress-g-vivekananda-richest-candidates-rs-600-crore-assets-kcr-net-worth-p-srinivas-reddy-latest-updates-2023-11-13-902499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Govardhan Puja 2023: Know date, timings and significance of the auspicious festival    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the five-day-long festival of Diwali, Govardhan Puja falls on the fourth day of Diwali, also known as Annakut or Annakoot. It is a significant Hindu festival that is celebrated with great devotion and enthusiasm across India. The festival of Govardhan Puja is dedicated to Lord Krishna and is celebrated to commemorate the lifting of the Govardhan Hill by Lord Krishna to protect the people of Gokul from the wrath of Lord Indra. This incident holds great significance in Hindu mythology and is believed to teach us a valuable lesson about the power of faith and devotion.According to ancient scriptures, Lord Indra, the god of rain, was worshipped by the people of Gokul for bountiful rains and good harvests. However, Lord Krishna, being the avatar of Lord Vishnu, convinced the people to worship Govardhan Hill instead, stating that it was the provider of all their resources and sustenance.Enraged by this, Lord Indra caused heavy rainfall and thunderstorms in Gokul to teach them a lesson. To protect the people from the wrath of Lord Indra, Lord Krishna lifted the Govardhan Hill on his little finger and protected them for seven days and seven nights until Lord Indra realised his mistake and asked for forgiveness.Advertisement
- Govardhan Puja is celebrated on the fourth day of Diwali, which falls on the first lunar day of the Shukla Paksha (bright fortnight) in the month of Kartik according to the Hindu calendar. This year, it will be celebrated on November 13.The timings for performing Govardhan Puja will be from 2:56 PM on November 13th to 2:36 PM on November 14th.
+    <t>https://www.indiatvnews.com/elections/news/madhya-pradesh-chhattisgarh-assembly-elections-2023-live-voting-updates-bjp-congress-shivraj-singh-chouhan-kaman-nath-bhupesh-baghel-security-visuals-2023-11-17-903067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      World Cup final 2023: Hotel prices rise up to Rs 1 lakh in Ahmedabad ahead of India-Australia match     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Cup final 2023: The ICC ODI World Cup final 2023 countdown has reached a fever pitch, especially for cricket enthusiasts eager to witness India's showdown against Australia in the grand finale at the Narendra Modi Stadium in Ahmedabad on November 19 (Sunday).However, fans face unexpected hurdles in their efforts to be part of this historic moment. Basic accommodations now come with a hefty price tag of Rs 10,000 per night, while luxury hotels are charging close to Rs 1 lakh for a night's stay in the city.Flight prices have also soared, showing a 200-300 per cent increase for round-trip tickets to Ahmedabad. Flights from Delhi on the eve of the final now cost Rs 15,000.Securing accommodation and tickets has become a herculean challenge. Following the announcement of World Cup schedule, fans were met with a surge in flight costs and exorbitant hotel tariff. The situation worsened as India secured their spot in the final, with hotel prices in Ahmedabad skyrocketing.Advertisement
+ This is not the first time cricket has caused such a stir in the city. A similar scenario had unfolded for the India-Pakistan match on October 15, when hotel tariff touched new heights.Online platforms like Booking.com, MakeMyTrip, and Agoda have witnessed a significant spike in searches for stays in Ahmedabad, mirroring the demand seen during the India-Pakistan clash.
 Advertisement
 </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/lifestyle/news/govardhan-puja-2023-know-date-timings-and-significance-of-the-auspicious-festival-2023-11-13-902502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Last day today to raise objections against Haryana Group D 2023 provisional answer key, check easy steps     </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/jobs/news/last-day-today-to-raise-objections-against-haryana-group-d-2023-provisional-answer-key-check-easy-steps-2023-11-13-902497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      World Cup: Kuldeep Yadav shares mantra to 'get on top' of New Zealand in semifinal at Wankhede    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Cup: India's march into the World Cup semifinals has been nothing of spectacular. The Men in Blue have an unbeaten run in the tournament with a perfect nine in the group stage. Rohit's men were too hot to handle for most of the teams and the Dutch were no exception. However, the real challenge will begin now with the Indians have a crack at New Zealand in the first semifinal of the tournament and they are well aware of it. Indian spinner Kuldeep Yadav shared a mantra that can help the hosts get on top of the Kiwis in the semifinal at Wankhede on November 15. The left-arm chinaman believes that the venue is a difficult one to bowl and the Indians would need early wickets to 'get on top' of the 2019 runners-up. Advertisement
+    <t>https://www.indiatvnews.com/business/news/world-cup-final-2023-india-australia-match-hotel-prices-rise-rs-1-lakh-ahmedabad-narendra-modi-stadium-icc-tournament-bcci-cricket-game-latest-updates-2023-11-17-903073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Delhi air quality remains in severe category as AQI touches 491 in Dwarka, govt sets up STF to implement GRAP    </t>
+  </si>
+  <si>
+    <t>Delhi air pollution: The residents of Delhi-NCR again woke up inhaling toxic air as the pollution level in the national capital was in the 'severe' category with the Air Quality Index (AQI) crossing the 400 mark in several parts of the city on Friday morning. There has been no respite from the hazardous smog clouds and toxic air despite several measures by the government. The people of Delhi face a dual challenge with the onset of increasing cold on one hand and a surge in air pollution on the other. After a brief respite from the decline in the Air Quality Index (AQI) in the Delhi-NCR region, the AQI has recently started to rise again post-Diwali.Barring a few days around Diwali, Delhi's air quality has fluctuated between the 'very poor' and 'severe' categories due to unfavourable meteorological conditions hindering the dispersion of pollutants. The persistently high levels of air pollution pose health risks and underscore the challenges in addressing the issue.According to the Central Pollution Control Board (CPCB), areas like Anand Vihar, RK Puram, IGI Airport, and Dwarka have recorded AQI figures crossing the 400-mark.  Anand Vihar has an AQI of 448, RK Puram 461, IGI Airport area 465, and Dwarka 491. Additionally, Noida and Greater Noida also fall into the 'severe' category of air quality.In some respite for the residents of Noida and Greater Noida in Uttar Pradesh, the air quality stayed in the 'very poor' category. According to the CPCB data, AQI in Noida Sector 125 was recorded at 352, while AQI was recorded at 314 in Knowledge Park - III in Greater Noida. In Gurugram's Sector 51, the AQI stands at 444. Notably on Thursday, the capital's air quality index (AQI) stood at 412 at 3 pm. Its 24-hour average AQI, recorded at 4 pm every day, stood at 419 on Thursday. It was 401 on Wednesday, 397 on Tuesday, 358 on Monday, 218 on Sunday, 220 on Saturday, 279 on Friday and 437 on Thursday.Advertisement
+ Environment Minister Gopal Rai on Thursday said that the Delhi government set up a six-member special task force to ensure strict implementation of the Centre's air pollution control plan GRAP in the national capital.Delhi's special secretary (environment) will head the STF whose members include senior officials from the departments of transport, traffic, revenue, Municipal Corporation of Delhi (MCD) and Public Works Department (PWD).
+Advertisement
+The STF will coordinate with all the departments involved in the enforcement of pollution control measures and submit a report to the government daily, Rai told reporters.Strict restrictions, including a ban on construction work and the entry of polluting trucks into the capital, under the final stage (Stage IV) of the Centre's air pollution control plan called the Graded Response Action Plan (GRAP) had kicked in on November 5 after air quality in the capital dropped to "severe plus" (AQI above 450) levels.</t>
+  </si>
+  <si>
+    <t>delhi-air-quality-pollution-severe-category-as-aqi-touches-491-dwarka-aap-govt-sets-up-stf-to-implement-grap-arvind-kejriwal-smog-latest-updates-2023-11-17-903074</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/delhi-air-quality-pollution-severe-category-as-aqi-touches-491-dwarka-aap-govt-sets-up-stf-to-implement-grap-arvind-kejriwal-smog-latest-updates-2023-11-17-903074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      FIFA World Cup 2026 qualifiers: India beat Kuwait in second round opener after Manvir's second-half goal    </t>
+  </si>
+  <si>
+    <t>Team India kicked off their second-round campaign in the FIFA World Cup 2026 AFC Qualifiers with a 1-0 win against Kuwait, their first against the Middle East nation this year, following Manvir Singh's sole goal in the second half at the Jaber Al-Ahmad International Stadium in Kuwait City on Thursday, November 16. Kuwait didn't let the Blue Tigers off the hook easily, especially in the first half, keeping the possession for the longest time, but some positive glimpses were from the Indian team which eventually led to a 75th-minute winner from Manvir, who converted a half-volley from Lallianzuala Chhangte’s cross.Kuwait kept the possession but relentless pressure from the Indians, especially defender Sandesh Jhinghan showed in the body language of the home team. A couple of chances were missed in the first half by the Indian team, first in the 18th minute by Sahal Abdul Samad, who was closed out in the box before Akash Mishra failed to convert a shooting opportunity in the 27th minute through a freekick assist.Advertisement
+ Kuwait too missed a scoring opportunity at the end of the first half and began the second in a great manner before India took control. Kuwait kept on putting pressure on the Indian team but lacked the killer blow, which eventually came from the Men dressed in Orange in the 75th minute. There was another attempt in the 71st minute from the Blues, but it wasn't to be as it went off-target.</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/football/fifa-world-cup-2026-qualifiers-india-beat-kuwait-in-second-round-opener-after-manvir-s-second-half-goal-2023-11-17-903072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Chhath Puja 2023 Day 1: Nahay Khay rituals, puja vidhi and more    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhath Puja is a highly popular festival in Bihar and the eastern Uttar Pradesh region of India. During the festival, devotees keep fasting and offer prayers to the Sun God. Each ritual, from Nahay Khay to Usha Arghya, signifies deep gratitude for bestowed blessings and prosperity. This festival's importance lies in devotion and thankfulness, as devotees express appreciation for the Sun's role in their lives.It's a beautiful amalgamation of tradition, spirituality, and joy, cherished by millions for its significance and the sense of togetherness it fosters.Chhath festival starts with Nahay Khay, which falls this year on November 17. On this day, the devotees take a ritualistic bath in a holy river or any other nearby water body before sunrise. After the holy bath, devotees prepare special foods, which include puris, kheer, and fruits. Shubh muhurat: As per the Drik Panchang, the sunrise will occur at 6:45 am on November 17 and the sun will set at 5:47 pm. Advertisement
+ Ritual: After bathing in the holy river, devotees cook a meal using its water, ensuring absolute purity. The person fasting consumes this meal first, followed by family members.Fasting rules: The fasting rules require devotees to wake up early and make chana dal and pumpkin rice to offer to the Sun God. On this day, devotees are instructed not to eat non-veg and food with onion and garlic and to eat only once a day. Foods like rice and fruits are much preferred. 
+Advertisement
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/lifestyle/news/chhath-puja-2023-day-1-nahay-khay-rituals-puja-vidhi-and-more-2023-11-16-903051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      OPINION | STOP BLAME GAME ON DELHI AIR POLLUTION    </t>
+  </si>
+  <si>
+    <t>On Diwali night, the Supreme Court’s ban on firecrackers in Delhi went up in smoke, as the entire National Capital Region was enveloped in a lethal haze of smoke by next morning. Particulate matter 2.5 levels rose sharply, breached all limits. The most polluted spots were Anand Vihar with 1,985, followed by Patparganj with 1,856, Jahangirpuri 1,792, Nehru Nagar with 1,784 and Nehru Stadium with 1,423 micrograms per cubic meter particulate matter in air. Overall, Delhi’s AQI jumped up from 218 in ‘poor’ category’ top 403 in ‘severe’ category. Scientists attributed the rise in AQI to emissions from firecrackers, stubble burning in neighboring states and adverse meteorological conditions, resulting in accumulation of pollutants on Monday morning. The Central Pollution Control Board put the AQI in Anand Vihar at 296, in Punjabi Bagh at 290 and at ITO at 263, while it was 362 on Pusa Road and 290 in R K Puram. Delhi Pollution Control Committee said, air pollution level rose by 45 per cent this year compared to last year’s Diwali. Centre for Science and Environment scientists said, by 2 am, AQI entered the 900-1,000 range in some localities. There was mudslinging between AAP and BJP leaders in Delhi, with Delhi Environment Minister Gopal Rai alleging that firecrackers were burst in “a targeted manner in some places at the behest of local BJP leaders”. He alleged that despite ban, firecrackers were smuggled in from Haryana and UP to Delhi. BJP leader Kapil Mishra described Rai’s allegation as “shameful”. Mishra said, it is foolish to hold firecrackers responsible for air pollution. The interesting point to note is that Punjab government has claimed that air quality improved after Diwali this year. The state government claimed that there was 8 per cent improvement in AQI across the state compared to last year. The ground reality is that Punjab’s air quality deteriorated by 30 per cent compared to pre-Diwali figures.On November 11, AQI in several cities of Punjab was around 100, but after Diwali, AQI was 169 in Patiala, 166 in Ludhiana, 161 in Amritsar and 167 in Sangrur. Clearly, Chief Minister Bhagwant Mann’s government can pat its own back by comparing Diwali figures with those of last two years. AAP leaders are yet to say who is responsible for air pollution in Punjab. It is surprising that the issue of air pollution has become a political issue among parties. Nearly two crore people living in National Capital Region are being forced to inhale lethal air, but the Delhi environment minister, instead of exploring solutions, is blaming BJP leaders for inciting people to burst crackers on Diwali night. At the other end of the spectrum, there are people trying to explain that the ban on firecrackers did not work, neither in Delhi, nor in Mumbai.Advertisement
+ It was also said that those supporting ban on Diwali firecrackers are anti-Hindu. The reality is, nobody knows the exact and the main reason behind air pollution in Delhi: Whether it is burning of paddy stubble in Punjab? or bursting of firecrackers in Delhi on Diwali night? Nor do people have a definite solution for tackling air pollution. The single night shower accompanied by winds in Delhi last weekend cleared the continuous haze within minutes, but when rainfall and blowing of winds stopped, air pollution was back. It would be better if all stakeholders and political leaders sit together, rack their brains and find a durable solution to air pollution, so that they can be saved from levelling charges and counter-charges next year.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/stop-blame-game-on-delhi-air-pollution-opinion-aaj-ki-baat-rajat-sharma-blog-post-2023-11-14-902698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Madhya Pradesh Assembly Election 2023: Complete constituency-wise candidate list of BJP and Congress     </t>
+  </si>
+  <si>
+    <t>MP Assembly Election 2023: Madhya Pradesh is voting in a single phase on November 17 to elect its 16th Legislative Assembly along with the second and final phase of polling in Chhattisgarh. There are 230 Assembly seats in Madhya Pradesh and 47 seats are reserved for Scheduled Tribes (STs) and 35 seats are reserved for Scheduled Castes (SCs) in the state. The term of the present Madhya Pradesh Assembly is from January 7, 2019 to January 6, 2024. Rajasthan and Telangana to vote on November 25 and November 30 respectively. The results for all five Assemblies will be declared on December 3.  There are 5,60,60,925 general voters in Madhya Pradesh and 75,304 are service voters. So, the total number of electors as per electoral rolls is 5,61,36,229. According to the Election Commission of India, the total number of enrolments of young electors who attained the age of 18 years between January 1, 2023 and October 1, 2023, is 11,29,513. Around 6,53,640 voters are senior citizens (80+) while there are 1,373 third gender voters in Madhya Pradesh. There are 64,523 polling stations in the state for the upcoming Madhya Pradesh Assembly Election 2023.</t>
+  </si>
+  <si>
+    <t>madhya-pradesh-mp-assembly-elections-2023-constituency-wise-full-candidates-list-name-wise-of-bjp-congress-2023-11-07-901495</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/madhya-pradesh/madhya-pradesh-mp-assembly-elections-2023-constituency-wise-full-candidates-list-name-wise-of-bjp-congress-2023-11-07-901495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Telangana Assembly elections: Congress chief Mallikarjun Kharge to launch party's poll manifesto today    </t>
+  </si>
+  <si>
+    <t>Telangana Assembly Elections: Congress president Mallikarjun Kharge will release the party’s manifesto for the upcoming Telangana Assembly elections at Gandhi Bhavan today (November 17). The manifesto is anticipated to feature numerous schemes, in addition to the six guarantees previously declared by the party.Congress in-charge for Telangana Manikrao Thakre, TPCC president A. Revanth Reddy, CLP leader Bhatti Vikramarka and Manifesto Committee Chairman D Sridhar Babu will be present. Kharge will launch the party’s manifesto before participating in a rally in Malkajgiri.Advertisement
+ Telangana Legislative Assembly, 119 members, will go to polls on November 30 and the counting of votes will take place on December 3. Telangana is set to witness an intriguing triangular contest between the BRS, Congress, and BJP.</t>
+  </si>
+  <si>
+    <t>hyderabad-telangana-assembly-elections-congress-manifesto-poll-promises-guarantees-mallikarjun-kharge-rahul-gandhi-manikrao-thakre-revanth-reddy-latest-updates-2023-11-17-903071</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/telangana/hyderabad-telangana-assembly-elections-congress-manifesto-poll-promises-guarantees-mallikarjun-kharge-rahul-gandhi-manikrao-thakre-revanth-reddy-latest-updates-2023-11-17-903071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Tamil Nadu: Five dead after truck collides with car in Tirupur district     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil Nadu road accident: Five people were declared dead after a tanker truck and a car collided near Manakadau near Dharapuram in Tirupur district on Thursday (November 16), said police. Four people died on the spot.The tanker truck was transporting petrol from Irugur in Coimbatore district near Manakadau on the Dhrapuram-Palani road while the car was moving from Periyanayakan Palayam in Coimbatore district to Palani in Dindigul district for a wedding ceremony.The deceased were identified as Tamilmani (51), Chitra (49), Selvarani (70), Balakrishnan (78), and Kalarani (50), said the police. Kalarani died while undergoing treatment at the Dharapuram Government Hospital.Tamil Nadu Chief Minister MK Stalin on Thursday announced an ex gratia of Rs 2 lakh each for the family of the deceased in the Dharapuram accident. Advertisement
  </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/sports/cricket/world-cup-2023-kuldeep-yadav-shares-mantra-to-get-on-top-of-new-zealand-in-semifinal-at-wankhede-stadium-mumbai-2023-11-13-902495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Karnataka: Massive fire sweeps through four-storey building in Bengaluru | Watch video    </t>
-  </si>
-  <si>
-    <t>A massive fire erupted in a four-storey building at Banasawadi in Karnataka's Bengaluru on Monday morning. According to the information, the incident occurred in Ramamurthy Nagar and high flames were seen around the building.</t>
-  </si>
-  <si>
-    <t>karnataka-massive-erupts-in-four-storey-building-in-banasawadi-bengaluru-ramamurthy-nagar-damages-casualty-images-video-2023-11-13-902494</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/karnataka/karnataka-massive-erupts-in-four-storey-building-in-banasawadi-bengaluru-ramamurthy-nagar-damages-casualty-images-video-2023-11-13-902494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Uttar Pradesh: Woman gang-raped, assaulted in Agra hotel, was forced to consume alcohol, 5 arrested    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agra: As many as five people, including a woman, have been arrested in connection with an alleged gang rape of a woman at a hotel in Agra district of Uttar Pradesh, police said on Sunday. The victim, who is around 25 years of age, said that an objectionable video of hers was made earlier and she was blackmailed over it. The victim police that she was forced to drink alcohol and a glass bottle was broken on her head. "On Saturday night, Tajganj police received a call that in a rich homestay, a woman here had been raped and was assaulted. According to the complaint filed by the victim, a case has been filed under relevant sections," Archana Singh, Assistant Commissioner of Police, Agra Sadar, said on Sunday. Agra Police said that five people including one woman have been arrested after the incident was reported.Advertisement
+    <t>news-tamil-nadu-five-dead-truck-collides-with-car-tirupur-district-latest-updates-police-investigation-cm-mk-stalin-compensation-condoles-demise-2023-11-17-903066</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/tamil-nadu/news-tamil-nadu-five-dead-truck-collides-with-car-tirupur-district-latest-updates-police-investigation-cm-mk-stalin-compensation-condoles-demise-2023-11-17-903066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Why IDFC FIRST Bank FIRST WOW! Credit Card is the best secured credit card    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit checks are an integral part of credit card application and approval. If you are a first-time applicant, you may also need to show your income proof along with other documents to get the card of your preference. All these checks and verifications can make credit card applications tedious and time-consuming.However, with an IDFC FIRST WOW! Credit Card, you can eliminate these hassles and get your card effortlessly. As this credit card is backed by a Fixed Deposit (FD), income proof and credit history are not required. But a quick, hassle-free application process is not the only benefit of the FIRST WOW! Credit Card. This card also comes with a host of shopping, entertainment, lifestyle, and travel benefits. Explore why it is the best secured credit card ever.A secured credit card is a financial tool that bridges the gap for individuals who might have a limited credit history, past financial setbacks, or irregular incomes. It requires you to provide a fixed deposit as collateral, which serves as a safety net for the credit card issuing bank.Advertisement
  </t>
   </si>
   <si>
-    <t>woman-gang-raped-assaulted-agra-hotel-forced-to-consume-alcohol-5-arrested-uttar-pradesh-police-latest-updates-2023-11-13-902491</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/uttar-pradesh/woman-gang-raped-assaulted-agra-hotel-forced-to-consume-alcohol-5-arrested-uttar-pradesh-police-latest-updates-2023-11-13-902491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      US: Republican candidate Tim Scott drops out of 2024 presidential race amid poor show in polls    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a surprise development, US Senator and the only Black Republican presidential candidate Tim Scott on late Sunday (local time) announced that he is withdrawing from the presidential race for the 2024 elections, as he struggles to gain traction days after the third primary debate.He made the announcement on "Sunday Night in America" with Trey Gowdy. The Republican Senator entered the race in May with more cash than any other Republican candidate but couldn't find a lane in a field dominated by former President Donald Trump. The 58-year-old Senator continued to struggle in the polls just days after the third Republican primary debate."I love America more today than I did on May 22. But when I go back to Iowa, it will not be as a presidential candidate. I am suspending my campaign. I think the voters who are the most remarkable people on the planet have been really clear that they're telling me, Not now, Tim," he said on the show on Sunday night.Scott further said that he wouldn't be making an endorsement of his remaining Republican rivals, adding that the voters are "really smart". He also appeared to rule out serving as vice president, saying that becoming the running mate has never been on his "to-do list for the campaign".Scott is a deeply religious former insurance broker, who made his grandfather's work in the cotton fields of the Deep South a bedrock of his political identity and of his presidential campaign.But he also refused to frame his own life story around the country's racial inequities, insisting that those who disagree with his views on the issue are trying to “weaponise race to divide us”, and that “the truth of my life disproves their lies”. He has served as a US Senator in South Carolina since 2013.Meanwhile, Florida Governor Ron DeSantis, Scott's Republican rival, said that he is a "strong conservative with bold ideas about how to get our country back on track". "I respect his courage to run this campaign and thank him for his service to America and the US Senate,” he wrote on social media.Advertisement
- Earlier, another candidate, former US Vice President Mike Pence, also decided to put the brakes on his presidential campaign for the upcoming elections in 2024 after struggling to gain traction. "We always knew this would be an uphill battle, but I have no regrets. To the American people, I say this is not my time, but it's still your time. I urge you to hold fast to what matters most, faith, family, and the constitution of the United States of America," he said at an event.Pence reportedly lagged behind other Republican contenders in fundraising and poll numbers and is the most high-profile candidate to pull out of the presidential race. He was ex-President Donald Trump's running mate, but broke ranks after the latter's loss in the 2020 elections and the Capitol riots on January 6, 2021.
+    <t>https://www.indiatvnews.com/brand-content/news/why-idfc-first-bank-first-wow-credit-card-is-the-best-secured-credit-card-2023-11-15-902856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Shah Rukh Khan hosts David Beckham for private party, video of footballer arriving at Mannat goes viral    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Beckham was in Mumbai for the ICC World Cup semi-final match between India and New Zealand. He was on a three-day visit to India as part of his tour as UNICEF’s Goodwill Ambassador. Before leaving India, the iconic footballer attended a private party which was hosted by Shah Rukh Khan. Video of David Beckham arriving at Shah Rukh Khan's residence Mannat is now going viral on social media.In the video, David Beckham was seen sporting casual look for the party. The bash was attended by several other celebrities too. Apart from Shah Rukh Khan, Sonam Kapoor and her husband Anand Ahuja too hosted a party for the footballer.Anand had earlier watched the match with David in the stadium before the footballer joined them at their house.At the party, David Beckham met several Bollywood stars who were on the guest list. This included Malaika Arora, Arjun Kapoor, Sanjay Kapoor, Shanaya Kapoor, Maheep Kapoor, Karisma Kapoor and Shahid Kapoor with wife Mira Rajput among othersAdvertisement
+ Besides this, David Beckham had also visited Ambani's residence Antilia. He was gifted a custom-made Mumbai Indians ‘number 7’ jersey by the family, since they are the owners. A picture of his visit was also shared on social media.
 Advertisement
-On the campaign trail, Pence had to frequently defend his decision to oppose Trump and his alleged attempts to overturn the 2020 election. Pence repeatedly said that he fulfilled his constitutional responsibilities during the joint session of Congress on January 6, 2021, amid the attack on the US Capitol, a claim that many Republican voters disagreed with.Trump long blamed Pence for refusing to back his plans to overturn the election results, causing Pence to have to publicly rebuke Trump — and by extension, many of his followers. </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/us-republican-candidate-tim-scott-drops-out-of-2024-presidential-race-amid-poor-show-in-polls-donald-trump-latest-updates-2023-11-13-902492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Delhi Fire Service receives over 200 fire-related calls on Diwali     </t>
-  </si>
-  <si>
-    <t>Diwali 2023: The Delhi Fire Service received a total of 208 calls of fire-related incidents, of which 22 of them caused were by firecrackers, on Diwali, an official said on Monday. Fortunately, there were no reported casualties in any of the fire incidents during this Diwali.Atul Garg, Director, Delhi Fire Services said that there were major fire incidents in Sadar Bazar, East of Kailash and Tilak Nagar on Sunday. "No casualty was reported in any fire incident on this Diwali. A total of 208 fire-related calls including 22 firecrackers-related calls were received yesterday," he said.According to the Delhi Fire Service official, a major fire broke out at a godown in Deputy Ganj of Sadar Bazar in Central Delhi. Twenty-two fire tenders pressed into service took two hours to control over the blaze, he added.Advertisement
- Meawnhile, in West Delhi's Tilak Nagar, there was a fire at a market that gutted half a dozen shops. A fire incident was reported in outer Delhi's Sultanpuri as well.</t>
-  </si>
-  <si>
-    <t>delhi-fire-service-receives-over-200-fire-related-calls-sadar-bazaar-diwali-firecrackers-aqi-air-pollution-latest-updates-2023-11-13-902485</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/delhi/delhi-fire-service-receives-over-200-fire-related-calls-sadar-bazaar-diwali-firecrackers-aqi-air-pollution-latest-updates-2023-11-13-902485</t>
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/news/shah-rukh-khan-hosts-david-beckham-for-private-party-video-of-footballer-arriving-at-mannat-goes-viral-2023-11-17-903075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Alleviating Menstrual Discomfort:  10 food items to ease period cramps    </t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/lifestyle/food/alleviating-menstrual-discomfort-10-food-items-to-ease-period-cramps-2023-11-16-889799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Tiger 3 Box Office Collection Day 5: Salman Khan action film grosses Rs 187 crore    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fifth instalment of the YRF Spy Universe created a massive buzz on social media after Salman Khan and Katrina Kaif starrer Tiger 3 released on Diwali.  Just like Ek Tha Tiger and Tiger Zinda Hai, Tiger 3 has been winning a lot of appreciation from the critics and audience. Fans have been in awe of Salman's return as the OG spy and has been roaring loud at the box office as well.According to Sacnilk, film has collected Rs 18.50 crore on Thursday despite World Cup match.Till now, Tiger 3 has earned Rs 187.65 crore in India. As far as collections are concerned, domestically the movie is racing towards Rs 200 crore-mark. The action movie performed well on its first 4 days at the box office and earned Rs 169.15 Cr India net. The film had an overall 16.44% Hindi Occupancy on Thursday,Tiger 3 features Salman Khan in the lead alongside Katrina Kaif and Emraan Hashmi. The film, helmed by Maneesh Sharma, was released in cinemas on November 12th, 2023, in Hindi, Tamil, and Telugu. The action thriller might emerge as the third successful installment in the Tiger franchise. Advertisement
+ </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/news/tiger-3-box-office-collection-day-5-salman-khan-action-film-grosses-rs-187-crore-2023-11-17-903070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Chhath Puja 2023: Delhi civic body 10-point plan for smooth conduct of 'mahaparv' | Check    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhath Puja 2023: To ensure the smooth conduct of Chhath Puja in Delhi, the Municipal Corporation of Delhi (MCD) has formulated a 10-point plan. The Chhath 'Mahaparv', which spans four days, commenced today (November 17) with the Nahay Khay ritual.Addressing a press conference, AAP MCD in-charge Durgesh Pathak said that comprehensive preparations have been made for Chhath Mahaparv, and Chief Minister Arvind Kejriwal has unveiled a 10-point plan for the occasion. The plan includes the construction of ghats and the provision of lights and toilet facilities at ghats, among other things.Mayor Shelly Oberoi said that AAP councillors have set up a committee in their respective wards to manage crowds during Chhath puja celebrations at the ghats and local volunteers along with the municipal councillors will help supervise the celebrations."All AAP councillors in different wards have set up a committee along with local volunteers to supervise the arrangements and manage the crowds at the Chhath Ghats," Oberoi told PTI while inspecting preparations at Dabari in Dwarka.According to officials, the MCD has spent Rs 1 crore for preparations of Chhath puja across its 250 wards.Advertisement
+ Delhi Minister Atishi said the toxic foam on the Yamuna will be cleared in the next one or two days and asked the Uttar Pradesh government to stop the release of dirty water in the river. She said that the Arvind Kejriwal government has made arrangements for devotees during Chhath."The work of clearing the foam on the Yamuna river is going on. Using boats, Delhi Jal Board teams are spraying chemicals and enzymes to remove the foam, and it will be cleared in one or two days. But I want to urge the Uttar Pradesh government to not release polluted water. The water that is coming towards Kalindi Kunj side of the river is from the Uttar Pradesh barrage," Atishi said.
+Advertisement
+</t>
+  </si>
+  <si>
+    <t>chhath-puja-2023-mcd-delhi-10-point-plan-smooth-conduct-mahaparv-nahay-khay-kharna-surya-arghya-aap-bjp-manoj-tiwari-arvind-kejriwal-latest-updates-2023-11-17-903069</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/chhath-puja-2023-mcd-delhi-10-point-plan-smooth-conduct-mahaparv-nahay-khay-kharna-surya-arghya-aap-bjp-manoj-tiwari-arvind-kejriwal-latest-updates-2023-11-17-903069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Travel time between Delhi-Jaipur to reduce to two hours using electric cable highway: Nitin Gadkari    </t>
+  </si>
+  <si>
+    <t>Delhi-Jaipur travel time: The journey from Jaipur to Delhi will soon be completed in just two hours, Union Road and Transport Minister Nitin Gadkari said on Thursday (November 16), referring to the Centre's plan to develop electric cable highways.Gadkari made the remark in Jaipur while addressing a gathering in support of Rajyavardhan Singh Rathore, the Bharatiya Janata Party (BJP) candidate from Jhotwara Assembly constituency in Rajasthan.He said, "Now we are developing an electric cable highway between Jaipur-Delhi. With this, you can sit in business class and reach Delhi in two hours. At the same time, its fare will be 30 per cent less than a diesel bus.”"When we said that the journey from Delhi to Meerut would be completed in 45 minutes, journalists laughed. Today, people tell me that they come from Meerut to Delhi to eat ice cream. I want to bring the people of Jaipur to eat Delhi's ice cream and the people of Delhi to eat Jaipur's Kachori. This has become possible as the people of the country gave full majority to the Bharatiya Janata Party," he added.Advertisement
+ "Our party is not a party of mother and son. Nor is it a father-son party. I was a small worker who used to paste posters. Still, the party gave me opportunities. Our aim is not just to change the rule. Our aim is to eliminate hunger, poverty and unemployment in the country," Gadkari added.He also visited Vidyadhar Nagar assembly constituency to conduct a roadshow for Diya Kumari.
+Advertisement
+Addressing the gathering after the roadshow, Gadkari said, "I have got the opportunity to visit many areas of Rajasthan. I am very happy to see the enthusiasm of the people. I have full confidence that Diya Kumari is going to win and the Bharatiya Janata Party will get the majority in Rajasthan."</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/delhi-jaipur-travel-time-reduce-electric-cable-highway-two-hours-distance-nitin-gadkari-bjp-transport-minister-business-class-ticket-latest-updates-2023-11-17-903068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Navi Mumbai Metro line 1 services to begin from today | Check ticket price, routes and timings     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navi Mumbai Metro: The much-awaited metro services will begin in Navi Mumbai from today (November 17). The 11 km-long elevated Metro Rail Line 1 connecting Belapur and Pendhar will be thrown open for the public. According to the state-run planning authority, the City and Industrial Development Corporation (CIDCO), the services on the 11.10 kilometre route were being thrown open to the public on the direction of Chief Minister Eknath Shinde “without any official programme”.“The much-awaited metro services will commence on line 1 between Belapur to Pendhar from November 17. Hearty congratulations to all Navi Mumbaikars. The Maharashtra government had given instructions to CIDCO that the metro should be made operational at the earliest for the citizens of Navi Mumbai. Accordingly, Metro services are being commenced without waiting for an official public programme,” the CM was quoted as saying in the release.Interestingly, the metro route had been finished and approved for operations a while back, but it was purportedly delayed as the state government awaited the inauguration by Prime Minister Narendra Modi.Shinde said metro services will provide better connectivity within Navi Mumbai. “The government aims to build a strong network of metro lines in the Mumbai Metropolitan Region. CIDCO is implementing a metro network very effectively in Navi Mumbai,” Shinde further said. Advertisement
+  The metro route between Belapur and Pendhar has 11 stations, with the depot located at Taloja Panchanand.
+Advertisement
+</t>
+  </si>
+  <si>
+    <t>navi-mumbai-metro-line-1-services-check-ticket-price-routes-timings-others-eknath-shinde-cidco-latest-updates-2023-11-17-903065</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/maharashtra/navi-mumbai-metro-line-1-services-check-ticket-price-routes-timings-others-eknath-shinde-cidco-latest-updates-2023-11-17-903065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Sweet Potatoes: Nutritional benefits of adding Shakarkand to your diet     </t>
+  </si>
+  <si>
+    <t>Delve into the remarkable attributes of sweet potatoes, commonly known as shakarkand, that extend beyond their delightful taste. These vibrant tubers not only contribute to blood sugar regulation, making them favourable for individuals seeking to manage their glucose levels, but they also possess compounds that hold potential in cancer prevention. Rich in essential nutrients like fibre, vitamins, and minerals, sweet potatoes offer a wholesome addition to your diet. To savour their goodness, explore a range of delectable recipes that incorporate these versatile root vegetables.Blood Sugar Management: Sweet potatoes, or shakarkand, serve as an excellent choice for individuals aiming to control their blood sugar levels. Their low glycemic index and high fibre content contribute to slow and steady digestion, preventing sudden spikes in blood sugar. This makes them a valuable addition to the diets of those managing diabetes or seeking to regulate their glucose levels.Cancer Prevention Potential: These vibrant root vegetables contain a range of beneficial compounds, including antioxidants like beta-carotene and anthocyanins. These antioxidants are known for their potential to neutralize harmful free radicals, which can contribute to the development of chronic diseases, including cancer. Incorporating sweet potatoes into your diet may offer protective effects against certain types of cancers.Advertisement
+ Nutrient-Rich Profile: Sweet potatoes boast an impressive nutrient profile. They are a rich source of dietary fibre, essential for digestive health and maintaining a feeling of fullness. Additionally, they are packed with vitamins such as vitamin A (in the form of beta-carotene), vitamin C, and several B vitamins. Minerals like potassium contribute to maintaining a healthy balance of electrolytes.</t>
+  </si>
+  <si>
+    <t>sweet-potatoes-nutritional-benefits-of-adding-shakarkand-to-your-diet-2023-11-16-889832</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/health/sweet-potatoes-nutritional-benefits-of-adding-shakarkand-to-your-diet-2023-11-16-889832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Breaking News, November 17 | LIVE Updates     </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/breaking-news-november-17-live-updates-pm-modi-bjp-congress-chhattisgarh-mp-elections-delhi-pollution-gyanvapi-survey-telangana-manifesto-chhath-puja-2023-11-17-903064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Horoscope Today, November 17: Virgos to get support from father; know about other zodiac signs    </t>
+  </si>
+  <si>
+    <t>Horoscope Today, November 17, 2023: Today is Udaya Tithi Chaturthi and Friday of Kartik Shukla Paksha. Chaturthi Tithi will last till 11.04 pm today. Purvashada Nakshatra will remain till 1:17 pm tonight. Today Vainayaki Shri Ganesh Chaturthi fast will be observed. Apart from this, the Surya Shashthi fast starts today. Know from Acharya Indu Prakash how the day of November 17 will be for you and by what measures you can make this day better.Today will be a great day for you. Will go to some religious place with family for darshan. If you do any work with a calm mind today, it will be completed soon. Before taking any family decision, definitely take the opinion of the elders in the house. Today is an auspicious day to start a new work which will bring more benefits in the future. Today you will continue to get support from parents in your work.Today will be your lucky day. You will have to work harder to complete some tasks. Some new work may also come up in the office. Today there are chances of you getting financial gain. You will meet a special friend today. Today is going to be a successful day for people working as architects. The result of any competitive examination will be in your favor.Today is going to be a good day for you. There will be an atmosphere of devotion in your house due to any religious ritual being performed at your house today. Misunderstandings in family relationships will be resolved today. People suffering from skin problems will consult a good doctor today. There is a possibility of traveling abroad with a business partner. If you keep positive thinking, you will be successful in completing your work well.Today is going to be a golden day for you. Today there will be sweetness in your married life. Today is a good day for businessmen. You can plan to go on a trip with friends. Today you will get support from officers in the office. Will go on a trip with spouse. Today is going to be a good day for students, they will get support from teachers in completing any project.Today is going to be a good day for you. Today people associated with sports will work hard in their training. Today students will take help from seniors in completing their practicals. Happiness and satisfaction will increase in the family. Health will be better today than before. The newly married couple will consider visiting a religious place today. People associated with politics will remain dominant in the society, people will try to connect with you.Today is going to be favorable for you. People who are involved in businesses like hotels or restaurants will get more profit today. Today you will get support from your father both in life and the workplace. Today there will be sweetness in your family relationships. Your spouse will gift you some necessary items. You will get help from your elder brother in household chores. People associated with politics can organize a meeting today.Advertisement
+ Today may be a day full of changes for you. Today you will make up your mind to restart the stalled work. Today you will get success in the work done with the blessings of your parents. By keeping the family together, your role will become bigger, your respect in the family will increase and you will feel proud. Students' interest in studies will increase. Make good use of your time, there are good chances of your success soon.Today is going to be a great day for you. Today you will get more profit than expected in business. Today you will try to make your life better. Today some guests may come to your house, you will be happy. There will be a little more work in the office today, but all the work will be completed well by evening. Today there will be harmony with your spouse.
+Advertisement
+Today is going to be a happy day for you. There are chances of you getting some good news today. This happiness may be related to your son's career. Today you may get some new work in the office. Will spend this evening with family, which will make family life happy. Today, people associated with the field of education may get new opportunities for progress. Women will get encouragement in office.Today has brought new happiness in your life. Today, any journey undertaken in connection with some work will be beneficial. The arrival of a relative in the family will create an atmosphere of happiness in the house. You will think about completing your goal as soon as possible. Seeing your good work in the office, juniors will respect you more. People who are involved in marketing may get good clients today.</t>
+  </si>
+  <si>
+    <t>horoscope-today-november-17-virgos-to-get-support-from-father-know-about-other-zodiac-signs-2023-11-16-903039</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/astrology/horoscope-today-november-17-virgos-to-get-support-from-father-know-about-other-zodiac-signs-2023-11-16-903039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Aaj Ki Baat: Full episode, November 16, 2023 | WATCH    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello and welcome to Aaj Ki Baat With Rajat Sharma, the only news show with real facts and no noise.In today's episode:India's number one and most followed Super Prime Time News Show, ‘Aaj Ki Baat-Rajat Sharma Ke Saath' was launched just before the 2014 general elections. Since its inception, the show is redefining India’s super-prime time and is numerically far ahead of its contemporaries. Advertisement
+ </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/aaj-ki-baat-full-episode-november-16-2023-pm-modi-priyanka-gandhi-calls-jyotiraditya-scindia-congress-bjp-rajasthan-ujjwala-yogi-adityanath-rahul-gand-2023-11-16-903058</t>
   </si>
 </sst>
 </file>
@@ -671,141 +672,144 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
@@ -819,21 +823,21 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>52</v>
@@ -843,50 +847,50 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>65</v>
@@ -900,21 +904,21 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>72</v>
